--- a/news_data/2021_04.xlsx
+++ b/news_data/2021_04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,9 +22,96 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>[방송] '생생정보' 미스터리 제주도 관광, 가 볼만한 곳 어디?</t>
+  </si>
+  <si>
+    <t>밀려드는 관광객에 ‘불안’…뾰족한 대책 없는 제주도</t>
+  </si>
+  <si>
+    <t>제주도 상춘 관광객 코로나19 나흘째 잇단 확진</t>
+  </si>
+  <si>
+    <t>제주도로 신혼여행 온 관광객 1명 코로나19 확진</t>
+  </si>
+  <si>
+    <t>제주도, 관광객 등 마을어장 해루질 인원 제한 검토</t>
+  </si>
+  <si>
     <t>제주도, 공영관광지 입장료 등 면제혜택 전국 병역명문가로 확대</t>
   </si>
   <si>
+    <t>2030은 SNS 이색명소 '인증샷'…4050은 제주도 등 유명관광지 '픽'</t>
+  </si>
+  <si>
+    <t>SK렌터카, 제주도 전기차 3000대로 늘린다...관광객 이용 기회 확대</t>
+  </si>
+  <si>
+    <t>제주도 관광사업체 특별집중방역 사전점검 실시</t>
+  </si>
+  <si>
+    <t>제주 방문 관광객 잇따라 확진…제주도 “확산 우려, 방역수칙 준수해야”</t>
+  </si>
+  <si>
+    <t>제주도, 올해 공영관광지 32개소 대상 운영평가 실시</t>
+  </si>
+  <si>
+    <t>'관광객 몰려오는데'...심상치 않은 제주도 상황</t>
+  </si>
+  <si>
+    <t>관광객 몰리는 제주도… 신혼여행객 등 잇따라 확진</t>
+  </si>
+  <si>
+    <t>제주도, 수도권 관광객 2명 코로나19 신규 확진</t>
+  </si>
+  <si>
+    <t>솔담한방병원·제주도관광협회, 한의웰니스관광사업 활성화 업무협약</t>
+  </si>
+  <si>
+    <t>제주도 하루 입도 관광객 4만명 돌파…코로나19 확산 우려</t>
+  </si>
+  <si>
+    <t>5월 제주도 관광 인파 절정 예상…제주 풀스테이 풀빌라, “미리 예약하세요”</t>
+  </si>
+  <si>
+    <t>[종합] 관광객 연일 확진…제주도 9·10일 15명 신규 감염</t>
+  </si>
+  <si>
+    <t>제주도 올해 공영관광지 32곳 대상 운영평가</t>
+  </si>
+  <si>
+    <t>[원주]김희철(슈퍼주니어) "코로나 끝나면 원주가 제주도 못지 않은 관광지 될...</t>
+  </si>
+  <si>
+    <t>사천시~제주도, 뱃길 관광 등 관광활성화 맞손</t>
+  </si>
+  <si>
+    <t>제주도, 문화관광해설사 간담회 개최</t>
+  </si>
+  <si>
+    <t xml:space="preserve">롯데관광개발, 드림타워 카지노 5월 재개장…제주도 최종 승인 </t>
+  </si>
+  <si>
+    <t>제주도 관광객 ‘야간 해루질’ 금지된다</t>
+  </si>
+  <si>
+    <t>제주도, '활동 20주년' 문화관광해설사와 간담회</t>
+  </si>
+  <si>
+    <t>제주도-프랑스, 스마트관광‧부유식 해상풍력 교류방안 논의</t>
+  </si>
+  <si>
+    <t>[전문] 제주도 673번째 확진자 발생...경상남도 사천시에서 입도한 관광객</t>
+  </si>
+  <si>
+    <t>제주도-제주관광공사-SK텔레콤, '제주 러뷰 챌린지' 개최</t>
+  </si>
+  <si>
+    <t>[자막뉴스] 관광객 몰려오는데...비상 걸린 제주도 상황</t>
+  </si>
+  <si>
+    <t>제주도 관광객 코로나 이전 수준 회복... 제주도민 기쁨과 걱정 교차</t>
+  </si>
+  <si>
     <t>제주도관광협회-사천시관광협회, 업무협약 체결</t>
   </si>
   <si>
@@ -52,28 +139,115 @@
     <t>제주도·제주관광공사·SK텔레콤, ‘제주 러뷰 챌린지’개최</t>
   </si>
   <si>
-    <t>제주도, 공영관광지 입장료 등 면제혜택 전국 병역명문가로 확대 &lt; 제주 &lt; 전국 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-04 10:31 (화) 실시간 뉴스 교황, 푸틴 핵 위협에 "전쟁 멈출 것" 경고 윤웅석 전 국기원 연수원장 국기원장 출마 전라북도 장애인 럭비팀 선수단 결단식 예고 '돌싱글즈3' 조예영♥한정민 애틋한 이별..."조심히 가" 티엔 아카데미, ‘초·중·고 미국 유학 부산 설명회’ 부산 벡스코에서 개최 윤석열 대통령·김건희 여사 풍자 '윤석열차' 전시 화제...작가는 고교생? 문송희, ‘사랑나눔자선콘서트’ 화려한 오프닝 공연 예고 아이피샵, 2022 광주국제아트페어 참여 김해 민간 장기 임대아파트 '용두지구 성원상떼빌' 분양 코요태 빽가, 지석진과 한솥밥 먹는다...컴백 일정은? [이만수의 야구 이야기] 꿈에 그리던 동남아시아 야구 대회 개최 오에스피 공모주 청약일정·수요예측·상장일은? '공모가 8400원 확정' HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 291호(2022-09) 작은 승리 거둔 이준석 구독하기 본문영역 이전 기사보기 다음 기사보기 제주도, 공영관광지 입장료 등 면제혜택 전국 병역명문가로 확대 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도, 공영관광지 입장료 등 면제혜택 전국 병역명문가로 확대 기자명 양기철 기자 입력 2021.04.15 09:20 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 '제주도 병역명문가 예우 및 지원에 관한 조례' 개정 따라 전국 광역자치단체 최초로 시행 [시사매거진/제주] 제주특별자치도는 4월 14일부터 제주 거주 병역명문가에게만 우대하던 제주도 공영관광지 입장료 등 면제 혜택을 전국 광역자치단체 중 최초로 전국의 병역명문가까지 확대해 시행한다고 밝혔다. 병역명문가는 3대(조부, 부·백부·숙부, 본인 및 형제·사촌형제)가 모두 현역 복무 등을 성실히 마친 후 병무청장에게 병역명문가증을 신청해 발급받은 가문을 말한다. 현재 제주지역에는 169가문·917명, 전국은 7,631가문·3만8,665명이 병역명문가로 선정되어 있다. 제주도는 지난 3월 제393회 도의회 임시회에서 '제주특별자치도 병역명문가 예우 및 지원에 관한 조례'가 개정됨에 따라 제주도에서 운영하고 있는 공영관광지 29개소에 대한 입장료(관람료) 및 주차장 등 사용료 감면 혜택을 제공할 방침이다. 감면 혜택은 병역명문가로 인정받은 당사자뿐만 아니라 그 가족(부모, 배우자, 자녀)도 받을 수 있다. 제주도내 공영관광지에서 우대혜택을 받고자 하는 경우 예우대상자와 그 가족은 병무청장이 발행한 병역명문가증과 신분증 및 가족임을 증명할 수 있는 증빙자료를 제시해야 한다. 이동희 도 보훈청장은 “병역을 명예롭게 이행한 사람이 존경받고 긍지를 가질 수 있는 사회분위기 조성을 위해 광역자치단체 최초로 실시하게 됐다”고 말했다. 이어 “관광제주의 이미지 고양과 함께 타 지자체에서도 확대 시행됨으로써 병역명문가에 대한 예우활성화 분위기가 자리 잡을 수 있길 바란다”고 전했다. 양기철 기자 ygc9966@naver.com 새시대 새언론 시사매거진 양기철 기자 ygc9966@naver.com 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 돈스파이크, 필로폰 투약혐의로 체포... 결혼·와이프·어머니·프로필 주목 '빗썸' 실소유주 의혹 강종현 회장, 재산·나이·직업은? '김종민 결혼설' 신지, 축하 꽃다발 선물 누가 줬을까 [전국노래자랑 방송일정] 故 송해 후임 MC 김신영 연달아 광주 찾는다 '손흥민 교체아웃, 이메르송 퇴장' 아스널·토트넘 경기일정·중계시간 신지, 김종민과 결혼설 후 물 오른 미모... 더 예뻐진 근황 눈길 상생소비복권 '당첨자발표일' 제외업종 공개 돈스파이크, 필로폰 투약혐의로 체포... 결혼·와이프·어머니·프로필 주목 주요기사 정부조직 개편안 조만간 발표...여가부 폐지 중점 논의 [오늘날씨] 일본기상청 '첫눈·상현 반월' 서울날씨 '19도 기온뚝' 비소식, 2022년 단풍시기·명소 정진석 "국정동력 확보 위해 정부 조직개편 논의해야" 尹정부 첫 국정감사 4일 개막...여야 격돌 전망 여야, 감사원 '文 서면조사' 요구 놓고 공방 격화 [속보]러시아, 우크라이나 전쟁 중 핵 사용할까 '서방 경계심 강화' 최신뉴스 윤웅석 전 국기원 연수원장 국기원장 출마 전라북도 장애인 럭비팀 선수단 결단식 예고 '돌싱글즈3' 조예영♥한정민 애틋한 이별..."조심히 가" 티엔 아카데미, ‘초·중·고 미국 유학 부산 설명회’ 부산 벡스코에서 개최 윤석열 대통령·김건희 여사 풍자 '윤석열차' 전시 화제...작가는 고교생? 포토뉴스 윤웅석 전 국기원 연수원장 국기원장 출마 전라북도 장애인 럭비팀 선수단 결단식 예고 '돌싱글즈3' 조예영♥한정민 애틋한 이별..."조심히 가" 티엔 아카데미, ‘초·중·고 미국 유학 부산 설명회’ 부산 벡스코에서 개최 인기뉴스 1 돈스파이크, 필로폰 투약혐의로 체포... 결혼·와이프·어머니·프로필 주목 2 '빗썸' 실소유주 의혹 강종현 회장, 재산·나이·직업은? 3 '김종민 결혼설' 신지, 축하 꽃다발 선물 누가 줬을까 4 [전국노래자랑 방송일정] 故 송해 후임 MC 김신영 연달아 광주 찾는다 5 '손흥민 교체아웃, 이메르송 퇴장' 아스널·토트넘 경기일정·중계시간 6 신지, 김종민과 결혼설 후 물 오른 미모... 더 예뻐진 근황 눈길 7 상생소비복권 '당첨자발표일' 제외업종 공개 8 애플 아이폰14·PRO 통신 3사 사전예약 혜택·가격·출시일·색상 화제 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도관광협회-사천시관광협회, 업무협약 체결 &lt; 관광일반 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-04 11:15 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 해상풍력 갈등관리, 중립적 객관적 중간지원기구 고민 할 때다 세상을 번역하는 영화번역가 황석희, 6일 제주대 강연 3년만에 열리는 제주물 세계포럼...지하수 보전관리 논의 제주4·3 전국화 초석 놓았다...초중고 교과서에 모두 ‘4·3 서술’ 양덕순 제주연구원장 예정자 “실용적 정책연구 추진” 공언 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도관광협회-사천시관광협회, 업무협약 체결 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 관광일반 제주도관광협회-사천시관광협회, 업무협약 체결 기자명 한형진 기자					(cooldead@naver.com) 입력 2021.04.09 10:20 댓글 1 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 부동석 제주도관광협회 회장(왼쪽), 서원호 사천시관광진흥협의회 위원장.제주도관광협회(회장 부동석)와 경남 사천시관광진흥협의회(위원장 서원호)는 제주-사천 양 지역의 상생 협력과 관광객 유치 증진을 위한 업무 협약을 5일 제주종합비즈니스센터에서 체결했다.협약 사항은 ▲양 지역의 관광 상품 개발, 관광객 유치 공동 마케팅 전개 ▲제주-사천 뱃길 관광 활성화 ▲양 기관 주최 주요 행사 개최 시 상호 홍보 지원 등이다.지난달 20일 제주와 사천을 잇는 ‘오션비스타 제주호’가 새로 취항했다. 제주도관광협회는 오션비스타 제주호를 활용해 여행업·선사 등 관련 업계와의 네트워크 강화, 민간 차원의 관광·문화 교류 확대를 도모한다는 방침이다. 항공 위주의 관광객 수요를 뱃길로 유도해 제주 접근성을 확대해 나간다.부동석 회장은 “제주와 사천의 관광 자원을 활용한 상호 협력으로 양 지역의 관광을 매개체로 지역 경제 활성화에 기여해 나가겠다”고 소감을 밝혔다.제주도관광협회와 사천시관광진흥협의회는 제주-사천 양 지역의 상생 협력과 관광객 유치 증진을 위한 업무 협약을 5일 제주종합비즈니스센터에서 체결했다. 한형진 기자 cooldead@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 2 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 3 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 4 제주 구좌읍 평대리 단독주택서 화재…인명피해 없어 5 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 6 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 7 개천절 제주, 30도 넘는 깜짝 더위...5일부터는 찬바람 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 10 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 1 미덥지 못한 ‘관광청 제주 설치’ 尹정부 공약, 용두사미 되나? 2 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 3 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 4 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 5 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 6 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 7 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 10 돌아온 일상, 한층 더 책과 친숙해진 ‘2022 제주독서대전’ 1 도정에 입맛에 따라 움직이던 분으로 기억하는데....전임이 아예 보수정치꼬리표를 달았다면 이분은 색깔없이 정치하는 분이란 느낌이.... 2 구직 청년 왜이렇게 많음? ㄷㄷㄷㄷ 미깡이라도 따래 댕기라 마농 심글땐 마농밭가고 3 니들 역사 잘모르자나 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ그냥 노는 날이 다 정도로 안는 거같음 ㅋㅋㅋㅋ 곰이 사람되고 그런 거야 ㅋㅋㅋ 겨레가 뭐냐? 카자흐스탄좀 갔다와 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ겨레의 뜻도 모르는 것들이 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ고조선이 뭐냐 조선 조선의 뜻이 뭐냐 ㅋㅋㅋㅋㅋㅋ주스야 ㅋㅋㅋ 달 태양 금성 왜 조선이라고 하는줄을 모른 ㅋㅋ그냥 개천절은 노는날 정도임 마늘 처먹은 곰탱이 이러구 알고 있음 ㅋㅋㅋㅋ 조선의 뜻을 알아야 되는거 임 우리의 뿌리 을 알아야되는것임 그런 놈들이 43을 안다고 하냐 ㅋㅋㅋ 우리가 케레이 다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 4 왜 이걸 제주도만 시범으로 빠따 맞아야 하나? 만만한 제주도라서 그런가? 시범시범시범 5 제주도의원들은 할일이 없겠음 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ제주자치도인지 서울자치도인지 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 6 아래 댓처럼 일 못하는 고문관들이 회사와 사회발전의 암이다 이런새끼들의 특징 1. 기본 계산도 못한다 2. 좆도 모르는 일에 나대면서 아는척은 존나게 한다 3. 그런 주제에 양심도 도덕도 없어서 여러사람 눈 찌푸리게 하는걸 지만 모른다 7 급식비가 얼마냐 가 아니라 급식 수준이 봐야 되는거지 ㅋㅋㅋㅋㅋㅋ 급식은 처먹으면서 애들 급식수준이 떨어지면 조사해 보던가 하지 무조건 돈돈하는 건니들 같어 ㅋㅋㅋ 물가가 오르던 말던 급식이 애들 불만 없이 잘되면 그만이지 기준없이 잘만 하는 지역도 많쿠만 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ이런 미친 돈 또라이들 8 썬오브 비치 9 당시 기준에서 재판해야한다. 남로당에 부역한 전원에 대해 엄중한 책임을 부과하고 잘못을 인식시켜야 한다. 용서는 사실인정과 반성이 있어야 가능하다. 당시 재판이 가장 사실에 부합하다. 10 1948년 한림동국민학교에서 조선민주애국청년동맹대회 때 사회를 보아 명예의장으로 남조선노동당 박헌영을 추대함과 동시에 남조선노동당 박헌영 체포령 취소 요구 진정서를 미군정청사령관 하지 중장에 보내는 데 앞장을 선 사람을 무죄를 오늘 선고한다면 대한민국의 정체성은 더욱 더 흔들린다. + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 이듸 일름 적읍서 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 제주 제2공항, 전·현지사 머리 맞대라 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 어룬 방둥인 애기 이상 엇나 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 있을 법하지 않은, 낯선 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 올리 추석 멩질상엔 고사리육개장 올렴수다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도, 문화관광해설사 활동지원·여건개선 강화 &lt; 경제/관광 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-04 11:07 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 문화관광해설사 활동지원·여건개선 강화 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제/관광 제주도, 문화관광해설사 활동지원·여건개선 강화 기자명 강동우 기자 입력 2021.04.06 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 양성 20주년 기념해 각종 행사 및 지원 등 확대 34개 관광지·190명 참여 제주도는 문화관광해설사 활동 20주년을 맞아 해설사 활동 여건 개선과 역량강화 및 기념사업 등에 총 12억 원을 투입할 계획이다. 제주도가 제주를 방문하는 관광객의 제주도에 대한 이해와 감상, 체험기회를 제공하고, 역사⋅문화⋅예술⋅자연 등 관광자원 전반에 대한 전문적인 해설을 위해 운영하고 있는 문화관광해설사의 근무여건 개선에 적극 나서고 있다. 제주특별자치도는 6일 문화관광해설사 활동 20주년을 맞아 해설사 활동 여건 개선과 역량강화 및 기념사업 등에 총 12억 원을 투입해 문화관광해설사에 대한 지원을 강화할 방침이라고 밝혔다. 문화관광해설사는 지난 2001년도부터 관광객의 이해와 감상, 체험기회를 제공하고, 역사⋅문화⋅예술⋅자연 등 관광자원 전반에 대한 전문적인 해설을 위해 운영되고 있다. 제주도는 현재까지 312명의 문화관광해설사를 양성했으며 올해는 190명을 도내 34개 관광지에 투입, 지난 1월23일 활동하고 있다. 제주도는 특히 지난해 이후 코로나19 확산방지를 위해 주요 관광지의 코로나19 관련 안전 및 질서유지, 안내 등 업무에 참여할 수 있도록 조정하고 있다. 또한 해설사의 활동여건 확대와 함께 제주 안전관광 조성 등에 참여할 수 있도록 지원하고 있다. 문화관광 해설 안내를 받고자 하는 사람은 관광지별 사회적 거리두기 단계별 방역수칙 범위 내에서 해당 관광지에 위치한 관광안내소에서 사전예약하거나 현장 접수를 통해 신청 가능하다. 제주도는 오는 8월 문화관광해설사 창립 20주년 기념행사와 문화관광해설사 제주어 말하기 대회를 개최해 도내 관광자원과 문화에 대한 공유의 장을 마련하는 등 문화관광해설사의 역량을 고취해 나갈 계획이다. 이외에도 문화관광해설사의 안전한 활동을 지원하기 위해 전 참여자에 대한 상해보험 가입하고 있다. 아울러 코로나19가 진정되면 현장답사와 문화유산 답사를 추진한다. 매년 실시되는 보수교육은 오는 5월부터 7월까지 한국관광공사가 주관하는 온라인 보수교육으로 변경 추진하고 있다. 김재웅 도 관광국장은 “제주특별자치도를 알리는 문화관광 전도사 역할을 하고 있는 문화관광해설사 지속적인 처우개선과 질 좋은 관광 안내서비스를 받을 수 있도록 서비스 개선, 홍보 등 다양한 방안을 마련하겠다”고 말했다. 강동우 기자 kdw2312@naver.com 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 제주특산식물 세포주은행 구축 산업화 연구 ‘성과’ 제주지식재산센터 10월 무료 변리상담 지원 JDC, 내국인면세점 감정노동자 힐링 교육 대신여성의용소방대, 소화전·호스릴 비상소화장치 점검 도내 미취업청년 8365명에 42억원 재난지원금 지급 포토뉴스 제주특산식물 세포주은행 구축 산업화 연구 ‘성과’ JDC, 내국인면세점 감정노동자 힐링 교육 대신여성의용소방대, 소화전·호스릴 비상소화장치 점검 도내 미취업청년 8365명에 42억원 재난지원금 지급 인기뉴스 1 서귀포예술의전당, ‘빛이 머무는 곶’전(展) 개최 2 막바지 국비예산 확보에 더욱 진력해야 3 제주도, 중증장애인아동 돌봄 지원 960시간으로 확대 4 “제주, 누구도 가보지 않은 새로운 길 도전한다” 5 삼매봉도서관 10월 5일 재개관 6 “토지세가 너무 많이 나왔어요” 7 제주 관광 전세 버스는 달리고 싶은데… “기사가 없어요” 8 제주 4일 최대 30㎜ 비…5일 찬바람 ‘주의’ 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>사천시-제주도 관광협회 관광활성화 협약 - 경남도민일보 로그인 회원가입 Close 뉴스 뉴스덤 뉴스찜 사람들 지역 전체 진주 통영 사천 김해 밀양 거제 양산 의령 함안 창녕 고성 남해 하동 산청 함양 거창 합천 지역종합 사회 전체 사건·사고 법원·검찰·경찰 노동 농민 환경 시민 교통 날씨 역사 의료·위생 남북관계 국제 국방·군사 인권·복지 봉사·미담 정치·행정 전체 선거 지방의회 행정 국회 정당 정부 경제 전체 부동산 유통·물류 산업 금융 농수산 자동차 조선 건설 서비스 에너지 소비자 취업 연구·개발 항공·해운·항만 교육 전체 대학 초중고 사교육 교육행정 교육단체 대입 어린이·청소년 유아교육 사립학교 평생교육 교사의 생각 교육카페 NIE 문화·생활 전체 TV·연예 책·학술 문학 음악 미술·사진 공연 영화·비디오 여성·가정 종교 건강 멋 대중문화 문화재 글쓰기큰잔치 청소년문학대상 생활상담 박물관 연극 지역축제 문화단체 문화정책 레저·스포츠 전체 경기 체육인 체육행정 생활체육 레저 축구 농구 골프 야구 배구 경륜경마 2018 창원 세계사격선수권대회 미디어 전체 미디어비평 인터넷 정정과 반론 지면평가위원회 미디어 동향 이슈트랙백 정보보고 데스크의 눈 편집국통신 뉴스 덤 보도자료 전체 교육 소식 교육보도자료 여론·칼럼 전체 사설 오피니언 칼럼 I 오피니언 칼럼 II 취재노트 바튼소리 독자 칼럼 3.15광장 온라인광장 독자와 톡톡 기획·연재 전체 Weekly경남 김주완이 만난 사람 인물 전체 사람in 인터뷰 화제 새얼굴 인사 부음 결혼 모임 동정 남촌수필 정보 전체 행사 온정 수상 집회 모집 공지 종친회 동창회 향우회 구인·구직 개업 잔치 상담&amp;학습 자치단체일정 아침 신문 미리보기 오늘의 운세 경남의 날씨 여행과음식 전체 여행 맛 맛있는 집 낚시 남해 바래길에서 사부작 만화 전체 그림세상 궁시렁 북툰 한입에 쏙! 피플파워 전체 2011년 10월 2011년 11월 2011년 12월 2012년 1월 2012년 2월 2012년 3월 2012년 4월 2012년 5월 2012년 6월 2012년 7월 2012년 8월 2012년 9월 2012년 10월 2012년 11월 2012년 12월 2013년 1월 2013년 2월 2013년 3월 2013년 4월 2013년 5월 2013년 6월 2013년 7월 2013년 8월 2013년 9월 2013년 10월 2013년 11월 2013년 12월 2014년 1월 2014년 2월 2014년 3월 2014년 4월 2014년 5월 2014년 6월 2014년 7월 2014년 8월 2014년 9월 2014년 10월 2014년 11월 2014년 12월 2015년 1월 2015년 2월 2015년 3월 2015년 4월 2015년 5월 2015년 6월 2015년 7월 2015년 8월 2015년 9월 2015년 10월 2015년 11월 2015년 12월 2016년 1월 2016년 2월 2016년 3월 2016년 4월 2016년 5월 2016년 6월 2016년 7월 2016년 8월 2016년 9월 2016년 10월 2016년 11월 2016년 12월 2017년 1월 2017년 2월 2017년 3월 2017년 4월 2017년 5월 2017년 6월 2017년 7월 2017년 8월 2017년 9월 2017년 10월 2017년 11월 2017년 12월 2018년 1월 2018년 2월 2018년 3월 2018년 4월 2018년 5월 2018년 6월 2018년 7월 2018년 8월 2018년 9월 2018년 10월 2018년 11월 2018년 12월 2019년 1월 2019년 2월 2019년 3월 2019년 4월 2019년 5월 2019년 6월 2019년 7월 2019년 8월 2019년 9월 2019년 10월 2019년 11월 2019년 12월 경남의 재발견 전체 함양 통영 양산 거창 사천 밀양 산청 고성 김해 함안 합천 하동 의령 거제 창녕 남해 진주 진해 마산 창원 에필로그 맛있는 경남 전체 통영 멍게 남해 마늘 창녕 양파 의령 망개떡 고성 갯장어 함양 산양삼 남해안 전어 함양 흑돼지 거창 사과 창원·김해진영 단감 하동 재첩 마산 홍합 통영 굴 남해 시금치 진주 딸기 통영 물메기 진해 피조개 남해 멸치 하동 녹차 남해안 털게 마산 미더덕 함안·의령 수박 지리산 물 에필로그 한국 속 경남 전체 경상도 말 통술·다찌·실비 마산 씨름 예향 통영 대통령의 고향 경남에서 만나는 이순신 마산아구찜 3·15마산의거 경남의 사찰 하동 섬진강 가야는 살아있다 마창노동운동 경남의 성씨 경남의 조선산업 근대문화유산 경남예술인 경남 스포츠인 경남의 섬 대중가요 속 경남 지리산 경남의 산 전체 지리산 남해군 함양 통영 고성 김해 창녕 사천 거제 의령 산청 밀양 양산 함안 진주 거창 하동 합천 창원 마무리 닫기 메뉴 처음으로 뉴스 뉴스덤 뉴스찜 사람들 kakao   채널 추가 twitter facebook youtube 검색 기사검색 검색 상세검색 Home 지역 사천 사천시-제주도 관광협회 관광활성화 협약 이영호 기자 (hoho@idomin.com) 2021년 04월 06일 화요일 댓글 0 페이스북 트위터 카카오스토리 카카오톡 구글+ 기사공유하기 글씨키우기 스크랩 프린트 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 사천시와 제주도를 잇는 뱃길이 7년 만에 다시 이어지는 가운데 양 지역 관광협회가 관광활성화에 협력하기로 했다. 사천시관광진흥협의회와 제주특별자치도관광협회는 5일 오전 제주도관광협회 사무실에서 관광활성화와 상생을 위한 업무협약을 체결했다. 저작권자 © 경남도민일보 무단전재 및 재배포 금지 이영호 기자 다른기사 보기 이영호 hoho@idomin.com hoho@idomin.com 페이스북 트위터 카카오스토리 카카오톡 구글+ 기사공유하기 경남도민일보 후원 방법 정기 후원회원으로 가입 일시 후원으로 응원하기 ￦ 1만원 추가 1천원 추가 초기화 페이팔로 후원하기(해외독자) 후원하기 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 많이 본 뉴스 1 HJ중공업, 거제에 선박 블록 생산 공장 개소 2 감해 삼계동 아파트 매각 예정가 1억 7900만 원 3 창원시 파크골프장 종합계획 수립 나서 4 장애인 권리 투쟁 때마다 맨 앞 지킨 윤종훈 씨 별세 5 밀양 도래재 자연휴양림서 쉬어가요 6 고성군 어린이·청소년의회 발대식 7 김윤철 합천군수, 경남도청서 주요사업 건의 8 '민주시민 교육' 폐지하려고 한 경남도 9 껍데기는 가라 찬란히 빛나는 알맹이만 남고 10 경남농협 축산사랑 한마음대회 성료 인기 뉴스 죽은 물고기로 뒤덮인 마산해양신도시 앞바다 마산 앞바다서 물고기 떼로 죽어… 원인 조사 오후 4시 - 죽은 물고기떼, 구산면 해양관광로 뒤덮었다 HJ중공업, 거제에 선박 블록 생산 공장 개소 현대비앤지스틸 창원공장서 노동자 협착 사망사고 감해 삼계동 아파트 매각 예정가 1억 7900만 원 창원시 파크골프장 종합계획 수립 나서 장애인 권리 투쟁 때마다 맨 앞 지킨 윤종훈 씨 별세 밀양 도래재 자연휴양림서 쉬어가요 고성군 어린이·청소년의회 발대식 서동진의 한뼘 굥무도하가 부울경 특별... 아니, 행정통합 '체리 따봉' 진작 보낼 걸... 주인공은... 깎아서 500억 굥무도하가 부울경 특별... 아니, 행정통합 '체리 따봉' 진작 보낼 걸... 주인공은... 깎아서 500억 사람들 "가진자의 횡포와 부조리 파헤치는 경남도민일보 응원합니다" "현장에서 느낀 진심을 다한 곡 써야겠다 다짐했죠" "노동자 목소리 잘 전달하는 경남도민일보를 응원합니다" 명절 잊었습니다 일터 돌아가려면 더 싸워야 하니까 추락하는 쌀값…농민의 가을은 웃음을 잃었다 경남도민일보소개 구독신청 개인정보취급방침 청소년보호정책 취재기자 연락처 후원회원 우)51320 경상남도 창원시 마산회원구 삼호로 38 (양덕동) TEL : 055)250-0100 팩스 : 055)250-0124 청소년보호책임자 : 손유진 경남도민일보 주식회사 사업자번호 : 608-81-33944 Copyright © 경남도민일보. All Rights Reserved. 모든 컨텐츠(영상·사진·기사 등)에 대한 무단 전재·복사·배포를 금합니다. 알림 독자투고 보도자료 제보 지면평가위 광고안내 구독신청 후원신청 후원회원 카페 위로</t>
-  </si>
-  <si>
-    <t>제주도, 봄맞이 관광객 코로나19 확진 줄줄이 '비상' 본문 바로가기 제주도, 봄맞이 관광객 코로나19 확진 줄줄이 '비상' 매일경제 매일경제TV 매경이코노미 매경LUXMEN CITYLIFE GFW M-PRINT 예능 교양 드라마 편성표 온에어 통합검색 닫기 뉴스 다시보기 이슈플러스 연예 포토 전체 정치 사회 경제 국제 문화 스포츠 연예 생활/건강 엠픽 데이터M 인기척 다듬은 우리말 뉴스 &gt; 사회 제주도, 봄맞이 관광객 코로나19 확진 줄줄이 '비상' 기사입력 2021-04-08 10:10 l 최종수정 2021-04-15 11:05 제주에서 봄맞이 관광객의 신종 코로나바이러스 감염증(코로나19) 확진 사례가 이어지고 있습니다. 제주도는 이달 들어 7일간 발생한 코로나19 확진자 12명 중 11명이 다른 지역에서 제주를 방문한 관광객이거나 다른 지역 확진자와 접촉한 후 감염된 것으로 확인됐다고 오늘(8일) 밝혔습니다. 도 조사 결과 일부 확진자 중 제주 방문 전 의심 증상이 있었거나 직장 내 확진자가 발생했지만, 제주 여행을 한 것으로 확인했습니다. 도 관광협회에 따르면 지난달 제주를 찾은 관광객은 88만 명으로, 지난해 같은 기간 47만 명에 비해 갑절 가까이 증가했습니다. 또 코로나19 사태 이전인 2019년 3월 한 달 방문객 103만 명에 비해 85% 수준으로 회복했습니다. 지난해 3월에는 코로나19로 인해 관광시장이 위축됐지만, 1년 만에 사실상 코로나19 이전 수준에 가깝게 회복되고 있습니다. 임태봉 제 주코로나방역대응추진단장은 "4월 봄 관광이 더욱 활성화되면서 관광객 중 확진되는 사례가 늘고 있다"며 "도민 중에서도 14일 이내 다른 지역을 다녀왔거나 관광객과 밀접 접촉을 한 업종 종사자들은 코로나19에 확진되지 않도록 방역 사항을 준수해 달라"고 당부했습니다. [디지털뉴스부] Copyright ⓒ MBN(매일방송) 무단전재 및 재배포 금지 화제 뉴스 '채널A 기자 명예훼손 혐의' 최강욱, 1심 무죄…"비방 목적 증명 안 돼" [속보] 통일부 "남북연락사무소 업무개시 통화 안돼…원인파악중" 이재명 "윤석열 정부, 헛발질로 판명난 '북풍몰이' 빌미로 보복감사" 민간인 죽어가는데…푸틴, 1100만원짜리 재킷입고 축하 공연 즐겨 김건희 여사는 조종석·검사는 칼 들고…금상 받은 '윤석열차' 만화 논란 "필로폰하면 살 빠지는데"…마약 전문 유튜버도 놀란 돈스파이크 몸 사이즈 오늘의 이슈픽 인기영상 시선집중 스타 핫뉴스 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요. 금주의 프로그램 화제영상 더보기 이시각 BEST 뉴스 동영상 주요뉴스 더보기 MBN 인기포토 아이프레임 미지원 장치에서는 내용을 확인할 수 없습니다. SNS 관심기사 MBN 소개 제휴 안내 TV 광고 이용약관 개인정보처리방침 기타운영정책 고객센터 뉴스제보 사이트맵 Family Site Family Site 매일경제 매경닷컴 매경이코노미 시티라이프 M-print 매일경제TV MBN 미디어렙 매일방송 대표이사 : 이동원 서울시 중구 퇴계로 190 (주)매일방송 오시는길 대표전화 02-2000-3114 매경닷컴 대표이사 : 김정욱 인터넷신문등록번호 서울 아01043 사업자 등록번호 201-81-25980 MBN의 모든 기사 및 영상(콘텐츠)은 저작권법의 보호를 받으며, 무단 전재, 복사, 배포를 금합니다. Copyright © MBN 매일방송 All rights reserved.</t>
-  </si>
-  <si>
-    <t>제24회 제주도 관광기념품 공모전...총상금 2450만원 규모 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 11:14 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제24회 제주도 관광기념품 공모전...총상금 2450만원 규모 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제24회 제주도 관광기념품 공모전...총상금 2450만원 규모 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2021.04.06 11:37 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도와 제주특별자치도관광협회는 제주의 문화, 먹거리, 관광명소 등을 반영한 대표 관광기념품을 발굴·육성하기 위해 ‘제24회 제주도관광기념품 공모전’을 개최한다고 6일 밝혔다. 공모전 대상은 민․공예품, 공산품 및 가공식품 등 국내·외 관광객들이 구매할 수 있는 모든 제주관광기념품이다. 접수기간은 오는 21일부터 30일까지이며, 공모전 출품을 원하는 업체 및 개인은 참가신청서와 함께 출품작을 제주도관광협회(제주종합비지니스센터 1층 관광기념품 홍보관)로 접수하면 된다. 참가신청서는 제주도 홈페이지(www.jeju.go.kr) 또는 제주관광협회 홈페이지(www.visitjeju.or.kr) , 제주도 관광기념품 공모전 수상작 홈페이지(www.souvenir.visitjeju.or.kr)에서 내려받을 수 있다. 출품작은 관련분야 전문가로 구성된 심사위원단과 인터넷 신청을 통해 모집한 일반인 평가단의 심사를 거친다. 제주도는 출품작 중 1차와 2차 심사 배점표에 의거 심사기준을 통과한 총 19점을 입상작으로 선정해 6월중 최종 결과를 발표할 예정이다. 공모전 입상작은 대상 1인 500만원, 금상 2인 각 300만원, 은상 3인 각 200만원, 동상 4인 각 100만원, 장려 4인 각 50만원, 입선 5인 각 30만원 총 2450만원의 상금이 수여된다. 또 수상 순위 내 6개 입상작은 상품개발 자금 지원 특전도 주어진다. 수상자들을 대상으로 도내 홍보관 전시와 온라인 마켓 탐나오 입점 및 판매지원, 박람회 참가 홍보, 지식재산권 국내출원 비용 등 지원과 상품화 기법 특강 등을 실시할 계획이다. 김재웅 제주도 관광국장은 "제주의 가치를 널리 알릴 수 있는 매력적인 관광기념품을 발굴·육성하고, 더 나아가 공모전 입상작품의 상품화 지원으로 판로 확대를 통해 제주 관광산업의 경쟁력을 강화할 수 있도록 노력하겠다"며 도내 우수 개인과 기업의 많은 참여를 당부했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 "제주 보전지역 정기조사 부실투성이...도의회, 재조사 요구하라" 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 7 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 참으로 무식한 시민단체라고 할 수 밖에... 공장도 없애야 하고 자동차도 다 없애자고 주장하고. 제주도행 비행기도 운항 중단해야 한다고 주장하는 거랑 뭐가 다른지... 누가 저렇게 하라고 시민단체에게 지시하는 사람이 있나요. 2 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 3 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 4 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 5 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 6 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 7 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 8 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 9 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 10 축하합니다. 대단하십니다. 부럽습니다~~~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도관광기념품 공모전 개최 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 11:15 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도관광기념품 공모전 개최 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도관광기념품 공모전 개최 김지우 기자 승인 2021.04.06 10:10 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도와 제주도관광협회는 제주의 문화, 먹거리, 관광명소 등을 반영한 대표 관광기념품을 발굴·육성하기 위해‘제24회 제주특별자치도관광기념품 공모전’을 개최한다고 6일 밝혔다. 공모전 대상은 민․공예품, 공산품 및 가공식품 등 국내·외 관광객들이 구매할 수 있는 모든 제주관광기념품이다. 접수기간은 오는 21일부터 30일까지이며, 공모전 출품을 원하는 업체 및 개인은 참가신청서와 함께 출품작을 제주도관광협회로 접수하면 된다. 출품작은 관련분야 전문가로 구성된 심사위원단과 인터넷 신청을 통해 모집한 일반인 평가단의 심사를 거친다. 제주도는 출품작 중 1차와 2차 심사 배점표에 의거 심사기준을 통과한 총 19점을 입상작으로 선정해 6월중 최종 결과를발표할 예정이다. 공모전 입상작은 총 2450만원의 상금이 수여되며, 수상 순위 내 6개 입상작은 상품개발 자금 지원 특전도 주어진다. 또한 수상자들을 대상으로 도내 홍보관 전시와 온라인 마켓 탐나오 입점 및 판매지원, 박람회 참가 홍보, 지식재산권 국내출원 비용 등 지원과 상품화 기법 특강 등을 실시할 계획이다. 김지우 기자  jibregas@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 김지우 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 64일부터 요양시설 접촉면회 재허용 7제주고·제주여상, 전도사격대회 고등부 단체전 정상 8깊어가는 가을, 코스모스 활짝 9기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 10김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>"제주도", 20주년 맞은 문화관광해설사와 소통 시간 마련 - 한국농업신문 × 전체기사 기획 전체 뉴스팜리포트 연속 좌담회 토종볍씨 특집 인터뷰 메가 FTA 쌀개방 대비 쌀산업 경쟁력 찾기 농정 전체 농식품부 국회 단체 농산물자조금 협동조합 인터뷰 농촌사회 전체 경기/강원 충남/충북/세종 경남/경북 전남/전북 인터뷰 쌀전업농 농산 전체 농기계 농약 기술 종자 농기자재 비료 인터뷰 식품/유통 전체 유통 가공 식품 인터뷰 축산 전체 정책 단체 산업 인터뷰 포토뉴스 산림 전체 정책 단체 산업 인터뷰 오피니언 전체 기관 칼럼 사설 米적 동정/인사 종합 전체 정치/경제 사회/일반 기획_old UPDATED. 2022-10-04 10:41 (화) 전체 기획 뉴스팜리포트 연속 좌담회 토종볍씨 특집 인터뷰 농정 농식품부 국회 단체 농산물자조금 협동조합 인터뷰 농촌사회 경기/강원 충남/충북/세종 경남/경북 전남/전북 인터뷰 쌀전업농 농산 농기계 농약 비료 종자 농기자재 인터뷰 식품/유통 유통 가공 식품 인터뷰 축산 정책 단체 산업 인터뷰 산림 정책 단체 산업 인터뷰 오피니언 기관 동정/인사 칼럼 사설 기자수첩 로그인 회원가입 모바일웹 RSS 기사검색 검색 이전 다음 "제주도", 20주년 맞은 문화관광해설사와 소통 시간 마련 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 라이프 일반 "제주도", 20주년 맞은 문화관광해설사와 소통 시간 마련 조현철 기자 jhc13@newsfarm.co.kr 승인 2021.04.13 17:20 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 사진출처=제주특별자치도 제주특별자치도는 올해 활동 20주년을 맞은 문화관광해설사들의 활동 여건 개선과 역량 강화 및 기념사업 등 지원 강화를 위한 현장 소통 시간을 마련했다.제주도는 12일 오후 2시 돌문화공원 오백장군갤러리 2층 소회의실에서 ‘문화관광해설사*와의 간담회’를 개최했다.이날 자리에는 고영권 제주특별자치도 정무부지사를 비롯해 제주도 문화관광해설사 협회 김태수 회장, 해설사 등 10여명이 자리했다.고영권 부지사는 “20년 동안 제주의 역사‧문화‧자연‧예술 등을 열심히 알려주신 문화관광해설사분들 덕분에 제주 방문 관광객들의 만족도가 크게 향상하는 등 제주 관광이 질적 성장을 이룰 수 있었다”며 “코로나19로 해설 활동이 일부 제한되고 있지만, 각자 맡은 자리에서 최선을 다해달라”고 말했다.이날 간담회에서 문화관광해설사들은 근무 일수 연장 문화관광해설사 지원 방안 확장 문화관광해설사 관련 조례 개정 추진 등을 건의했다.고 부지사는 “건의 내용을 검토하여 실질적인 지원 대책을 마련할 것”이라며 “당장 해결은 어렵더라도 지속적인 소통을 통해 조금씩 바꿔나가도록 노력하겠다”고 말했다.한편 제주도는 올해 문화관광해설사 활동 20주년을 맞아 해설사 여건 개선과 역량 강화 및 기념사업 등에 총 12억원을 지원할 예정이다.또한 코로나19로 확산 방지를 위해 문화관광 해설 활동이 일부 제한되고 있음에 따라 주요 관광지의 코로나바이러스 관련 안전 및 질서유지, 안내 등 업무에 해설사들이 참여할 수 있도록 조정하는 중이다. 저작권자 © 한국농업신문 무단전재 및 재배포 금지 조현철 기자 jhc13@newsfarm.co.kr 다른기사 보기 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 인기기사 1공익직불금 지급요건 바뀐다…농식품부 규제개선 추진 2하림, 더 간편해진 진짜 짜장면 ‘더미식 유니자장면 한그릇’ 출시 3빚을 갚지 못하는 농가, 지난해 강제집행 1천억원 첫 돌파 4[쌀전업농 25년을 이끌어온 사람들④] 김광섭 제9~10대 회장 “쌀값도 도시 근로자 시급 오르듯 올려줘야” 5신곡은 격리 수매로 몰려…RPC 벼 매입 난항 전망 6[농림축산식품부‧농림수산식품교육문화정보원‧한국농업신문 공동기획③] 환경 지키고 소비자 만족도 높이는 ‘저탄소 재배 쌀’ 뜬다 7양곡관리법 개정안 국회 농해수위 통과 난항 8[한국농업신문 창간 10주년] 흙, 물 그리고 사람…대한민국 식량안보를 지키는 초석② 농업용수는 농민에게…옥구서부수리조합부터 한국농어촌공사까지 9공공급식 플랫폼 구축…지역농산물 소비확대 '청신호' 10[인터뷰] 위기의 쌀 산업, 쌀 부가가치 높이는 식품으로 헤쳐 나가야 최신기사 “청정 건강도시, 행복 서귀포시가 되도록 적극 나설 것” “청정 건강도시, 행복 서귀포시가 되도록 적극 나설 것” 농경연, 지방소멸 위기대응 전략 세미나 공동 개최 농경연, 지방소멸 위기대응 전략 세미나 공동 개최 [데스크 칼럼] 상식과 공정이 상식이 되는 사회를 기대한다 [데스크 칼럼] 상식과 공정이 상식이 되는 사회를 기대한다 쌀가공식품산업대전 '성료'…상담액 297억원 달성 쌀가공식품산업대전 '성료'…상담액 297억원 달성 쌀가루 전용 ‘가루쌀’ 재배 "신중 또 신중" 쌀가루 전용 ‘가루쌀’ 재배 "신중 또 신중" 부여농민, 쌀값 폭락 논 갈아엎으며 대책 촉구 부여농민, 쌀값 폭락 논 갈아엎으며 대책 촉구 목재제품 우수성 알린다…목재산업박람회 개최 목재제품 우수성 알린다…목재산업박람회 개최 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 윤리강령 RSS (31041) 충청남도 천안시 서북구 성거읍 정자1길 180 한국농기계글로벌센터 B동 2층 대표전화 : 041-552-1145 팩스 : 02-6455-1147 청소년보호책임자 : 김진삼(김난영) 등록번호 : 충남 아 00258 등록일 : 2012-10-29 발행일 : 2012-10-29 (사)한국쌀전업농중앙연합회장·한국농업신문 회장 발행인 : 이은만 한국농업신문 대표이사 편집인 : 김진삼 한국농업신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 한국농업신문. All rights reserved. mail to newsfarm@newsfarm.co.kr 위로</t>
+    <t>[방송] ‘생생정보’ 미스터리 제주도 관광, 가 볼만한 곳 어디? &lt; 연예 &lt; 생활·문화 &lt; 기사본문 - 내외경제TV 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 기사제보 2022-10-11 13:35 (화) facebook naver post 종합 정치 일반 종합 경제 일반 국내 주가 국제 사회 일반 교육 사건·사고 국제 산업 일반 부동산 금융 제약·바이오 항공·자동차 게임 블록체인 AI·로봇 유통 종합 전국 수도권 영남 호남 충청 생활·문화 종합 스포츠 연예 생활·문화 포토 내외경제TV 오피니언 칼럼 동정 사고/알림 기자수첩 속보 On Air 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 [방송] ‘생생정보’ 미스터리 제주도 관광, 가 볼만한 곳 어디? 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활·문화 연예 [방송] ‘생생정보’ 미스터리 제주도 관광, 가 볼만한 곳 어디? 기자명 류예지 입력 2021.04.29 19:27 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 KBS2 ‘생생정보’ 미스터리의 제주도 여행지가 눈길을 끈다. 29일 방송된 KBS2 ‘생생정보’에서는 ‘미스터Lee 사진 한 컷’ 제주도 편이 전해졌다. 이날 미스터Lees는 제주도 첫 여행지로 제주민속촌을 찾았다. 주민들은 향토 음식 쉰다리를 만들기 바빴고 맛을 본 미스터 리는 “새콤달콤한 맛이다. 진짜 맛있다. 갈증 해소가 싹 된다”고 신기해했다. 제주 윷을 이용한 윷점으로 운세를 점쳐 눈길을 끌기도 했다. KBS2 ‘생생정보’ 두번째 미스터 리는 제주민속자연사박물관을 방문했다. 제주민속자연사박물관은 제주도가 태어나는 과정을 비롯해 제주 사람들의 여러 민속과 문화를 둘러볼 수 있다. 300번째 미션 사진을 받은 미스터리는 제주도민의 힌트로 성산일출봉, 수월봉, 용머리해안으로 범위를 좁혔다. 다음날 성산포수협활어회센터에서 갈치를 맛 본 미스터리는 본격적인 미션 장소를 찾아 나섰다. 성산일출봉에서 미션을 실패한 미스터 리는 대신 대자연의 장광을 소개했다. 미스터리의 미션 장소 찾기는 다음주에 이어진다. 류예지 drlee@redpp.co.kr 다른기사 보기 저작권자 © 내외경제TV 무단전재 및 재배포 금지 당신만 안 본 뉴스 '나는 솔로' 9기 영자 인스타 파격 노출에 "해킹 당한 거?" '나는 솔로' 9기 옥순 인스타, 수영복 패션에 정숙 "언니, 너무 섹시" '나는 솔로' 9기 정숙 인스타 "이렇게 단아하니 협찬 모델" '나는 솔로' 9기 영자 인스타, "선 넘네" 악플에 경고장? '나는 솔로' 옥순 완전체 결성되나 "7, 10기 옥순님들 들어와" '나는 솔로' 10기 영숙 인스타, 꿀피부 자랑…골프 협찬 모델 예고? '나는 솔로' 10기 현숙 인스타 "포00에서 뭐 하나" 협찬 모델 예고 '나는 솔로' 9기 영자 인스타 파격 노출에 "해킹 당한 거?" 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글입력 권한이 없습니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 류호정 의원 "청와대 오픈빨 떨어져…전방위 재정비 시급" 성범죄 가장 많이 발생한 철도역사는 '수원역' 오버워치2 PC방 3위 진입…본격적인 FPS 게임 경쟁에 돌입 전라남도의회, 제366회 임시회 12일 개회 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 [서머너즈 워] SWC2022, RAIGEKI 미주 지역 최강자 등극 최신뉴스 류호정 의원 "청와대 오픈빨 떨어져…전방위 재정비 시급" 성범죄 가장 많이 발생한 철도역사는 '수원역' 오버워치2 PC방 3위 진입…본격적인 FPS 게임 경쟁에 돌입 전라남도의회, 제366회 임시회 12일 개회 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 포토뉴스 류호정 의원 "청와대 오픈빨 떨어져…전방위 재정비 시급" 성범죄 가장 많이 발생한 철도역사는 '수원역' 오버워치2 PC방 3위 진입…본격적인 FPS 게임 경쟁에 돌입 전라남도의회, 제366회 임시회 12일 개회 인기뉴스 1 류호정 의원 "청와대 오픈빨 떨어져…전방위 재정비 시급" 2 성범죄 가장 많이 발생한 철도역사는 '수원역' 3 오버워치2 PC방 3위 진입…본격적인 FPS 게임 경쟁에 돌입 4 전라남도의회, 제366회 임시회 12일 개회 5 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 6 카드 빅4 앱 오픈페이 서비스 진행 예정 …앱 사용자 분포는? 7 네이버, 임원의 직장 내 괴롭힘 익명 제보에도 늦장 조사 8 청와대 개방에 커져만 가는 업무부담...285명의 문화재청 직원들 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 rss 매체정보 서울특별시 금천구 가산디지털1로 168, C동 12층 1209-1호(가산동, 우림라이온스밸리) 대표전화 : 070-4252-5497 청소년보호책임자 : 정동진 법인명 : (주)내외경제미디어 제호 : 내외경제TV 등록번호 : 서울 아 02225 등록일 : 2012-08-06 발행일 : 2012-08-06 발행·편집인 : 정동진 내외경제TV 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 내외경제TV. All rights reserved. mail to msn06s@nbntv.co.kr 위로 전체메뉴 종합 정치 일반 종합 경제 일반 국내 주가 국제 사회 일반 교육 사건·사고 국제 산업 일반 부동산 금융 제약·바이오 항공·자동차 게임 블록체인 AI·로봇 유통 종합 전국 수도권 영남 호남 충청 생활·문화 종합 스포츠 연예 생활·문화 포토 내외경제TV 오피니언 칼럼 동정 사고/알림 기자수첩 속보 On Air 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>밀려드는 관광객에 ‘불안’…뾰족한 대책 없는 제주도 Internet Explorer 지원 종료 안내 사용 중이신 인터넷 익스플로러(Internet Explorer)에서는 일부 기능 사용에 제한이 발생할 수 있습니다.크롬(Google Chrome), 엣지(Microsoft Edge) 등 최신 브라우저에 최적화되어 있습니다. 오늘 하루 열지 않기 메뉴 바로가기 본문 바로가기 푸터 바로가기 KBS NEWS 제보 ON AIR 재난포털 로그인 마이페이지 유튜브 페이스북 인스타그램 kbs 찾기 전체메뉴 분야별 뉴스9 TV뉴스 디지털K 스포츠 시사다큐 지역뉴스 어떤 기사를 찾으시나요? 뉴스 검색 검색어 입력 검색 버튼 많이 본 뉴스 동영상 - 검색창 숨기기 분야별 분야별- 대분류타이틀 전체 정치 경제 사회 문화 IT·과학 국제 생활·건강 스포츠 연예 날씨 특보 이슈 TV뉴스 1TV 뉴스 06:00 뉴스광장 1부 07:00 뉴스광장 2부 09:30 930뉴스 12:00 뉴스 12 14:00 뉴스 2 16:00 사사건건 17:00 뉴스 5 19:00 뉴스 7 21:00 뉴스 9 23:30 뉴스라인 2TV 뉴스 09:00 아침뉴스타임 10:40 지구촌뉴스 15:00 뉴스타임 17:50 통합뉴스룸ET 1TV 경인 뉴스광장(경인) 930 뉴스(경인) 뉴스7(경인) 뉴스9(경인) 디지털K 취재K 취재후·사건후 여심야심 데이터룸 팩트체크K 탐사K 스포츠K 글로벌K 특파원 리포트 세계는 지금 영상K 현장영상 속보영상 친절한뉴스K 기타 제대로 보겠습니다 크랩 용감한라이브 속고살지마 News Today(영어뉴스) 시사·다큐 시사 시사기획 창 일요진단 라이브 남북의 창 시사멘터리 추적 특파원 보고 세계는 지금 재난방송센터 인사이드 경인 라디오 최경영의 최강시사 주진우 라이브 최영일의 시사본부 성공예감 김방희입니다 지역뉴스 지역별- 대분류 부산 울산 창원 진주 대구 안동 포항 광주 목포 지역별- 대분류 순천 전주 대전 청주 충주 춘천 강릉 원주 제주 바로가기 바로가기 메뉴 좋아요 클립 제보 재난포털 ON AIR 뉴스 아카이브 정치합시다 글로벌 돋보기 경제한방 2022 지방선거 질문하는 기자들Q 2022 대통령선거 2022 베이징올림픽 2022 베이징패럴림픽 2020 도쿄올림픽 2020 도쿄패럴림픽 4·7 재보궐선거 저널리즘 토크쇼 J 박광식의 건강 365 한국언론 오도독 GO현장 고봉순 여의도 책방 2020 총선 2019 북미정상회담 3.1운동 100년 2018 남북정상회담 2018 북미정상회담 6.13 지방선거 러시아 월드컵 [특집] 평창동계올림픽 [특집] 평창동계패럴림픽 지진대피요령 뉴스 검색 검색어 입력 검색 버튼 기사 본문 영역 상세페이지 이슈 ‘코로나19’ 팬데믹 밀려드는 관광객에 ‘불안’…뾰족한 대책 없는 제주도 입력 2021.04.24 (22:06) 수정 2021.04.24 (22:18) 뉴스9(제주) 댓글 좋아요 공유하기 인쇄하기 글씨 크게보기 가 글씨 작게보기 고화질 표준화질 자동재생 키보드 컨트롤 안내 동영상영역 시작 동영상 시작 동영상영역 끝 동영상 고정 취소 이전기사 다음기사 고화질 표준화질 자동재생 키보드 컨트롤 안내 동영상영역 시작 동영상 시작 동영상영역 끝 동영상설명 동영상 고정 취소 [앵커] 봄을 맞아 제주를 찾는 관광객들이 밀려들면서 이달 발생한 코로나19 확진자 가운데 관광객 등 다른 지역 사람들이 70% 정도에 이르고 있습니다. 하지만 제주도는 근본적인 방역 대책을 마련하지 못하고 있습니다. 신익환 기자의 보도입니다. [리포트] 봄 기운이 완연한 요즘 제주에는 주말을 보내려는 관광객들로 북적입니다. 최근 하루 평균 제주를 찾는 관광객은 3만 5천여 명으로 코로나19 이전 수준을 거의 회복했습니다. 관광객들이즐겨 찾는 도내 한 유명 관광지 주차장은 빈자리를 찾기 힘들 만큼 차량들로 꽉 차 있습니다. 대부분의 관광객들이 방역수칙을 잘 지키고 있지만 마스크를 턱에만 걸치거나 거리두기가 지켜지지 않는 경우도 여전합니다. 주민들은 불안할 수 밖에 없습니다. [윤정순/제주시 노형동 : "(관광객이) 너무 많이 들어오면 불안하죠. 관광지 같은 데는 거의 안가죠. 관광지 가면 안되거든요. 관광객이 많이 들어오니까. 안 가요 안가."] 문제는 이달 확진자 판정을 받은 사람 가운데 70%가 관광이나 신혼여행 등을 위해 제주를 찾은 다른 지역 방문객이란 사실. 제주도가 관광객들에게 방문하기 전 코로나19 진단 검사를 통해 음성 판정을 받도록 대책을 내놨지만 사실상 있으나마나 합니다. [관광객 : "(진단 검사를) 받지도 않았고요. 들어본 적도 없는 것 같아요. 그런 거에 대해서 정보나 뉴스 같은 것도 본 적이 없고."] 4차 대유행 등 우려가 커지고 있지만 뾰족한 대책을 세우지 못하고 있는 제주도. 구심점을 잃은 도정처럼 방역 대책도 향방 없이 흔들리고 있습니다. KBS 뉴스 신익환입니다. 촬영기자:고성호 밀려드는 관광객에 ‘불안’…뾰족한 대책 없는 제주도 입력 2021-04-24 22:06:16 수정2021-04-24 22:18:44 뉴스9(제주) [앵커] 봄을 맞아 제주를 찾는 관광객들이 밀려들면서 이달 발생한 코로나19 확진자 가운데 관광객 등 다른 지역 사람들이 70% 정도에 이르고 있습니다. 하지만 제주도는 근본적인 방역 대책을 마련하지 못하고 있습니다. 신익환 기자의 보도입니다. [리포트] 봄 기운이 완연한 요즘 제주에는 주말을 보내려는 관광객들로 북적입니다. 최근 하루 평균 제주를 찾는 관광객은 3만 5천여 명으로 코로나19 이전 수준을 거의 회복했습니다. 관광객들이즐겨 찾는 도내 한 유명 관광지 주차장은 빈자리를 찾기 힘들 만큼 차량들로 꽉 차 있습니다. 대부분의 관광객들이 방역수칙을 잘 지키고 있지만 마스크를 턱에만 걸치거나 거리두기가 지켜지지 않는 경우도 여전합니다. 주민들은 불안할 수 밖에 없습니다. [윤정순/제주시 노형동 : "(관광객이) 너무 많이 들어오면 불안하죠. 관광지 같은 데는 거의 안가죠. 관광지 가면 안되거든요. 관광객이 많이 들어오니까. 안 가요 안가."] 문제는 이달 확진자 판정을 받은 사람 가운데 70%가 관광이나 신혼여행 등을 위해 제주를 찾은 다른 지역 방문객이란 사실. 제주도가 관광객들에게 방문하기 전 코로나19 진단 검사를 통해 음성 판정을 받도록 대책을 내놨지만 사실상 있으나마나 합니다. [관광객 : "(진단 검사를) 받지도 않았고요. 들어본 적도 없는 것 같아요. 그런 거에 대해서 정보나 뉴스 같은 것도 본 적이 없고."] 4차 대유행 등 우려가 커지고 있지만 뾰족한 대책을 세우지 못하고 있는 제주도. 구심점을 잃은 도정처럼 방역 대책도 향방 없이 흔들리고 있습니다. KBS 뉴스 신익환입니다. 촬영기자:고성호 뉴스9(제주) 전체보기 기자 정보 신익환 기자 sih@kbs.co.kr 신익환 기자의 기사 모음 댓글 좋아요 공유하기 ‘코로나19’ 팬데믹 동영상 신규확진 1만 명대…오늘부터 개량백신 접종 시작 경기 4399명 신규 확진…하루 전보다 1766명 증가 신규 확진 1만 5,476명…사망 10명, 석달 만에 ‘최저’ 동영상 오늘부터 무비자 일본 관광…항공 등 예약 급증 더보기 제주-주요뉴스 오늘의 HOT클릭! 동영상 Ai pick 맞춤 뉴스 8개 더보기 이 시각 헤드라인 배너 많이 본 뉴스 푸터영역 KBS소개 주소/연락처 수신료 채용 About KBS KBS소개 시청자권익센터 사이버 감사실 광고 이용약관 법적고지 개인정보처리방침 KBS N 채널 KBS Drama KBS W KBS Kids KBS N Sports KBS Joy KBS N 채널 KBS WORLD Global KBS WORLD KBS WORLD KBS / 07235 서울특별시 영등포구 여의공원로 13(여의도동) / 대표전화 02-781-1000 / 기사배열 책임자, 청소년보호책임자 : 윤상 KBS뉴스 인터넷 서비스 / 서울특별시 마포구 매봉산로 45 KBS미디어센터 / 시청자상담실 02-781-1000 / 등록번호 서울 자00297 (2010년 6월 23일) Copyright © KBS All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>제주도 상춘 관광객 코로나19 나흘째 잇단 확진 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도 상춘 관광객 코로나19 나흘째 잇단 확진 파이낸셜뉴스입력 2021.04.20 12:37수정 2021.04.20 12:37 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 방역망 빨간불…19일 1명 추가 감염 누적 확진자 676명 제주공항 국내선 도착장 발열검사 /사진=fnDB [제주=좌승훈 기자] 가족과 함께 제주에 온 관광객 1명이 코로나19 확진 판정을 받으면서 제주지역 누적 확진자 수가 676명으로 늘었다. 제주도에 따르면, 19일 하루 동안 총 940명이 진단 검사를 받았으며, 이 가운데 1명(제주 676번)이 양성 판정을 받았다. 676번 확진자는 16일 경기도 고양시에서 제주로 여행을 왔다. 여행 중 17일 오후 고양시 2632번 확진자와 접촉했다는 통보를 받아 제주도내 시설에서 격리를 이어왔다. 최초 진단검사에서는 미결정 판정을 받았었다. 이후 19일 오전 제주보건소를 방문해 재검사를 진행한 결과 양성 판정이 나왔다. 676번 확진자는 현재 증상이 없으며, 제주의료원 음압병상으로 이송돼 격리 치료를 받고 있다. 함께 입도한 가족 1명은 18일 오전 경기도로 돌아갔으며, 음성 판정을 받고 자가격리에 들어갔다. 이에 따라 지난 16~18일 3일 동안 서울에서 제주로 신혼여행을 온 A씨(제주 672번)와 경남 사천에서 온 B씨(제주 673번), 경남 의령군에서 온 C씨(제주 674번) 등 3명에 이어 4일 연속으로 코로나19 확진 관광객이 나왔다. 이 가운데 A씨의 배우자는 음성으로 확인된 가운데 현재 격리 중이다. 또 C씨는 지난 17일 가족 3명과 제주에 들어온 뒤, 함께 입도한 가족 D씨가 이날 의령군 보건소로부터 확진됐다는 통보를 받고 진단검사에 나섰고, 양성 판정이 나왔다. D씨는 코로나19 검사 결과를 확인하지 않은 채, 제주에 온 것으로 조사됐다. 앞서 지난 8일에도 서울에서 코로나19 검사를 받고 결과가 나오지 않은 상태에서 당일 저녁 제주를 찾았다가 이튿날인 9일 오전 확진 통보를 받은 사례가 있다. 도 방역당국은 확진자 진술을 확보하고, 신용카드 사용내역과 출입자 명부 확인, 현장 폐쇄회로(CC)TV 분석을 통해 여행 동선을 확인하고 있다. 한편 20일 오전 11시 기준 도내 격리 확진자는 30명, 격리 해제자는 648명이다. 가용병상은 총 409개 병상이며, 자가격리자는 총 505명(접촉 251명·해외입국 254명)이다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도로 신혼여행 온 관광객 1명 코로나19 확진 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도로 신혼여행 온 관광객 1명 코로나19 확진 파이낸셜뉴스입력 2021.04.17 13:21수정 2021.04.17 16:50 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 누적 672명…12일 제주에 와 16일 출도 전 증상 발현 제주 서귀포시 성산읍 신풍리 벚꽃길. 여행기업 스카이스캐너가 3월부터 4월 내에 출발 예정인 항공권 검색 데이터를 분석한 결과, 올 봄 인기 여행지는 제주, 부산, 서울 순으로 나타났다. [사진=제주관광공사] [제주=좌승훈 기자] 제주도로 신혼여행을 온 관광객이 코로나19 확진 판정을 받았다. 제주특별자치도는 16일 하루 동안 총 1183명의 코로나19 진단검사가 이뤄졌으며 이 가운데 1명(제주 672번)이 양성 판정이 나왔다고 17일 밝혔다 이에 따라 제주에서는 이달에만 총 45명의 코로나19 확진자가 추가로 발생했다. 올해에만 251명째다. 672번 확진자 A씨는 지난 11일 서울에서 결혼식을 한 후 12일 오후 제주도로 신혼여행을 왔다. A씨는 16일 제주를 떠날 예정이었으나, 이날 새벽부터 발열과 기침 증상이 나타나 코로나19 진단검사에 나서 확진 판정을 받았다. A씨는 현재 제주의료원 음압병상으로 이송돼 격리치료를 받고 있다. 함께 온 배우자에 대한 진담 검사도 이뤄져 현재 결과를 기다리고 있다. 도 방역당국은 이들의 여행 동선이 확인되는 대로 방문지에 대한 방역을 진행할 방침이다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 관광객 등 마을어장 해루질 인원 제한 검토 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도, 관광객 등 마을어장 해루질 인원 제한 검토 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도, 관광객 등 마을어장 해루질 인원 제한 검토 송고시간2021-04-19 11:35 요약 beta 닫기 제주도가 야간에 하는 맨손 어업인 해루질 전면 금지에 대한 논란이 일자 제도 개선을 검토한다. 19일 제주도의회에서 열린 제주도와 도의회 '수산자원 보호·관리를 위한 정책간담회'에서 양홍식 도 해양수산국장은 "마을 어장을 부분적으로 개장하되 사전 예약을 받아 예약 인원만 마을 어장에서 해루질을 할 수 있도록 인원을 제한하는 방안을 고려하고 있다"고 밝혔다. 맨손 어업이 허가제가 아닌 신고로 운영되고 있지만, 맨손 어업 업체의 총량을 정해 운영하도록 하겠다는 의미다. 요약 정보 인공지능이 자동으로 줄인 '세 줄 요약' 기술을 사용합니다. 전체 내용을 이해하기 위해서는 기사 본문과 함께 읽어야 합니다. 제공 = 연합뉴스&amp;줌인터넷® 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 고성식 기자 기자 페이지 어장 보호 위한 야간 채취 전면 금지 이후 논란에 개선 추진 (제주=연합뉴스) 고성식 기자 = 제주도가 야간에 하는 맨손 어업인 해루질 전면 금지에 대한 논란이 일자 제도 개선을 검토한다. 야간 해루질 [태안해경 제공. 재판매 및 DB 금지] 19일 제주도의회에서 열린 제주도와 도의회 '수산자원 보호·관리를 위한 정책간담회'에서 양홍식 도 해양수산국장은 "마을 어장을 부분적으로 개장하되 사전 예약을 받아 예약 인원만 마을 어장에서 해루질을 할 수 있도록 인원을 제한하는 방안을 고려하고 있다"고 밝혔다. 양 국장은 또 "도지사가 맨손 어업 신고 업체의 정수(定數)를 정해 맨손어업 신고제를 운용할 수 있는지를 해양수산부와 검토하고 있다고 말했다. 광고 이는 맨손 어업이 허가제가 아닌 신고로 운영되고 있지만, 맨손 어업 업체의 총량을 정해 운영하도록 하겠다는 의미다. 이날 간담회에서 조훈배 도의회 의원은 "일부 해루질을 하는 사람들이 전문 장비로 수산 동식물을 주워 담고 있어 마을 어장의 씨가 마르고 있으며 당근마켓 등에서 해루질로 잡은 수산 동식물을 저렴하게 판매해 수산물 시장을 교란하고 있다"면서 강력 단속을 주문했다. 강성균 도의회 의원은 "수중 레저활동의 안전 및 활성화 등에 관한 법률 등의 규정이 지역 현실과 맞지 않는 한계가 있어 기준이 모호하다"면서 "법과 제도 정비를 위한 노력이 필요하다"고 말했다. 도는 마을어장의 수산자원 보호를 위해 지난 9일 야간 해루질 전면 금지 내용을 담은 '비어업인의 포획·채취 제한 및 조건'을 고시했다. 서귀포시 안덕면 대평리 해녀 등 도내 어촌계는 "무차별 해루질로 인해 마을 어장의 수자원이 고갈되고 있다"며 "대평리 어촌계의 경우 마을 어장을 살리고 소득을 만들기 위해 각종 종패를 뿌리고 키웠지만 10분의 1도 거두지 못하고 있다"고 주장했다. 또 "홍해삼과 문어, 갑오징어 등이 해루질로 사라지면서 마을 어장 수자원이 고갈되고 황폐해지고 있다"며 "해루질을 막기 위해 밤마다 순찰하고 있으나 막을 수가 없는 상황이다"고 토로했다. 이에 반해 다이버와 해루질 동호회는 수중 레저활동자들이 수중레저법에 의해 합법적인 레저활동으로 하는 해루질을 제주도의 고시로 금지할 수 없다면서 반발하고 있다. 또 고시 적용 시 현실적인 해경의 단속 인력이 부족할 수 있다는 지적이 제기됐다. koss@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2021/04/19 11:35 송고 #해루질 #마을어장 #해녀 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 02:58 [영상] 푸틴, 미사일 보복 인정…바이든 "러시아, 비용 치르게 할 것" 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:46 [영상] 러, 우크라 전역에 대규모 보복 공격…70여명 사상·인프라 파괴 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 서울서 50대 권총에 맞아…"극단적 선택 추정" 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 출동 경찰관 가슴 밀치고 상의 흔든 30대, 테이저건 맞고 검거 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 선우은숙, 4살 연하 아나운서 유영재와 재혼 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 "유해를 그토록 찾길 원했는데"…6·25참전 故박태인 경사 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 뉴욕증시, CPI·실적 대기 속에 하락…나스닥 1%↓마감 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 두산과 작별한 김태형 감독, 5개 구단 제의 가능…태풍 되나(종합) 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 뉴스 학업성취도 자율평가 대상 늘린다…2024년까지 초3∼고2로 확대 '화약고' 감사원 국감, '감사위원 배석' 놓고 오전 내내 파행 러 "서방의 우크라 개입 확대에 적절히 맞대응" 경고 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 광고 댓글 많은 뉴스 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 36 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 28 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 15 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 댓글수 15 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도, 공영관광지 입장료 등 면제혜택 전국 병역명문가로 확대 - 전국 &gt; 기사 - 더팩트 HOME &gt; NEWS &gt; 전국 &gt; 제주 제주도, 공영관광지 입장료 등 면제혜택 전국 병역명문가로 확대 입력: 2021.04.14 14:19 / 수정: 2021.04.14 14:19 제주도는 14일부터 제주 거주 병역명문가에게만 우대하던 제주도 공영관광지 입장료 등 면제 혜택을 전국 광역자치단체 중 최초로 전국의 병역명문가까지 확대해 시행한다고 밝혔다. / 제주도 제공공영관광지 29곳의 입장료(관람료)·주차장 등 사용료 감면 혜택 제공[더팩트ㅣ제주=문지수 기자] 제주도는 14일부터 제주 거주 병역명문가에게만 우대하던 제주도 공영관광지 입장료 등 면제 혜택을 전국 광역자치단체 중 최초로 전국의 병역명문가까지 확대해 시행한다고 14일 밝혔다.병역명문가는 3대(조부, 부·백부·숙부, 본인 및 형제·사촌형제)가 모두 현역 복무 등을 성실히 마친 후 병무청장에게 병역명문가증을 신청해 발급받은 가문을 말한다.현재 제주에는 169가문·917명, 전국은 7631가문·3만8665명이 병역명문가로 선정돼 있다.제주도는 지난 3월 제393회 도의회 임시회에서 '제주특별자치도 병역명문가 예우 및 지원에 관한 조례'가 개정돼 제주도에서 운영하고 있는 공영관광지 29곳의 입장료(관람료) 및 주차장 등 사용료 감면 혜택을 제공할 예정이다.감면 혜택은 병역명문가로 인정받은 당사자뿐만 아니라 그 가족(부모, 배우자, 자녀)도 받을 수 있다.제주도내 공영관광지에서 우대혜택을 받고자 하는 경우 예우대상자와 그 가족은 병무청장이 발행한 병역명문가증과 신분증 및 가족임을 증명할 수 있는 증빙자료를 제시해야 한다.이동희 도 보훈청장은 "병역을 명예롭게 이행한 사람이 존경받고 긍지를 가질 수 있는 사회분위기 조성을 위해 광역자치단체 최초로 실시하게 됐다"고 말했다.이어 "관광제주의 이미지 고양과 함께 타 지자체에서도 확대 시행됨으로써 병역명문가에 대한 예우활성화 분위기가 자리 잡을 수 있길 바란다"고 전했다.hyejun@tf.co.kr 발로 뛰는 &lt;더팩트&gt;는 24시간 여러분의 제보를 기다립니다. ▶카카오톡: '더팩트제보' 검색 ▶이메일: jebo@tf.co.kr ▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write - 네이버 메인 더팩트 구독하고 [특종보자▶] - 그곳이 알고싶냐? [영상보기▶] AD 인기기사 실시간 TOP10 정치 경제 사회 연예</t>
+  </si>
+  <si>
+    <t>SK렌터카, 제주도 전기차 3000대로 늘린다...관광객 이용 기회 확대 - 전자신문 Conference allshowTV 검색 뉴스 속보 경제·금융 전자·모빌리티 통신·미디어·게임 소재·부품 SW·보안 산업·에너지·환경 플랫폼·유통 벤처·바이오 뉴스 정치 전국 국제 골프 화제의뉴스 인사·부음 오피니언 특집 연재 비주얼IT 스페셜리포트 뷰포인트 인포그래픽 라이프 연예 포토 공연전시 생활문화 날씨 부가서비스 콘퍼런스 allshowTV IT 전시 컨벤션 ET프리미엄 시사용어 PDF 서비스 English 서비스 안내 신문구독신청 온라인광고안내 콘텐츠구매 초판서비스 번역센터 회원 서비스 로그인 회원가입 패밀리미디어 서울신문 RPM9 EBN 산업경제신문 경제·금융 전자·모빌리티 통신·미디어·게임 소재·부품 SW·보안 산업·에너지·환경 플랫폼·유통 벤처·바이오 정치 전국 국제 SK렌터카, 제주도 전기차 3000대로 늘린다...관광객 이용 기회 확대 발행일 : 2021-04-16 16:31 국내 최대 규모 전기차 전용 단지 구축아이오닉5·EV6 등 모델 다양화전기차 배터리 활용 V2G 사업도 추진 &lt;황일문 SK렌터카 대표가 이종환 한국전력 사업총괄부사장과 16일 서울 그랜드 워커힐 아카디아에서 K-EV100 협력사업 업무 협약을 체결했다.&gt; SK렌터카가 제주도에 국내 최대 규모의 전기차 전용 단지를 조성한다. 충전 인프라 구축을 위해 관련 국내 최대 사업자 한국전력과도 협력한다. 3000여대의 전기차 배터리를 에너지 저장 시스템(ESS)으로 활용해 잉여전력을 저장·판매하는 V2G 사업도 진행한다. SK렌터카는 16일 서울 광진구 워커힐 아카디아에서 한국전력과 이 같은 내용을 담은 '한국형 무공해차 전환 100(K-EV100)' 협력사업 협약을 체결했다. SK렌터카는 2025년까지 현재 제주시 소재 '빌리카' 부지 7200평(제주시 용문로 62)을 전기차 전용 단지로 조성하고, 전기차 3000대를 도입한다. 제주공항에서 3분 거리에 위치한다. 차량을 충전할 7200㎾급 충전 인프라도 구축한다. 완속, 초급속 충전기 비중은 한국전력과 협의해 확정한다. 전기차 모델은 현대차 '아이오닉 5', 기아 'EV 6' 등을 시작으로 다양화한다. 올해는 전국 장·단기렌터카를 포함해 4000여대를 구매할 계획으로 매년 제주도 전기차도 늘려갈 방침이다. SK렌터카는 3000대 규모의 제주도 전기차 전용 단지를 통해 연간 130만명에게 전기차 이용 경험을 제공할 수 있을 것으로 내다봤다. 이는 제주도 입도객의 10% 수준이다. 내연기관 차량의 렌터카를 전기차로 전환, 탄소배출 저감에도 기여할 수 있을 것으로 기대된다. 전기차 3000대 도입 시 연간 1만2000톤의 이산화탄소 배출을 줄일 수 있다. 전기차 전용 단지는 제주도가 추진하는 '탄소 없는 섬(CFI)' 정책과 SK그룹의 ESG 경영에도 부합한다. 양사는 전기차를 활용한 V2G(Vehicle to Grid) 사업도 추진한다. 전기 사용량이 적어 저렴할 때 충전하고 사용량이 많을 때 전기를 판매하는 형태다. 잉여전력을 배터리에 저장함으로써 에너지 손실을 줄일 수 있다. 사업은 전기차 예약 상황을 고려해 탄력적으로 진행할 방침이다. SK렌터카와 한국전력은 법인 대상 영업에서도 협력하기로 했다. 보유 차량을 전기차 렌털로 교체할 경우 충전 설비 구축까지 지원하는 원스톱 솔루션을 제공할 계획이다. SK그룹 관계사를 시작으로 고객 확대에 나설 예정이다. 황일문 SK렌터카 대표는 “'백문이불여일견'이란 말처럼 친환경 전기차 확산을 위해 고객에게 전기차 이용 경험을 갖게 하는 게 무엇보다 중요하다고 판단해 단지 조성을 결정했다”고 말했다. 한편, SK렌터카의 세컨 브랜드 '빌리카'는 SK렌터카 제주지점(제주시 덕지2길 6) 위치로 이전해 지속 운영한다. 박진형기자 jin@etnews.com 이번 주 HOT 콘텐츠 AI와 빅데이터, 어디까지 활용해봤니? RPA의 성장에 실패한 기업들이 간과했던 여섯 가지- 역량 내재화와 프로세스 자동화 CoE를 중심으로 BRAND NEWSROOM 마이스터즈천홍준 마이스터즈 대표, "대기업·중소기업과 소비자까지, 모두의 ‘ESG’ 함께 하겠다"'4차산업'이라는 이름 아래 산업계가 탄력적으로 변화하고 있다. 특히 상품이나 서비스는 물론 조직구조나 인력활용 면에서도 상당한 유연성을 보인다. 유니온커뮤니티유니온커뮤니티-스위스 바이오인식 TBS, 유럽 시장 확대 MOU 체결국내 최대 멀티모달 생체인식 보안 솔루션기업 유니온커뮤니티(대표 신요식)는 스위스 바이오식 기술 전문 TBS(Touchless Biometric Systems) AG와 MOU를 체결했다고 30일 밝혔다. 여의시스템여의시스템, 인텔 vPro 기술 기반 원격 관리 및 모니터링 ELMS 솔루션 론칭스마트팩토리/자동제어 솔루션 리딩 기업 ㈜여의시스템이 인텔의 파트너 프로그램인 MRS (Market Ready Solution) 을 통해 인텔 vPro 기술 기반 엣지 라인 원격 관리 및 모니터링 솔루션인 ELMS를 성공적으로 런칭 하였다고 밝혔다. 한국무라타전자한국무라타전자, 국내 최대 전자·IT 전시회 '한국전자전' 참가한국무라타전자(대표이사 요시오카 켄이치)는 오는 10월 4일부터 7일까지 개최되는 국내 최대 전자·IT 전시회인 한국전자전(KES 2022)에 참가한다고 13일 밝혔다. 시큐어링크시큐어링크, AI 기술 접목한 고성능 UTM 출시 예정시큐어링크(대표 고준용)는 자사의 특허기술인 행동분석 랜섬웨어 차단 엔진을 기반으로 AI 기술을 접목, 엔드포인트 및 네트워크 등 다양한 인프라에 적용가능한 UTM 신제품을 준비중이라고 7일 밝혔다. 버넥트버넥트, XR 엔터테인먼트 사업 본격 시동버넥트(대표 하태진)는 기존의 산업용 XR 솔루션 사업을 넘어 XR 엔터테인먼트 사업에 본격적인 시동을 걸었다고 29일 밝혔다. 많이 본 뉴스 1 '갤럭시S23', 카메라로 아이폰14 잡을까 2 베트남 넷플릭스 1위 달리던 ‘작은 아씨들’, 돌연 방영 중단…이유는? 3 'ㅅㅏㅁㅅㅓㅇ', 삼성전자 한글날 맞아 한글 로고 선보여 4 저 얼음 밑에 생명체?... 목성 위성 '유로파'의 선명한 주름 5 LG전자, 3분기 영업이익 7466억원...매출은 역대 최고 BIZPLUS 디지털전환을 위한 VMware Cloud on AWS 트랜드 따라잡기 "구글 클라우드 AlloyDB 알아보기" 10월 25일 생방송 제조분야 스마트 혁신을 이끄는 AI기반 분석 기술 반도체 인프라 구축을 위한 하이테크 BIM 설계 자동화 웨비나 구글 클라우드 AlloyDB로 데이터베이스 워크로드 혁신하기 데이터와 시뮬레이션 모델을 활용한 건전성 예측관리 솔루션 개발 전자신문 회사소개 지면광고 행사문의 주소: 서울시 서초구 양재대로2길 22-16 호반파크1관 8~9층 대표번호: 02-2168-9200 구독문의: 02-2671-1806~7 전자신문인터넷 회사소개 이용약관 개인정보취급방침 고충처리 사이트맵 주소: 서울시 서초구 양재대로2길 22-16 호반파크1관 7층 대표번호: 02-857-0114 사업자번호: 107-81-80959 등록번호: 서울 아04494 제호: 전자신문인터넷 등록일자: 2017년 04월 27일 발행일자: 1996년 04월 10일 발행·편집인: 심규호 청소년보호책임자: 김인기 Copyright © Electronic Times Internet. All Rights Reserved. 패밀리미디어 RPM9 서울신문 EBN 산업경제신문</t>
+  </si>
+  <si>
+    <t>제주도 관광사업체 특별집중방역 사전점검 실시 &lt; 경제/관광 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-11 14:45 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 관광사업체 특별집중방역 사전점검 실시 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제/관광 제주도 관광사업체 특별집중방역 사전점검 실시 기자명 강동우 기자 입력 2021.04.21 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 지난 11일부터 18일까지 코로나19 확산 차단 위해 방역상황 점검 도내 관광사업체 627개소 중 제주안심코드 558개소(88%) 설치 제주특별자치도는 지난 11일부터 18일까지 8일간 도내 관광사업체 방역현장에 대한 사전 특별점검을 실시했다고 밝혔다. 지난 4월초 연일 국내 코로나19 확진자가 700명대를 기록하는 등 코로나19 4차 대유행이 우려되는 상황에서 제주를 찾는 관광객들의 수가 성수기 수준으로 급증하고 있다. 이러한 관광객의 증가로 도내 관광업계가 다소 회복세를 보이고 있지만, 도내 코로나19 확진자가 늘어날 경우 관광업계가 큰 타격을 받으면서 관광시장이 다시 침체될 것으로 우려되고 있다. 이에 제주도는 코로나19 확산을 사전에 차단하기 위해 제주도관광협회, 제주도관광공사와 함께 특별방역 합동점검반(1일 6개반·20여명)을 구성해 도내 주요 관광사업체 627개소를 대상으로 코로나19 방역상황에 대한 특별점검을 실시했다. 점검결과 도내 관광사업체 627개소 중 제주안심코드를 설치한 업체는 558개소(88%)인 것으로 파악됐다. 이어 제주안심코드가 설치되지 않은 관광사업체에 대해 제주안심코드 설치를 적극 독려했다. 이밖에도 대부분의 관광사업체에서 마스크 착용, 발열체크, 손 소독제 비치 등 사회적 거리두기 및 코로나19 방역수칙을 준수하고 있는 것으로 조사됐다. 한편 제주도는 지난 1월 설연휴 특별집중점검을 시작으로 2월말부터 상시 점검체계를 구축하고 있다. 코로나19 장기화로 힘든 도내 관광사업체의 현장의 소리를 듣기 위해 도내 관광사업체를 대상으로 방역물품 지원과 함께 지속적인 방역계도활동을 전개하고 있으며, 금번 특별점검시에도 방역물품(마스크 7,000개·손소독제 2,000개)을 추가 지원했다. 지속적인 방역계도활동을 전개하고 있으며, 방역물품(마스크 16,000장·손소독제 2,000개)을 지원해 오고 있다. 김재웅 도 관광국장은 “앞으로도 제주 관문인 제주공항과 항만에서부터 마스크 착용, 제주안심코드 이용 안내 등 사회적 거리두기 캠페인을 전개해 나가겠다”고 밝혔다. 또한 “도내 관광사업체의 자발적이고 적극적인 사회적 거리두기 및 방역지침 준수를 통해 일방적인 여행자제보다는 방역·관광이 공존할 수 있는 제주관광환경을 구축해 제주관광산업의 조기회복에 최선을 다하겠다”고 덧붙였다. 강동우 기자 kdw2312@naver.com 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 서귀포시, 사무관 8명 승진 임용 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 포토뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 인기뉴스 1 “눈을 의심했다” 휘발유·실내등유 가격 차 고작 100원 2 3년 만의 '노마스크' 탐라문화제 '팡파르' 3 ‘천년의 숨결’ 제61회 탐라문화제 막내렸다 4 오영훈 제주도지사 “분산에너지 특구 지정해 달라” 5 “내가 소개하는 작은도서관” 영상공모전 7작 시상 6 다혼디배움학교 현장 여론 존중돼야 7 3년 만에 열리는 제주광어 대축제 8 한국전력 전기요금 인상에 제주 양식업계 반발 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주 방문 관광객 잇따라 확진…제주도 “확산 우려, 방역수칙 준수해야” Internet Explorer 지원 종료 안내 사용 중이신 인터넷 익스플로러(Internet Explorer)에서는 일부 기능 사용에 제한이 발생할 수 있습니다.크롬(Google Chrome), 엣지(Microsoft Edge) 등 최신 브라우저에 최적화되어 있습니다. 오늘 하루 열지 않기 메뉴 바로가기 본문 바로가기 푸터 바로가기 KBS NEWS 제보 ON AIR 재난포털 로그인 마이페이지 유튜브 페이스북 인스타그램 kbs 찾기 전체메뉴 분야별 뉴스9 TV뉴스 디지털K 스포츠 시사다큐 지역뉴스 어떤 기사를 찾으시나요? 뉴스 검색 검색어 입력 검색 버튼 많이 본 뉴스 동영상 - 검색창 숨기기 분야별 분야별- 대분류타이틀 전체 정치 경제 사회 문화 IT·과학 국제 생활·건강 스포츠 연예 날씨 특보 이슈 TV뉴스 1TV 뉴스 06:00 뉴스광장 1부 07:00 뉴스광장 2부 09:30 930뉴스 12:00 뉴스 12 14:00 뉴스 2 16:00 사사건건 17:00 뉴스 5 19:00 뉴스 7 21:00 뉴스 9 23:30 뉴스라인 2TV 뉴스 09:00 아침뉴스타임 10:40 지구촌뉴스 15:00 뉴스타임 17:50 통합뉴스룸ET 1TV 경인 뉴스광장(경인) 930 뉴스(경인) 뉴스7(경인) 뉴스9(경인) 디지털K 취재K 취재후·사건후 여심야심 데이터룸 팩트체크K 탐사K 스포츠K 글로벌K 특파원 리포트 세계는 지금 영상K 현장영상 속보영상 친절한뉴스K 기타 제대로 보겠습니다 크랩 용감한라이브 속고살지마 News Today(영어뉴스) 시사·다큐 시사 시사기획 창 일요진단 라이브 남북의 창 시사멘터리 추적 특파원 보고 세계는 지금 재난방송센터 인사이드 경인 라디오 최경영의 최강시사 주진우 라이브 최영일의 시사본부 성공예감 김방희입니다 지역뉴스 지역별- 대분류 부산 울산 창원 진주 대구 안동 포항 광주 목포 지역별- 대분류 순천 전주 대전 청주 충주 춘천 강릉 원주 제주 바로가기 바로가기 메뉴 좋아요 클립 제보 재난포털 ON AIR 뉴스 아카이브 정치합시다 글로벌 돋보기 경제한방 2022 지방선거 질문하는 기자들Q 2022 대통령선거 2022 베이징올림픽 2022 베이징패럴림픽 2020 도쿄올림픽 2020 도쿄패럴림픽 4·7 재보궐선거 저널리즘 토크쇼 J 박광식의 건강 365 한국언론 오도독 GO현장 고봉순 여의도 책방 2020 총선 2019 북미정상회담 3.1운동 100년 2018 남북정상회담 2018 북미정상회담 6.13 지방선거 러시아 월드컵 [특집] 평창동계올림픽 [특집] 평창동계패럴림픽 지진대피요령 뉴스 검색 검색어 입력 검색 버튼 기사 본문 영역 상세페이지 이슈 ‘코로나19’ 팬데믹 제주 방문 관광객 잇따라 확진…제주도 “확산 우려, 방역수칙 준수해야” 입력 2021.04.17 (17:53) 수정 2021.04.17 (17:56) 사회 댓글 좋아요 공유하기 인쇄하기 글씨 크게보기 가 글씨 작게보기 고화질 표준화질 자동재생 키보드 컨트롤 안내 동영상영역 시작 동영상 시작 동영상영역 끝 동영상설명 동영상 고정 취소 제주를 방문한 관광객들이 잇따라 코로나19에 확진됐습니다. 제주도는 지난 14일 밤에 경남 사천시에서 제주에 온 관광객 1명이 오늘(17일) 코로나19 확진 판정을 받았다고 밝혔습니다. 이 확진자는 16일 경남 사천시보건소로부터 확진자의 접촉자라는 사실을 통보받고 같은 날 오후, 제주보건소 선별진료소에서 검사를 받아 오늘 오후 제주도 보건환경연구원으로부터 확진 판정을 받았다고 제주도는 설명했습니다. 제주도 또, 서울에서 제주로 신혼여행 온 관광객 1명이 어제(16일) 확진 판정을 받았다고 밝혔는데, 이 확진자는 12일 배우자와 함께 제주로 왔고 16일부터 관련 증상을 보여 검사 받아 확진 판정을 받았다며, 이 확진자의 배우자는 진단검사 결과 ‘음성’ 판정을 받았다고 말했습니다. 제주도는 수도권 지역을 중심으로 신규 확진자가 전국 하루 평균 600명 이상 발생하고 있는 상황에서, 최근 이틀 동안 관광객 4만여 명이 제주를 방문하고 있어 제주 도내 신규 확산을 우려하고 있다며, 진단검사 판정 전이나 관련 증상이 있으면 제주 방문을 자제하고, 부득이하게 제주로 올 때에는 사회적 거리두기와 출입기록 등 방역 수칙을 준수해 달라고 부탁했습니다. 제주 방문 관광객 잇따라 확진…제주도 “확산 우려, 방역수칙 준수해야” 입력 2021-04-17 17:53:27 수정2021-04-17 17:56:52 사회 제주를 방문한 관광객들이 잇따라 코로나19에 확진됐습니다. 제주도는 지난 14일 밤에 경남 사천시에서 제주에 온 관광객 1명이 오늘(17일) 코로나19 확진 판정을 받았다고 밝혔습니다. 이 확진자는 16일 경남 사천시보건소로부터 확진자의 접촉자라는 사실을 통보받고 같은 날 오후, 제주보건소 선별진료소에서 검사를 받아 오늘 오후 제주도 보건환경연구원으로부터 확진 판정을 받았다고 제주도는 설명했습니다. 제주도 또, 서울에서 제주로 신혼여행 온 관광객 1명이 어제(16일) 확진 판정을 받았다고 밝혔는데, 이 확진자는 12일 배우자와 함께 제주로 왔고 16일부터 관련 증상을 보여 검사 받아 확진 판정을 받았다며, 이 확진자의 배우자는 진단검사 결과 ‘음성’ 판정을 받았다고 말했습니다. 제주도는 수도권 지역을 중심으로 신규 확진자가 전국 하루 평균 600명 이상 발생하고 있는 상황에서, 최근 이틀 동안 관광객 4만여 명이 제주를 방문하고 있어 제주 도내 신규 확산을 우려하고 있다며, 진단검사 판정 전이나 관련 증상이 있으면 제주 방문을 자제하고, 부득이하게 제주로 올 때에는 사회적 거리두기와 출입기록 등 방역 수칙을 준수해 달라고 부탁했습니다. ■ 제보하기 ▷ 카카오톡 : 'KBS제보' 검색 ▷ 전화 : 02-781-1234 ▷ 이메일 : kbs1234@kbs.co.kr ▷ 뉴스홈페이지 : https://goo.gl/4bWbkG 기자 정보 강정훈 기자 dagajew@kbs.co.kr 강정훈 기자의 기사 모음 댓글 좋아요 공유하기 ‘코로나19’ 팬데믹 동영상 신규확진 1만 명대…오늘부터 개량백신 접종 시작 경기 4399명 신규 확진…하루 전보다 1766명 증가 신규 확진 1만 5,476명…사망 10명, 석달 만에 ‘최저’ 동영상 오늘부터 무비자 일본 관광…항공 등 예약 급증 더보기 오늘의 HOT클릭! 동영상 Ai pick 맞춤 뉴스 8개 더보기 이 시각 헤드라인 배너 많이 본 뉴스 푸터영역 KBS소개 주소/연락처 수신료 채용 About KBS KBS소개 시청자권익센터 사이버 감사실 광고 이용약관 법적고지 개인정보처리방침 KBS N 채널 KBS Drama KBS W KBS Kids KBS N Sports KBS Joy KBS N 채널 KBS WORLD Global KBS WORLD KBS WORLD KBS / 07235 서울특별시 영등포구 여의공원로 13(여의도동) / 대표전화 02-781-1000 / 기사배열 책임자, 청소년보호책임자 : 윤상 KBS뉴스 인터넷 서비스 / 서울특별시 마포구 매봉산로 45 KBS미디어센터 / 시청자상담실 02-781-1000 / 등록번호 서울 자00297 (2010년 6월 23일) Copyright © KBS All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 올해 공영관광지 32개소 대상 운영평가 실시 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 14:38 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도, 올해 공영관광지 32개소 대상 운영평가 실시 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 제주도, 올해 공영관광지 32개소 대상 운영평가 실시 기자명 이은지 기자 입력 2021.04.21 14:15 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 오는 6월부터 11월까지 진행 제주도는 도내 공영관광지 개선사항을 발굴하기 위해 '2021년 공영관광지 운영평가'를 진행한다. 도는 오는 6월부터 11월까지 직접·위탁운영 관광지 32곳을 대상으로 운영평가를 실시할 방침이다. 평가는 공영관광지운영평가위원회가 진행한 암행평가(40%)·서면평가(20%)와 도가 전문 리서치 기관에 의뢰한 만족도 조사(40%)를 바탕으로 이뤄진다. 도는 사회적 거리두기 및 전염병 예방수칙 계도·홍보 사항 등 코로나19 관련 항목도 포함, 평가한다. 운영평가 결과를 바탕으로 우수관광지 최우수 1곳, 우수 2곳, 장려 3곳을 선정해 포상할 계획이다. 이은지 기자 이은지 기자 ez1707@daum.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 제주대병원 권역정신응급의료센터 개소 [본사내방] 2022년 10월 11일 한경농협, 취약계층 주택용 소방시설 기증 제주, 서울대 지역균형전형 비율 2.4%...전국 최하위 제주타요렌터카, 매월 국·내외 아동에 정기 후원 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [제민포럼] 테슬라와 한라산소주 5 일본시장 활짝 제주관광 기대감속 우려도 6 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 7 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 8 장 발장 이야기 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[전국]'관광객 몰려오는데'...심상치 않은 제주도 상황 | YTN 메뉴 바로가기 본문 바로가기 푸터 바로가기 메뉴 YTN HOME 뉴스알림 라이브 편성표 제보 로그인·회원가입 검색하기 분야별 뉴스 와플뉴스 YTN star 다시보기 제보 시청자센터 알립니다 특집 프로젝트 광고·비즈니스 디지털 서비스 분야별뉴스 분야별 뉴스 메인최신뉴스많이 본 뉴스속보·알림단독정치경제사회전국국제과학문화스포츠날씨재난 와플뉴스 와플뉴스 메인최신뉴스자막뉴스제보영상국경 없는 세상한방이슈제보, 그 후뉴스케치소파트래블러와이파일리플레이운세 YTN star YTN star 메인최신뉴스방송가요영화Y이슈해외연예반말인터뷰와이티엔 스타뉴스 다시보기 다시보기 메인 지금 막 올라온 많이 보는 시사 다큐 과학 교양 채널 별 YTN 와플뉴스 YTN 스타 YTN 월드 YTN 코리안 YTN 사이언스 YTN2 YTN 라디오 YTN DMB 제보 제보 메인제보하기제보랭킹최신제보 시청자센터 시청자의견시민데스크시청자브리핑 시시콜콜시청자 위원회고충처리위원회사이버감사실견학신청성폭력 신고센터 알립니다 공지사항채용공고경품이벤트채널 안내위치 및 연락처이용 도움말 특집 프로젝트 리스펙트 프로젝트SMILE TO VOTE뉴미디어 리터러시2020 국회의원선거2021 재보궐선거2020 도쿄올림픽2022 대통령선거2022 베이징올림픽2022 지방선거 광고 비즈니스 TV광고큐톤시간표인터넷·모바일 광고해외 광고사업 제휴동영상 뉴스 판매오디오 음원 판매뉴스·프로그램 공급 디지털 서비스 뉴스알림 모바일APP 리더스 뉴스레터 유튜브 페이스북 트위터 인스타그램 네이버채널 네이버TV 네이버밴드 틱톡 데일리모션 24시간 라이브 방송 [오늘의 운세] 2022년 10월 11일 띠별 운세 [이슈그리고] "뜨고 싶어서?"...한동훈 지휘 의혹 제기에 여당... 신혜성 측 "만취해 남의 차 모르고 운전, 변명의 여지 없다...... 감사원 국감, 시작부터 '파행'...친일 국방 논란 계속 당뇨약으로 나왔다 비만약으로 대박!...체중 20% 쏙 빠져 메뉴 닫기 YTN 로그인 로그인 회원가입 검색하기 '관광객 몰려오는데'...심상치 않은 제주도 상황 댓글 달기 공유하기 LIVE 이 시각 주요뉴스 이 시각 주요뉴스 주요뉴스 닫기 尹 "핵 위협 앞에 정당화될 수 있나"...野 '친일 ... 코스피, 2,200선 붕괴...환율, 장중 1,430원 돌파 "낙엽따라 우수수" 탈모의 계절, 자가진단 이렇게 서울 학교 비정규직노조, "폐암으로 죽어가"...급... [이슈그리고] "뜨고 싶어서?"...한동훈 지휘 의혹 제... "자존심 살리려는 절박함"...러시아 보복 공습으로 전... 공유하기 공유창 닫기 페이스북 트위터 밴드 카카오톡 링크 복사하기 메뉴 닫기 검색하기 LIVE 분야별뉴스 와플뉴스 YTN star 다시보기 제보 코로나19 실시간 주요뉴스 이전 이재명 "與, 해방 후 친일파 행태…尹, 국민께 소명해야" 尹 "핵 위협 앞에 정당화될 수 있나"…野 '친일 국방' 공세 일축 정진석 "조선, 내부에서 썩어 문드러져 망해"…발언 놓고 논란 서울청장 "이준석, 지난 주말 소환 조사…무고 혐의 등 곧 결론" 감사원 국감, 오전 내내 '파행'…친일 국방 논란 계속 민주 "여가부 확대·개편 필요"…폐지안에 공식 반대 코스피, 2,200선 붕괴…환율, 장중 1,430원 돌파 ‘히잡 반대 시위' 이란 여성들 잇따라 숨진 채 발견 "자존심 살리려는 절박함"…러시아 보복 공습으로 전황 격화 우려 "낙엽따라 우수수" 탈모의 계절, 자가진단 이렇게 서울 도심에서 50대 권총 맞아…극단적 선택 추정 신혜성 측 "만취해 남의 차 모르고 운전, 변명의 여지 없다…죄송"(전문) 오늘부터 개량백신 접종…신규 확진 1만 5,476명 동시계약 허점 노려 전세대출금 가로채…'신종 사기' 적발 "자격시험 도중 화장실 못하게 하는 건 인권 침해" 체중 20% 쏙…당뇨약→비만약 '대박' 터졌다 물가 오름세에 '구제 시장'도 한숨…"손님 있어도 안 사요" 학력 전수평가 5년 만에 사실상 부활…초3~고2로 확대 유엔, 러시아 규탄 긴급 총회…사무총장 "위기 고조 용납 못해" "6∼9개월 내로 美·세계 경제는…" JP모건의 경고 日, 2년 7개월 만에 한국인 무비자 관광 재개…전국 여행지원도 다음 전국 '관광객 몰려오는데'...심상치 않은 제주도 상황 2021년 04월 12일 21시 52분 댓글 글자크기 조정하기 글자크기 조정하기 글자 크기 조정창 닫기 매우 작은 크기 폰트 작은 크기 폰트 보통 크기 폰트 큰 크기 폰트 매우 큰 크기 폰트 인쇄하기 공유하기 공유하기 페이스북 트위터 밴드 카카오톡 링크 복사하기 공유창 닫기 제주 코로나 확진 4월 36명…하루 8명 발생하기도 대부분 확진자 접촉 많아…감염 경로 확인 안 된 사례도 관광객 확진 사례 증가…가족 6명 중 4명 확진 판정도 검사 결과 나오기 전 여행 나섰다가 확진 판정 사례도 이달부터 하루 3만 명 안팎 관광객 몰려 …방역 비상 [앵커] 이달 들어 제주지역에서 코로나 확산세가 심상치 않습니다. 확진자 접촉에 의한 감염이 많지만, 제주 관광에 나섰다가 확진 판정을 받은 사례도 있어 방역에 비상이 걸렸습니다. 유종민 기자의 보도입니다. [기자] 지난 주말을 전후해 제주에서는 17명의 신규 코로나 확진자가 발생했습니다. 특히 9일과 10일에는 하루 7명과 8명이 확진 판정을 받았습니다. 하루 8명이 발생한 것은 이달 들어 최대 수치입니다. 이들 대부분은 확진자와 접촉 후 감염된 것으로 확인됐습니다. 하지만 감염 경로가 확인되지 않은 사례도 있어 방역 당국은 n차 감염으로 이어지지 않을까 우려하고 있습니다. [김미야 / 제주도 역학조사관 : 방역 수칙을 준수하면서 최대한 검사 결과가 나올 때까지 격리할 수 있도록 권고하고 있습니다.] 관광객 확진 사례도 증가하고 있습니다. 지난 1일 제주 가족 여행에 나섰던 관광객 6명 중 4명이 잇따라 확진 판정을 받았습니다. 주말에는 가족 여행객 3명 가운데 1명이 확진됐고, 나머지 2명은 격리 중입니다. 또 접촉자로 분류돼 검사 결과가 나오기 전에 여행에 나섰다가 확진 판정을 받는 사람도 있습니다. [임태봉 / 제주 코로나 방역추진단장 : 8명이 이러한 사례가 발생했는데, 검사 결과가 나오기 전에 여행하거나 다중 시설에 가게 되면 겉잡을 수 없는 문제가 생깁니다.] 여기에 이달부터 제주 여행에 나서는 관광객이 크게 늘고 있는 것도 변수입니다. 하루 평균 3만 명 안팎이 몰리면서 지난 주말에만 11만여 명이 찾았습니다. 이렇게 밀려드는 관광객과 감염 경로가 확인되지 않은 사례까지 겹치면서 방역에 비상이 걸렸습니다. YTN 유종민[yoojm@ytn.co.kr]입니다. ※ '당신의 제보가 뉴스가 됩니다' YTN은 여러분의 소중한 제보를 기다립니다. [카카오톡] YTN을 검색해 채널 추가 [전화] 02-398-8585 [메일] social@ytn.co.kr [온라인 제보] www.ytn.co.kr[저작권자(c) YTN 무단전재 및 재배포 금지] 전국 기사목록 전체보기 충북 청주시 '오송역'→'청주 오송역' 변경 추진 [서울] 서울시, 'I·SEOUL·U' 대체 브랜드 12월 개발 완료 [서울] 서울시, 'I·SEOUL·U' 대체 브랜드 12월 개발 완료 경찰, '대전 아웃렛 화재' 관련 현대백화점 본사 압수수색 YTN 미디어그룹 YTN 회사소개 INSIDE YTN YTN 사이언스 YTN 라디오 YTN2 YTN dmb YTN world YTN korean 남산서울타워 시청자센터 시청자의견 시민데스크 시청자브리핑 시시콜콜 시청자 위원회 고충처리위원회 사이버감사실 견학신청 성폭력신고센터 알립니다 공지사항 채용공고 경품이벤트 채널 안내 해외 리포터단 신청 위치 및 연락처 이용 도움말 광고 및 비즈니스 TV광고 큐톤시간표 인터넷·모바일 광고 해외 광고 사업 제휴 동영상 뉴스 판매 오디오 음원 판매 뉴스·프로그램 공급 약관 및 정책 이용약관 개인정보처리방침 청소년보호정책 기사배열 기본방침 디지털 서비스 모바일 APP 뉴스알림 리더스 뉴스레터 유튜브 페이스북 트위터 인스타그램 네이버채널 네이버TV 네이버밴드 틱톡 데일리모션 ㈜와이티엔 서울특별시 마포구 상암산로 76(상암동) | 대표자: 우장균 | 대표전화: 02-398-8000 | 팩스: 02-398-8129사업자등록번호: 102-81-32883 Copyright (c) YTN. All rights reserved. 모든 컨텐츠(기사)는 저작권법의 보호를 받은바, 무단 전재·복사·배포를 금합니다.</t>
+  </si>
+  <si>
+    <t>관광객 몰리는 제주도… 신혼여행객 등 잇따라 확진 | 세계일보 스포츠월드 세계비즈 세계로컬타임즈 종교신문 구독신청 mPaper RSS 로그인 회원가입 로그아웃 회원정보수정 회원탈퇴 세계일보 페이스북 네이버 포스트 트위터 유튜브 스포츠 선학평화상 환경 드론 전체메뉴 검색 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업·기업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 관광객 몰리는 제주도… 신혼여행객 등 잇따라 확진 관련이슈 디지털기획 , 신종 코로나 바이러스 입력 : 2021-04-18 10:23:11 수정 : 2021-04-18 10:23:10 인쇄 메일 글씨 크기 선택 가장 작은 크기 글자 한 단계 작은 크기 글자 기본 크기 글자 한 단계 큰 크기 글자 가장 큰 크기 글자 잇따른 관광객 확진에 도내 코로나19 확산 우려 사진=연합뉴스 최근 하루 관광객 4만명이 몰리는 제주에서 신혼여행객 등 관광객이 잇따라 신종 코로나바이러스 감염증(코로나19)에 확진됐다. 18일 제주도에 따르면 서울에서 제주로 신혼여행을 온 A씨와 경남 사천에서 제주를 방문한 B씨 등 2명이 16∼17일 코로나19 확진 판정을 받았다. 지난 12일 제주에 신혼여행을 온 A씨는 16일부터 발열과 기침 증상이 나타나 검사를 받고 확진 판정을 받았다. 함께 진단 검사를 받은 A씨 배우자는 음성 통보를 받았다. B씨는 지난 14일 오후 제주를 찾았으며 이후 16일 오전 경남 사천시 확진자의 접촉자라고 관할 보건소에서 통보받았다. 이에 따라 B씨는 16일 오후 제주보건소 선별진료소에서 진단검사를 받고 격리 중 17일 최종 확진 판정을 받았다. 제주도는 이들의 진술을 확보하고 신용카드 사용 내역 파악, 제주안심코드 등 출입자 명부 확인, 현장 폐쇄회로(CC)TV 분석 등을 통해 여행 동선을 확인하고 있다. 서귀포시 산방산 유채꽃밭에서 봄 정취를 만끽하는 관광객. 세계일보 자료사진 상세 동선이 확인되는 대로 방문지에 대한 방역 소독을 하는 한편 접촉자 분리 조치 등을 진행할 방침이다. 도는 제주 최근 하루 평균 3만∼4만 명의 관광객이 방문하고 있어 잇따른 관광객 확진에 도내 코로나19 확산을 우려하고 있다. 제주도관광협회에 따르면 제주를 찾은 관광객은 15일 3만9847명, 16일 4만53명, 17일 3만8096명 등 이달 들어 17일까지 60만2183명으로 집계됐다. 이는 지난해 같은 기간(24만4194명)보다 갑절 이상 늘어 코로나19 이전 수준으로 회복했다. 제주도는 정부가 검사의 접근성을 높이기 위해 코로나19 의심 증상이나 역학적 연관성이 없어도 진단검사를 할 수 있도록 함에 따라 전국 어디에서든 무료로 코로나19 검사를 받을 수 있다고 안내하고 있다. 임태봉 도 코로나방역대응추진단장은 “수도권 지역을 중심으로 코로나19 신규 확진자가 전국 하루 평균 600명 이상 발생하고 있는 상황에서, 많은 관광객이 제주를 찾고 있어 도내 코로나19 신규 확산이 우려된다”라며 “제주를 방문할 경우 입도 전 진단 검사를 받고 음성 확인한 뒤 입도해 달라”고 당부했다. 제주에서 18일 현재 누적 확진자는 673명이다. 이달 들어 46명이 발생했으며, 올해에만 252명이 추가로 확진됐다. 최근 일주일간 하루 평균 신규 확진자는 2.7명이다. 제주=임성준 기자 jun2580@segye.com [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지] 20210418503137 0101080100000 0 2021-04-18 10:23:11 2021-04-18 10:23:10 0 관광객 몰리는 제주도… 신혼여행객 등 잇따라 확진 세계일보 임성준 9a19e7e4-78a9-43d0-9d4a-245149669a84 jun2580@segye.com 오피니언 [설왕설래] 개운치 않은 불꽃축제 9일 오전 한 지인이 보낸 SNS(사회관계망서비스)에 입을 다물지 못했다. 형형색색 불꽃 사진에 탄성이 절로 나왔다. 실제 현장에서의 감동은 어떨까 싶었다. 전날 불꽃놀이를 보러 남산으로 향한다는 한 후배는 “세계일보가 명당자리인데 아이들 데리고 구경 가지 않느냐”고 묻기까지 했다. 회사에서는 이미 직원 가족들과 지인들을 위한 초청행사를 성대히 준비했다. [박완규칼럼] 위기관리 컨트롤타워 바로 세워야 윤석열정부가 출범한 지 5개월이 지났다. ‘국익과 실용’, ‘공정과 상식’을 국정운영 원칙으로 내세웠지만 나라를 어떻게 이끌어나갈지에 대한 구체적인 청사진을 내놓지 않았다. 국정이 나아갈 방향을 가늠하기 어려울 정도다. 이런 상황에서 외교안보와 경제 등에 어두운 그림자가 짙게 드리워져 있다. 국가적 위기감은 날로 커진다. 어느 틈에 위기관리가 최우선 국정 [기자가만난세상] 런던의 ‘인종적 중국인’ 필자는 1년간 영국 런던에서 대학원 과정을 마치고 최근 복귀했다. ‘민주주의에서의 정치 커뮤니케이션’ 수업의 공공외교 분야 세미나 중 중국 친구와 홍콩 친구 사이 벌어진 논쟁이 잊혀지지 않는다. 백신 개발국들이 타국에 백신을 공급·기부하면서 ‘연성권력(soft power)’을 구축하는 행위에 대한 토론을 하던 중이었다. 홍콩 친구가 라틴아메리카와 동남아 지 [김중백의자유롭게세상보기] 포용적 다양성이 필요한 우리 정치 필자가 속한 대학에서 최근 신임교수 환영 간담회가 열렸다. 신종 코로나바이러스 감염증(코로나19)이 전 세계를 강타한 이후 신임교수들은 최근까지 면접부터 오리엔테이션, 그리고 교수회의 등을 온라인으로만 진행해야 했다. 그러다 보니 새롭게 부임한 학교에 소속감도 느끼기 어려웠고 교수 간 지적 교류에 한계를 절감했다. 이런 아쉬움을 떨어내고자 새로 부임하는 교 HOT뉴스 1 "바위야 호박이야?" 1.1t 넘는 초대형 호박 수확 2 23층 지붕 위 기인…양복 입고 활보, 왜? 3 머스크, 440억달러에 트위터 인수…계약파기 철회 4 허리케인 '이언' 지나간 자리 처참…최소 108명 사망 5 에펠탑 아래 숲, 하마터면 사라질뻔∼ 포토 회사소개 지면광고 온라인광고 전광판 광고 사업제휴 독자인권위원회 및 고충처리 정정보도신청 개인정보취급방침 청소년보호정책 이용자약관 디지털뉴스이용규칙 고객센터 제호 : 세계일보 서울특별시 용산구 서빙고로 17 등록번호 : 서울, 아03959 등록일(발행일) : 2015년 11월 2일 발행인 : 정희택 편집인 : 황정미 전화번호 : 02-2000-1234 청소년보호 책임자 : 박광재 Copyright ⓒ 세계일보 All rights reserved. 문화사업 세계농업기술상 세계문학상 신춘문예 음악콩쿠르 글로벌미디어 Washington Times Tiempos Del Mundo 일본 세계일보</t>
+  </si>
+  <si>
+    <t>제주도, 수도권 관광객 2명 코로나19 신규 확진 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도, 수도권 관광객 2명 코로나19 신규 확진 파이낸셜뉴스입력 2021.04.05 14:01수정 2021.04.05 14:01 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 가족 동반 제주여행…도내 누적 확진자 636명 코로나19 확진자 지역별 현황(4월5일 0시 기준). [뉴시스] [제주=좌승훈 기자] 제주에서 코로나19 신규 확진자 2명이 발생해 지역 누적 확진자 수가 636명으로 늘었다. 2명 모두 가족과 함께 제주에 온 관광객이다. 5일 제주도에 따르면, 지난 4일 하루 동안 총 663명이 코로나19 진단검사를 받았으며, 이 중 2명(제주 635번·636번)이 확진 판정을 받았다. 635번 확진자는 서울시 중랑구 확진자의 접촉자이며, 636번 확진자는 인천시 미추홀구 확진자의 접촉자다. 역학조사 결과, 635번 확진자는 지난 2일 여행을 목적으로 가족 1명과 함께 제주에 온 것으로 파악됐다. 635번 확진자는 입도 후 지난 3일 서울 중랑구보건소로부터 접촉했던 지인이 확진됐다는 소식을 통보받고, 4일 오전 제주보건소 선별진료소를 방문해 진단검사를 받았으며, 같은 날 오후 양성 판정을 받았다. 635번 확진자는 지난 2일부터 코막힘과 가벼운 몸살 증상이 있던 것으로 확인됐으며, 현재 제주의료원 음압병상으로 이송돼 격리 치료를 받고 있다. 아울러 635번 확진자의 가족은 진단검사 결과, 음성으로 확인된 가운데, 도내 모 시설에서 격리 중이다. 636번 확진자도 가족 2명과 함께 지난 3일 제주에 온 관광객이다. 입도 전인 지난달 31일 인천시 직장 내 확진자가 발생해 검사 대상자로 분류돼 검사를 받은 결과, 음성 판정을 받았다. 하지만 지난 4일 또 다른 직장동료가 추가 확진되면서 오후 1시 재차 검사 대상자로 분류되자 선별진료소에서 검사를 받고 확진됐다. 636 확진자는 지금까지 별다른 증상이 없는 것으로 확인됐으며, 서귀포의료원 음압병상으로 이송돼 격리 치료를 받고 있다. 함께 입도한 가족 2명은 현재 접촉자로 분류됐으며, 이들에 대한 검사 결과는 이날 오후부터 차례대로 확인될 예정이다. 제주도 방역당국은 이들의 진술을 확보하고, 신용카드 사용 내역과 출입자 명부 확인, 현장 폐쇄회로(CC)TV 분석 등을 통해 동선을 확인하고 있다. 아울러 추가 동선이 확인되는 대로 방문지에 대한 방역소독을 하고 접촉자 분리 조치를 진행할 방침이다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>솔담한방병원·제주도관광협회, 한의웰니스관광사업 활성화 업무협약 &lt; 경제/관광 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-11 14:45 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 솔담한방병원·제주도관광협회, 한의웰니스관광사업 활성화 업무협약 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제/관광 솔담한방병원·제주도관광협회, 한의웰니스관광사업 활성화 업무협약 기자명 제주매일 입력 2021.04.26 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 솔담한방병원(병원장 현경철)은 지난 23일 솔담서비스디자인센터에서 외국인 환자 유치 및 해외 시장 네트워크 구축을 통해 제주 한의웰니스 관광 사업 활성화를 위해 제주특별자치도관광협회(회장 부동석)와 업무 협약식을 가졌다. 협약 내용으로 ∆제주한의웰니스 관광 상품 개발 및 사업 추진 ∆외국인 환자 유치 ∆해외 시장 네트워크 구축을 위해 공동 노력 ∆제주관광업계 종사자들의 의료복지 증진과 의료지원에 관한 사업 추진을 통해 지역 사회에 기여하기로 했다. 솔담한방병원 현경철 병원장은 이번 협약식을 통해 “한(韓) 의학의 우수성과 제주관광자원을 활용한 제주 한의웰니스 관광 상품을 만들어 제주관광사업 발전에 도움이 됐으면 한다”고 말했다. 솔담한방병원은 연면적 4,300㎡, 80병상 규모의 입원실과 최신 의료 장비, 물리치료실, 도수치료실, 고압산소챔버, 고압산소치료기 등을 갖추고 도내 유일하게 한방과 양방 협진이 가능하다. 제주매일 news@jejumaeil.net 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 서귀포시, 사무관 8명 승진 임용 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 포토뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 인기뉴스 1 “눈을 의심했다” 휘발유·실내등유 가격 차 고작 100원 2 3년 만의 '노마스크' 탐라문화제 '팡파르' 3 ‘천년의 숨결’ 제61회 탐라문화제 막내렸다 4 오영훈 제주도지사 “분산에너지 특구 지정해 달라” 5 “내가 소개하는 작은도서관” 영상공모전 7작 시상 6 다혼디배움학교 현장 여론 존중돼야 7 3년 만에 열리는 제주광어 대축제 8 한국전력 전기요금 인상에 제주 양식업계 반발 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 하루 입도 관광객 4만명 돌파…코로나19 확산 우려 본문 바로가기 제주도 하루 입도 관광객 4만명 돌파…코로나19 확산 우려 매일경제 매일경제TV 매경이코노미 매경LUXMEN CITYLIFE GFW M-PRINT 예능 교양 드라마 편성표 온에어 통합검색 닫기 뉴스 다시보기 이슈플러스 연예 포토 전체 정치 사회 경제 국제 문화 스포츠 연예 생활/건강 엠픽 데이터M 인기척 다듬은 우리말 뉴스 &gt; 사회 제주도 하루 입도 관광객 4만명 돌파…코로나19 확산 우려 기사입력 2021-04-19 08:55 l 최종수정 2021-04-26 09:05 신종 코로나바이러스 감염증(코로나19) 4차 유행 위기 상황에도 제주를 찾은 1일 관광객 수가 4만 명을 넘어섰습니다. 오늘(19일) 제주도관광협회에 따르면 주말을 앞둔 지난 15일(목) 제주도 입도 관광객은 3만9천847명, 16일(금) 4만53명, 그제(17일)(토) 3만8천96명, 어제(18일)(일) 3만6천582명 등 나흘간 15만4천578명이 제주를 찾았습니다. 지난 금요일 하루 입도객이 4만 명을 넘어섰고, 주말을 포함한 나흘간 하루 평균 3만8천644명이 제주를 찾았습니다. 이는 지난해 한글날 연휴인 2020년 10월 8일부터 10일까지 제주를 찾은 관광객(11만126명)의 하루 평균 입도객 3만6천708명보다 많습니다. 또 추석과 개천절, 주말이 이어진 9일간의 황금연휴 기간(같은 해 9월 26일∼10월 4일) 제주를 찾은 관광객(28만1천258명)의 하루 평균 입도객 3만1천250명보다도 많습니다. 맑은 날씨가 이어지는 가운데 봄철 제주를 찾는 상춘객이 늘어나고 있기 때문입니다. 덩달아 제주 곳곳의 관광지는 모처럼 활기를 띠고 있습니다. 항공사들도 1만 원대 내외의 특가 항공권을 내면서 제주 관광객 잡기에 열을 올리고 있습니다. 실제로 한국은행 제주본부가 발표한 '제주지역 실물경제 동향'에 따르면 3월 제주를 찾은 관광객 수는 88만5천여 명으로 코로나19 발생 이전인 2019년 3월(103만8천여 명)의 84.8％ 수준으로 회복됐으며 소비심리와 소비·고용 등 실물지표가 개선되고 있는 것으로 나타났습니다. 하지만 관광객이 늘어나면서 코로나19 확산을 우려하는 목소리가 높습니다. 제주를 방문한 관광객들이 코로나19 확진 판정을 받는 사례가 늘고 있기 때문입니다. 제주도에 따르면 경남 사천에서 제주를 방문한 A씨와 서울에서 제주로 신혼여행을 온 B씨 등 2명이 16∼17일 잇따라 코로나19 확진 판정을 받았습니다. 4월 들어 제주에서는 47명의 확진자가 발생했으며 이중 관광객이 19명, 2명은 도민이 타지역을 방문한 뒤 확진됐습니다. 임태봉 제주도 코로나방역대응추진단장은 "4월 들어 발생한 확진자의 절반 가까운 21명이 관광객 또는 도민이 타지역 방문 뒤 확진됐다"며 "4월 나들이 철을 맞아 제 주를 방문하는 관광객이 회복되고 있어 도내 코로나19 신규 확산이 우려된다"고 밝혔습니다. 그는 "진단검사 판정 이전이나 유증상일 경우 제주 방문을 자제해 주고, 부득이하게 입도할 경우 사회적 거리두기와 제주안심코드를 활용한 출입 기록 등을 준수해 줄 것"을 당부했습니다. [디지털뉴스부] Copyright ⓒ MBN(매일방송) 무단전재 및 재배포 금지 화제 뉴스 '우울증·생활고에'…경남에서 초등생 자녀 살해 후 극단 선택 잇따라 김재원 "윤 대통령, 한동훈 아주 애정어린 눈으로 지켜보지 않을까" 정진석 "조선, 안에서 썩어 문드러져"…민주 "식민사관 언어" 직장인 올해 남은 '대체 휴일'은? 신혜성, 음주운전 인정…"본인 차 아닌지 몰랐다" '우영우 팽나무', 천연기념물 지정…명예 이장에 배우 정규수 위촉 오늘의 이슈픽 인기영상 시선집중 스타 핫뉴스 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요. 금주의 프로그램 화제영상 더보기 이시각 BEST 뉴스 동영상 주요뉴스 더보기 MBN 인기포토 아이프레임 미지원 장치에서는 내용을 확인할 수 없습니다. SNS 관심기사 MBN 소개 제휴 안내 TV 광고 이용약관 개인정보처리방침 기타운영정책 고객센터 뉴스제보 사이트맵 Family Site Family Site 매일경제 매경닷컴 매경이코노미 시티라이프 M-print 매일경제TV MBN 미디어렙 매일방송 대표이사 : 이동원 서울시 중구 퇴계로 190 (주)매일방송 오시는길 대표전화 02-2000-3114 매경닷컴 대표이사 : 김정욱 인터넷신문등록번호 서울 아01043 사업자 등록번호 201-81-25980 MBN의 모든 기사 및 영상(콘텐츠)은 저작권법의 보호를 받으며, 무단 전재, 복사, 배포를 금합니다. Copyright © MBN 매일방송 All rights reserved.</t>
+  </si>
+  <si>
+    <t>5월 제주도 관광 인파 절정 예상…제주 풀스테이 풀빌라, “미리 예약하세요” 2022.10.11 (화) Favorites Mobile All articles Sign in Join 더 드라이브 전체기사 신차 스파이샷 자동차 뉴스 업계소식 프로모션 판매실적 결함·리콜 세계자동차뉴스 시승기 오토쇼 이슈 정치 사회 경제 국제 생활문화 IT과학 연예 스포츠 라이프스타일 리뷰 문화·예술 여행 도로·교통 영상포토뉴스 영상 포토 칼럼 신차 스파이샷 자동차 뉴스 업계소식 프로모션 판매실적 결함·리콜 세계자동차뉴스 시승기 오토쇼 이슈 정치 사회 경제 국제 생활문화 IT과학 연예 스포츠 라이프스타일 리뷰 문화·예술 여행 도로·교통 영상포토뉴스 영상 포토 칼럼 HOME &gt; 이슈 &gt; 생활문화 5월 제주도 관광 인파 절정 예상…제주 풀스테이 풀빌라, “미리 예약하세요” 김소희 기자 / 기사작성 : 2021-04-23 13:44:13 가정의 달 5월은 어린이날을 비롯해 어버이날과 근로자의 날, 부처님 오신 날 등 공휴일이 대거 모여 있다. 이에 매년 5월에는 공휴일을 이용한 관광 수요가 급증해, 국내 및 해외 주요 관광지로 인파가 몰린다. 하지만 코로나19로 인한 해외여행 금지 조치가 장기화됨에 따라, 올해는 국내 관광지로 가정의 달 관광 수요가 몰릴 전망이다. 특히, 국내 대표 관광지인 제주도의 경우 이 기간 내 관광 인파가 절정에 이를 것으로 예상되고 있다. 특정 지역으로 한 번에 많은 인파가 몰리게 되면, 바이러스에 대한 우려가 커질 수밖에 없다. 실제 인도의 경우 코로나19 확산 시기와 힌두교 최대 축제인 쿰브멜라(Kumbh Mela)가 겹치면서, 일 확진자가 29만 명에 육박했으며, 이에 더해 변종 바이러스에 대한 이슈까지 터지며 상황이 악화되고 있다. 제주도의 경우도 아름다운 경관을 즐기기 위한 관광객이 몰릴 것으로 예상돼, 마음 편히 여행을 즐길 수만은 없는 상황이다. 그 때문에 코로나 시대 안전한 여행을 위해서는 방역에 대한 대비를 철저히 하는 것이 좋다.  제주도 전역에 위치한 제주 풀스테이 풀빌라는 독채 구조로 설계된 제주 풀빌라로, 다른 동과 떨어져 있어 안전한 제주 여행 여건을 갖추고 있다. 숙소에 진입하는 주차장부터 바비큐 시설, 풀빌라 등이 모두 독립돼 있어, 타인과의 접촉을 최소화한 독립된 제주 풀빌라 숙소에서 안전하게 여행을 즐길 수 있다. 제주 풀스테이 풀빌라 관계자는 “바이러스로부터 안전한 환경을 조성하기 위해 1일 1 소독을 진행하고 있으며, 직원 및 방문객들의 발열 체크를 하는 등 방역에 최선을 다하고 있다”며 “각 숙소가 독채 구조로 구성된 제주 풀빌라로, 대규모 호텔이나 리조트보다 안전한 여행지 숙소 대안이 될 수 있다”고 전했다. 이어 “현재 가정의 달 예약 문의가 증가하고 있어, 원하는 날짜에 방문하기 위해서는 미리 예약을 하는 것이 좋을 것”이라고 덧붙였다. 제주 풀빌라 제주 풀스테이에 대한 자세한 내용과 예약 관련 문의는 풀스테이 홈페이지에서 확인할 수 있다.더드라이브 / 김소희 기자 auto@thedrive.co.kr [저작권자ⓒ 더드라이브(TheDrive). 무단전재-재배포 금지] 김소희 기자				이메일 다른기사보기 업계소식“팰리세이드보다 비싸” 가격 오른 기아 텔루라이드조윤주 / 22.10.11 세계자동차뉴스805km 주행 '세미트럭' 드디어 생산 시작…올해 출고박도훈 / 22.10.11 이슈+ 송기헌 의원, “수소차가 확산되기 위해서는 인프라 구축에 더욱 투자해야” [특징주] 고려신용정보 주가 상승세...배경은? [특징주] 베트남개발1 주가 강세 여전...거래량 2억5천 돌파 [특징주] 양지사 주가 폭등...상한가 쳤다 "왜?" 30일 상생소비복권 당첨자 발표...확인방법·지급일은? 많이 본 기사 1서킷 질주하는 EV9…조수석 탑승자 봤더니 ‘헉’2G70 새로운 F/L은 뒤태가 핵심…화려한 테일램프3美 경찰, 아반떼N 차주에게 현대차 고소하라 권고한 이유는?4“절반 가격!” 중국의 포르쉐 카이엔 'X펭 G9' 전기 SUV5호주서 중국산 자동차가 처음으로 韓 자동차 판매량 앞질렀다! 매체소개 | 개인정보취급방침 | 이용약관 | 청소년보호정책 | 광고문의 | 제휴문의 | 공지사항 법인명 : (주) 바우미디어 | 제   호 : 더드라이브(TheDrive) | 등록번호 : 서울,아04408 | 등록일 : 2017-03-08 발행인 : 조창현 | 편집국장 : 조창현 | 청소년보호관리책임자 : 손영준 주   소 : 서울특별시 종로구 평창문화로 75 글로리아타운 A동 407호 | 대표전화 : 02-332-7787 | 제보메일 : auto@thedrive.co.kr 본 콘텐츠의 저작권은 더드라이브(TheDrive) 또는 제공처에 있으며 이를 무단 이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ 더드라이브(TheDrive) All rights reserved. 0.0912</t>
+  </si>
+  <si>
+    <t>[종합] 관광객 연일 확진…제주도 9·10일 15명 신규 감염 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; [종합] 관광객 연일 확진…제주도 9·10일 15명 신규 감염 파이낸셜뉴스입력 2021.04.11 16:00수정 2021.04.11 16:05 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 “제주여행 막을 수도 없고”…서귀포시 전통시장 상인도 코로나19 확진 코로나19 확진자 지역별 현황(4월11일 0시 기준). [뉴스1] [제주=좌승훈 기자] 지난 3월 한 달 동안 제주도를 찾는 관광객이 코로나19 사태 이전인 2019년 같은 기간의 103만명에 비해 85% 수준까지 회복한 가운데, 최근 관광객에 의한 코로나19 감염도 잇따라 방역당국이 잔뜩 긴장하고 있다. 제주도는 지난 9일 7명에 이어 10일에도 8명(제주 654∼661번)의 코로나19 신규 확진자가 나왔다고 11일 밝혔다. 제주도내에서 하루에 코로나19 감염자가 8명 이상 나온 것은 올 들어 다섯 번째(1월1일 13명, 3일 10명, 4일 8명, 6일 9명)다. 지난 1월6일 이후 3개월 만에 최대치를 기록했다. 올 들어 240명, 이달 들어 34명의 확진자가 발생했다. 누적 확진자도 661명이 됐다. 신규 확진자는 8명은 모두 기존 확진자로부터 감염된 것으로 파악됐다. 654번과 656번은 제주도민으로 지난 9일 확진된 653번의 가족이다. 653번 확진자는 다른 지역을 방문하거나 다른 지역 방문객과 접촉한 이력이 없다. 현재 감염경로가 밝혀지지 않은 상태다. 도 방역당국은 특히 653번 가족인 654번이 서귀포매일올레시장에서 일하는 것으로 확인됨에 따라 시장에 워크 스루 선별진료소를 설치한 가운데, 시장 상인·방문객 147명을 대상으로 코로나19 진단 검사에 나섰다. 해당 장소 방문자는 서귀포보건소 선별진료소에서 검사를 받으면 된다. 검사는 10일 오후 6시까지 이어지며, 검사 결과도 이날 순차적으로 확인될 전망이다. ■ 관광객·입도객 연쇄 감염…소규모 n차 감염 지속 657번·658번·659번은 지난 9일 확진된 647번의 접촉자이다. 647번이 앞서 확진된 제주시 연동 소재 종합병원 간병인(645번)의 친척인 점을 감안할 때, 이른 바 ‘n차 감염’도 현실화돼 ‘조용한 전파’에 대한 우려가 커지고 있다. 665번·660번은 가족인 630번과 함께 지난 1일 제주에 여행을 온 관광객이다. 1·2차 검사에서는 음성이었지만, 3차 검사에서 양성 판정이 나왔다. 630번은 가족 5명과 함께 제주에 여행을 왔다. 입도 직후 제주공항에서 발열이 감지돼 진단검사 결과 확진됐다. 또 가족 중 665번·660번까지 확진되면서 630번발 ‘n차 감염’은 앞서 양성 판정을 받은 637번을 포함해 3명으로 늘었다. 661번 확진자도 관광객이다. 지난 4일 오전 가족 3명과 함께 제주에 왔다. 이들은 관광 사흘째인 지난 7일 서울시 중랑구 확진자와 접촉한 사실을 통보 받고, 코로나19 진단 검사를 받았으며, 이 중 2명(643번·644번)이 차례로 양성 판정을 받았다. 이어 격리 시설에 입소한 나머지 2명 중 1명이 추가 양성 판정을 받아 제주 661번 확진자가 됐다. 이로써 제주 여행을 온 이들 가족 4명 중 3명은 제주에서 확진 판정을 받았고, 나머지 1명만 현재 음성 판정이 나와 시설격리를 진행 중이다. 한편 제주도내 격리 치료 확진자는 38명, 자가격리자는 379명(확진자 접촉자 141명·해외입국자 238명)로 파악됐다. 또 10일까지 도내에선 1만5482명이 1차 코로나19 백신 예방접종을 완료했고, 2차 접종까지 마친 인원은 2005명이다. 이상 반응 신고는 지금까지 214건이 있었지만, 모두 두통·발열 등의 가벼운 증상으로 중증 의심 사례는 없다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 올해 공영관광지 32곳 대상 운영평가 ::::: 기사 본문 바로가기 검색사이드메뉴바사이드메뉴바OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항 로그인 로그인검색 검색 로그인 로그인 사이드메뉴바 닫기OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항투데이제주도 올해 공영관광지 32곳 대상 운영평가 박주연2021년 04월 22일 07시 20분 00초 글자 크기 인쇄 페이스북에 공유트위터에 공유 카카오톡에 공유 공영관광지 운영 평가가 실시됩니다. 제주도는 오는 6월부터 11월까지 공영관광지 32곳을 대상으로 시설 이용 편의성과 관광객 만족도 조사를 실시하고, 사회적 거리두기와 감염병 예방수칙에 대한 교육과 홍보도 함께 진행합니다. 제주도는 평가 결과에 따라 우수 관광지 6곳을 선정해 포상할 계획입니다. 박주연 최신 뉴스 뉴스투데이2022년 10월 11일 08시 31분 35초개교 100년 넘은 학교도 저출산으로 학생수 급감2022년 10월 11일 07시 20분 00초 고질체납차량·비과세 감면차량 일제 조사2022년 10월 11일 07시 20분 00초 홍해삼·전복 수산종자 91만 마리 방류2022년 10월 11일 07시 20분 00초휘발류보다 비싼 경유..디젤 차량 등록 첫 감소2022년 10월 11일 07시 20분 00초제주 해녀 10년 동안 1천200여 명 감소2022년 10월 11일 07시 20분 00초 오늘 맑고 찬바람 강해 쌀쌀‥내일 아침기온 뚝2022년 10월 11일 07시 20분 00초강원영동) 고향사랑기부금제 내년 도입2022년 10월 11일 07시 20분 00초(인터뷰)재일제주인 연구에 평생2022년 10월 11일 07시 20분 00초연중기획-마을공동체가 여행사업에 참여(리포트)2022년 10월 11일 07시 20분 00초제주도 올해 공영관광지 32곳 대상 운영평가 방송편성규약게시판 운영원칙광고안내프로그램 구입 안내지상파DMB개인정보취급방침이용약관이메일무단수집거부 MBC Family MBC경남 대구MBC 대전MBC 목포MBC 부산MBC MBC강원영동 안동MBC여수MBC 울산MBC 광주MBC 원주MBC 전주MBC 제주MBC MBC충북 춘천MBC 포항MBC MBC C&amp;I MBC아카데미 MBC ARTS MBC PLUS MBC AMERICA MBC PlayBe 꿈나무축구재단 MBCNET MBC나눔 iMBC 회사명 : 제주문화방송(주) | 대표자 : 이정식 | 제주특별자치도 제주시 문연로 35 (연동) 064-740-2114 팩스번호 : 064-746-9020 | 뉴스제보 : 064-740-2000ㅣ광고문의 : 064-740-2400© 2019. Jeju Munhwa Broadcasting Corp. All rights reserved. Copyright © Jeju Munhwa Broadcasting Corp. All rights reserved. OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항로그인 로그인</t>
+  </si>
+  <si>
+    <t>김희철(슈퍼주니어) "코로나 끝나면 원주가 제주도 못지 않은 관광지 될 것" &lt; 인터뷰 &lt; 원주 &lt; 지역 &lt; 기사본문 - 강원도민일보 화면이 제대로 보이지 않는다면 클릭해 주세요! 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 상단영역 최종편집 :  2022-10-11 14:47 (화) 구독 제보 광고 투고 윤리강령 로그인 전체메뉴 버튼 오피니언 기획 DMZin 정치 사회 Biz 지역 문화 스포츠 WE+ 포토 영상 지면보기 강원도민일보 사이트맵 종합 정치 사회 경제 문화 스포츠 강원&amp;강원인 지역 춘천 원주 강릉 동해 태백 속초 삼척 홍천 횡성 영월 평창 정선 철원 화천 양구 인제 고성 양양 오피니언 사설 명경대 기고 도민시론 독자한마디 요즘에 독자시 데스크눈 칼럼 특집 기획 WE+ 특파원리포트 토론/대담 창간 일반 알림 DMZin DMZ문화 DMZ환경 DMZ일상 DMZ뉴스 DMZ포토 DMZ기획 강원도민TV 뉴스 인터뷰/대담 뉴스클릭 기타 평창올림픽 백년식당 포토 포토뉴스 도민세평 커뮤니티 독자투고 기사제보 불편신고 생활정보 인사 부음 결혼 행사 알림 회사소개 인사말 약도/전화번호 구독신청 광고안내 채용안내 저작권문의 고충처리인 강원사회조사연구소 개인정보처리방침 윤리강령 naver daum kakao facebook youtube twitter instagram navertv 실시간 뉴스 2022 강릉명주인형극제 13일 개막…사전 예매 인기 유승민 "‘일본은 조선과 전쟁을 한적이 없다’ 망언한 정진석 사퇴해야" 정선 군도 7호선 사북~직전간 도로 이달 말 개통 “학교급식은 노동자들의 인골탑” 폐암 위험 노출 학교 비정규직 '환경개선' 요구 물살 가르는 황선우 포항 모텔서 숨진 여성 3명 강릉·정선 사는 지인 사이…사인·방문 미스터리 경찰 “성상납 의혹 이준석 사건 추가조사·대질신문 없이 곧 마무리” 일본, 한국인 무비자 관광 오늘부터 2년7개월 만에 허용 감사원 유병호 사무총장 “무식한 소리 말라는 문자 송구…소통은 정상적인 것” 감사원의 '열차 이용 내역' 자료 제출 요구에… 野 "민간인 사찰" 더보기 실시간 뉴스 신속한 정보를 한눈에 볼 수 있습니다. 실시간 뉴스 더보기 닫기 2022 강릉명주인형극제 13일 개막…사전 예매 인기 유승민 "‘일본은 조선과 전쟁을 한적이 없다’ 망언한 정진석 사퇴해야" 정선 군도 7호선 사북~직전간 도로 이달 말 개통 “학교급식은 노동자들의 인골탑” 폐암 위험 노출 학교 비정규직 '환경개선' 요구 물살 가르는 황선우 포항 모텔서 숨진 여성 3명 강릉·정선 사는 지인 사이…사인·방문 미스터리 경찰 “성상납 의혹 이준석 사건 추가조사·대질신문 없이 곧 마무리” 일본, 한국인 무비자 관광 오늘부터 2년7개월 만에 허용 감사원 유병호 사무총장 “무식한 소리 말라는 문자 송구…소통은 정상적인 것” 감사원의 '열차 이용 내역' 자료 제출 요구에… 野 "민간인 사찰" 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 김희철(슈퍼주니어) "코로나 끝나면 원주가 제주도 못지 않은 관광지 될 것" 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 지역 원주 인터뷰 김희철(슈퍼주니어) "코로나 끝나면 원주가 제주도 못지 않은 관광지 될 것" 기자명 남미영 입력 2021.04.20 댓글 0 요약봇 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 닫기 자동 추출 기술로 요약된 내용입니다. 요약 기술의 특성상 본문의 주요 내용이 제외될 수 있어, 전체 맥락을 이해하기 위해서는 기사 본문 전체보기를 권장합니다. SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 원주시 홍보대사 위촉 ▲ 원주시 홍보대사 된 ‘슈퍼주니어’ 멤버 김희철. 음악은 물론 예능까지 섭렵한 만능 엔터테이너 김희철(39)이 원주시 홍보대사로 나섰다.지난 2015년 횡성군 홍보대사에 이은 고향 사랑의 두 번째 행보다.화려한 입담과 재치로 대중의 사랑을 한 몸에 받고 있는 그를 20일 홍보대사 위촉식 현장에서 만났다. -홍보대사 제안이 왔을 때 고민은 없었나. “전혀 없었다.오히려 원주에 죄송한 마음이 더 컸다.평소 방송에서 원주 얘기를 종종 언급하면서 실제 원주시를 홍보하거나 적극 알리지를 못해 왔다.학창시절을 모두 보낸 곳이고 지금도 부모님이 살고 계신 곳이라 원주에 애착이 크다.앞으로도 원주에 관한 스케줄은 가급적 모두 소화할 생각이다.” -학창시절 원주와 달라진 것이 있다면. “학창시절이라 하면 무려 20년 전이다.위촉식 현장에 오면서도 문득 ‘원주가 이렇게 컸었나’ 생각했다.특히 오늘 시장님을 통해 소개받은 소금산 스카이밸리는 놀라웠다.그 때의 소금산이 이렇게 변신할 거라고는 상상도 못했다.코로나때문에 많은 사람들이 국내 여행으로 눈길을 돌리는데 스카이밸리가 완성되면 원주가 국내 여행1번지라 불리는 제주도 못지 않은 관광지가 될 거라고 자신한다.” ▲ 원주시 홍보대사 된 ‘슈퍼주니어’ 멤버 김희철. -학창시절에 원주에서 가 본 곳 중 기억에 남는 곳은. “사실 학창시절 원주에서는 갈 곳이 많지 않았다.여름에는 간현 유원지나 개울가를 종종 갔지만 평소에는 기껏해야 우산동 대학로,단계택지가 놀 수 있는 전부였다.오크밸리도 원주하면 생각나는 곳 중 하나다.횡성에서 태어났지만 원주는 학창시절 추억이 많은 곳이어서 더 특별하다.” -시민에게 전하고 싶은 메시지가 있다면. “코로나19로 많은 분들이 지쳐있는데 더 많은 웃음 드릴 수 있도록 노력하겠다.평소 방송에서도 살아온 곳의 이야기를 했을 뿐인데 그런 부분을 좋게 봐주시고 응원까지 해주셔서 너무 감사하다.하루 빨리 마스크를 벗고 다시 원주시민들과 만나는 날이 오길 바란다.” 남미영 onlyjhm@kado.net 남미영 onlyjhm@hanmail.net 다른기사 보기 저작권자 © 강원도민일보 무단전재 및 재배포 금지 강원도민일보를 응원해주세요 정론직필(正論直筆)로 보답하겠습니다 후원하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 많이 본 기사 일간 주간 월간 1 강풍에 지붕 날아가고, 신호등 떨어지고…강릉지역 피해 잇따라 2 폐에 쌓인 석탄가루, 5227명은 숨막힌 일상을 산다 3 “실형 받고 아이들 지도 안돼” vs “15년간 무탈·생계 걸려” 4 정선 정암사 자장율사 순례길 걸으며 고된 삶 치유·위로 5 후평동 주공4단지·에리트아파트 재건축 속도 6 도청사 부지 확정까지 소양8교 건립 유보 7 추워진 날씨에 두른 담요 8 도, 레고랜드 주차장 계약 재협상 추진 9 삼척 흥전리 사지 국가지정문화재 된다 10 플라이강원 베트남 하노이·호치민 13일부터 순차 취항 1 랍스터·초밥·닭한마리가 나온다고? 화천 27사단 급식 화제 2 [속보] ‘현무-2’ 발사 후 강릉에 비정상 낙탄… 군부대 쪽 불길·폭발음 3 레고랜드 조성 2050억 대출 SPC '아이원제일차' 부도… 투자 피해 우려 4 ‘부동산 핫플’ 강릉에 아파트 물량 1만1745세대 쏟아진다 5 '여가부 폐지'하고 복지부 산하 본부로…행안부, 정부조직법 개편안 보고 6 춘천 의암호에 마리나 들어서나… 육동한 시장 "성공 방안 찾겠다" 기자회견 7 합참 측 “강릉 낙탄은 사실이지만 화재나 폭발은 없었다” 8 강풍에 지붕 날아가고, 신호등 떨어지고…강릉지역 피해 잇따라 9 중도개발공사 SPC 부도, 대출금 상환 소송전 전망 10 강릉·원주 포함 내주 1만4천여가구 신규 공급 1 BTS 지민, 강원도교육청에 거액 전달 뒤늦게 알려져 2 춘천시, 도청사 신축 대상지 5곳 압축 강원도 전달 3 강원도지사가 된 라미란 ‘진실의 입’ 컴백 4 ‘엘리자베스 여왕 명예기사’ 한승수 전 총리 인연 화제 5 랍스터·초밥·닭한마리가 나온다고? 화천 27사단 급식 화제 6 ‘강원FC 전용구장 백지화’ 이영표 대표 재계약 여부 주목 7 ‘1종 자동 운전면허’ 도입 이르면 내달 확정 발표 8 ‘초고가’ 양양송이 물량증가에 40만원대로 내려와 9 ‘비싸도 너무 비싼’ 양양송이 최고가 배경 논란 10 영월서 로또 1등 나와…전국 8명 당첨, 각 32억3119만원 HOT 포토 도의회 의정비 결정사항 논의 간담회 추워진 날씨에 두른 담요 강릉 낙탄사고 군부대 찾은 민주당 설악산 첫 눈에 상고대 활짝 설악산 올해 첫 눈…작년보다 9일 빨라 김주형, 두달 만에 또 PGA 정상…슈라이너스 칠드런스 오픈 우승 [현장 컷] 강원해양문화대축전, 동해 ’BEACH SONG 콘서트‘로 서막 울산 전국체육대회 개막 쓰러진 벼, 속 쓰린 농심 한글사랑 한국사랑 평화통일 기원 합수제 마라토너 이봉주 원주시 홍보대사 위촉식 인사 부음 결혼 행사 알림 [인사]삼척시 [인사]홍천군 [인사]홍천군 [인사]평창군 태백시 인사(10월 4일자) [인사] 철원군 10월1일자 인사발령 [인사]동해시 [인사] 춘천시 6급 이하 [인사] 춘천시 5급 이상 [인사] 춘천시 5급 이하 [부음] 최태운(전 인제군의회의원ㆍ인제군산림조합장)씨 별세 [부음] 원낙희 전 윈주시장 별세 [부음]이용기 전 강릉시의장 모친상 유병복(남산농업협동조합 이사) 모친상 [부음] 방석재 전 춘천시 복지환경국장 모친상 [부음] 강원도민일보 안영옥 편집부장 부친상 홍영자(89)별세, 최만식(태백시 에코잡시티 촉진담당)씨 모친상 김영규 철원역사문화연구소장 부친상 [부음] 김창삼 강원도민일보 속초지사장 부친상 [부음] 강원도민일보 영상콘텐츠부 김신언 기자 조모상 [결혼]이해송 평창군청 보건사업과 주무관 씨 장녀 김유희 양 결혼 [결혼] 고진배 평창읍 제일양복점 대표 장남 [결혼] 이원교 동해시청 건축과 주무관 [결혼] 조종용 원주부시장 장녀 [결혼] 함대식 (사)강원도한중우호협회 회장·㈜합성 대표이사·굿리더아카데미 강릉권 5기 장녀 [결혼] 용지훈 강원도장애인체육회 직원 [결혼] 김용남 강릉시의회 산업위원장 딸 [결혼] 성현주 춘천시새마을부녀회 부회장 · 봄내정책연구회 부회장 차녀 [결혼] 김보영 평창경찰서 생활안전교통과장 장남 [결혼] 박호식 횡성군 갑천면장 장녀 강릉원주대학교도서관-강릉시향 찾아가는 음악회 정선 임계중·고 총동문회 2022년 만남의 날 철원 김화농협 박홍기 상무 출판기념회 제5회 호반윤슬 ART 서양화전(춘천시민과 함께하는 그림여행,2022.9.13-9.16) 초대 제18회 전국생활체육복싱토너먼트 겸 프로권투한국타이틀매치 신철원중·고 총동문회 제30회 총동문 한마음 대회 동해시평생학습관 학부모 글쓰기 자격과정 수강생 모집 원주 대성중·고 총동문회 2022년 대성가족 한마당 체육대회 원주고 총동문회 제47회 총동문가족체육대회 홍천FC 남·여 신입회원모집 [구인] 강릉고용센터 제공 [구인] 춘천고용센터 제공 [구인] 강릉고용센터 제공 [구인] 춘천고용센터 제공 [구인] 강릉고용센터 제공 [구인] 춘천고용센터 제공 [구인] 춘천고용센터 제공 [구인] 강릉고용센터 제공 [구인] 강릉고용센터 제공 [구인] 춘천고용센터 제공 하단영역 하단메뉴 매체소개 윤리강령 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 고충처리인 저작권보호정책 이메일무단수집거부 RSS 매체정보 강원도 춘천시 후석로462번길 22 (강원도민일보사) (구. 후평1동 257-27) 대표전화 : 033-260-9000 팩스 : 033-243-7709 법인명 : (주)강원도민일보 제호 : 강원도민일보 등록번호 : 강원, 아00097 등록일 : 2011-09-08 창간일 : 1992-11-26 발행ㆍ인쇄인 : 김중석 편집인 : 경민현 논설실장 : 박미현 미디어실장 : 김인호 편집국장 : 송정록 청소년보호책임자 : 김동화 강원도민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 강원도민일보. All rights reserved. mail to webmaster@kado.net 챗봇위로 닫기</t>
+  </si>
+  <si>
+    <t>사천시~제주도, 뱃길 관광 등 관광활성화 맞손 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 부산ㆍ경남 사천시~제주도, 뱃길 관광 등 관광활성화 맞손 (경남=뉴스1) 한송학 기자					| 2021-04-05 15:09 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 사천시관광진흥협의회와 제주특별자치도관광협회가 5일 제주관광협회 사무실에서 관광활성화를 위한 업무협약을 체결했다. © 뉴스1 경남 사천시는 제주도와 뱃길 관광 등 관광활성화를 위한 업무협약을 체결했다고 5일 밝혔다.협약은 양 지역 관광상품 개발, 관광객 유치 공동마케팅, 관광정보 공유, 주요 행사 상호 홍보 지원 등이다.세월호 참사 이후 중단됐다가 7년만에 개통한 삼천포항~제주항 간 뱃길관광 활성화 도모에도 협력하기로 했다.오션비스타제주호는 500억여원의 사업비를 들여 건조한 카페리 여객선으로 지난 3월 20일부터 운항 중이다.시 관계자는 “이번 협약으로 삼천포신항과 제주항을 오가는 카페리운항과 5월 개장 예정인 아라마루 아쿠아리움 등 사천관광 활성화에 크게 기여할 것으로 기대한다”고 밝혔다. han@news1.kr &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 이런 일&amp;저런 일 김수미 "김용건 늦둥이 아들 지 아범 딱 닮아" 공효진♥케빈오, 뉴욕서 결혼식…정려원 참석 클럽 앞 멈춘 소방차 '비키니 여성' 하차…왜? 강민경, 65억 건물로 쇼핑몰 이사 "직원 눈물" 유명 래퍼, 객석 다이빙…땅바닥 '툭' 굴욕 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 대통령실까지 행진하는 배민 라이더 정진석 "이재명 '日軍 주둔설' 文 '김정은 비핵화 약속'…양대 망언 취업, 그 간절한 마음 'K패션의 미래가 한자리에' [국감]유병호 "문자 송구스러워…소통은 정상적" 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 탭메뉴 스포츠 연예 스타일 스포츠 9부 능선 넘었어도 긴장 풀지 않은 홍명보 감독 "아직 우승 아닌데…" 프로농구 10개구단 감독들이 뽑은 새 시즌 우승후보는? KT… 2위 SK '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도, 문화관광해설사 간담회 개최 2022.10.11 (화) 포토·영상 스페셜 최신 IT·과학 IT정책 인터넷 통신/방송 컴퓨팅/보안 IT기기 부품 게임 과학 산업 재계 중기/벤처 생활경제 자동차 부동산 경제 경제정책 증권 금융 경제일반 정치 대통령실 국회/정당 외교안보 정치일반 사회 사건사고 교육 지역 사회일반 인사/부음/동정 문화·생활 공연/전시 출판 여행/레저 라이프 문화일반 생활일반 전국 서울 세종대전충청 경인 제주 호남 영남 글로벌 국제경제 국제일반 연예·스포츠 연예 스포츠 오피니언 데스크칼럼 기자수첩 전문가기고 서울 세종대전충청 경인 제주 호남 영남 제주도, 문화관광해설사 간담회 개최 유태희 기자 입력 2021.04.14 11:11 댓글 쓰기 [아이뉴스24 유태희 기자] 제주특별자치도는 올해 활동 20주년을 맞은 문화관광해설사들의 활동 여건 개선과 역량 강화, 기념사업 등 지원 강화를 위한 현장 소통 시간을 마련했다고 14일 밝혔다.제주도는 지난 12일 돌문화공원 오백장군갤러리 2층 소회의실에서 ‘문화관광해설사 간담회’를 개최했다.고영권 제주도정무부지사가 올해 활동 20주년을 맞은 문화관광해설사들과 ‘간담회’ 를 개최하고 있다.[사진=제주도청]도 문화관광해설사는 지난 2001년도부터 관광객에게 역사‧문화‧예술‧자연 등 관광자원 전반에 대한 전문적인 해설을 운영했다. 현재까지 해설사 312명 양성, 올해 도내 34곳‧관광지 190명 활동을 하고 있다.이날 자리에는 고영권 제주특별자치도 정무부지사를 비롯해 김태수 제주도 문화관광해설사 협회 회장, 해설사 10여명이 참석했다.고영권 부지사는 “20년 동안 제주의 역사‧문화‧자연‧예술 등을 열심히 알려주신 문화관광해설사분들 덕분에 제주 방문 관광객들의 만족도가 크게 향상하는 등 제주 관광이 질적 성장을 이룰 수 있었다”며 “코로나바이러스감염증(코로나19)으로 해설 활동이 일부 제한되고 있지만, 각자 맡은 자리에서 최선을 다해달라”고 말했다.이날 간담회에서 문화관광해설사들은 ▲근무 일수 연장 ▲문화관광해설사 지원 방안 확대 ▲문화관광해설사 관련 조례 개정 추진 등을 건의했다.한편 제주도는 올해 문화관광해설사 활동 20주년을 맞아 해설사 여건 개선과 역량 강화와 기념사업 등에 총 12억원을 지원할 예정이다.또한 코로나19로 확산 방지를 위해 문화관광 해설 활동이 일부 제한되고 있음에 따라 주요 관광지의 코로나19 관련 안전 과 질서유지, 안내 등 업무에 해설사들이 참여할 수 있도록 조정하고 있다.김태수 문화관광해설사 회장(오른쪽)이 문화관광해설사 근무 일수 연장과 지원 방안 확대, 관련 조례 개정 추진 등을 고영권 부지사에게 건의하고 있다.[사진=제주도청]/제주=유태희 기자(yth6883@inews24.com) 유태희 기자의 다른 기사 보기 포토뉴스 뉴스 | 포토ㆍ영상 | 오피니언 | 스페셜 회사소개 | 고객센터 | 광고안내 | 개인정보취급방침 Copyright(c) inews24.com. All Rights Reserved.Please read inews24’s privacy policy. Contact us for more information 모바일 웹 보기 제호 : 아이뉴스24 &amp;nbsp|&amp;nbsp등록번호 : 서울아00107 &amp;nbsp|&amp;nbsp 등록일자 : 2005.11.07 &amp;nbsp|&amp;nbsp 사업자 등록번호 : 120-81-97512 &amp;nbsp|&amp;nbsp 통신판매업 신고 : 2013-서울마포-0342 &amp;nbsp|&amp;nbsp 서울시 마포구 독막로19길 15 BR엘리텔 B동 3층 대표전화 : (02)3347-114 &amp;nbsp|&amp;nbsp 발행인 : 이창호 &amp;nbsp|&amp;nbsp 편집인 : 박동석 &amp;nbsp|&amp;nbsp 개인정보관리 책임자 : 배석강 &amp;nbsp|&amp;nbsp 청소년보호 책임자 : 배석강</t>
+  </si>
+  <si>
+    <t>제주도 관광객 ‘야간 해루질’ 금지된다 : 제주 : 전국 : 뉴스 : 한겨레 본문 바로가기 광고 전체메뉴보기 전체 정치 정치일반 대통령실 국회·정당 행정·자치 국방·북한 외교 정치BAR 사회 사회일반 여성 노동 환경 장애인 인권·복지 의료·건강 미디어 궂긴소식 인사 엔지오 교육 종교 한겨레아카이브 전국 전국일반 제주 호남 영남 충청 강원 수도권 경제 Weconomy 경제일반 금융·증권 산업·재계 자동차 부동산 쇼핑·소비자 IT 직장·취업 중기·스타트업 기업PR 글로벌워치 국제 국제일반 해외토픽 아시아·태평양 미국·중남미 유럽 중국 일본 중동·아프리카 국제기구·회의 국제경제 문화 문화일반 영화·애니 방송·연예 여행·여가 음악·공연·전시 학술 책&amp;생각 제주&amp; 스포츠 스포츠일반 축구·해외리그 야구·MLB 골프 바둑 올림픽 경기일정 경기결과 미래과학 미래 과학 기술 환경 시각 애니멀피플 야생동물 반려동물 농장동물 인간과동물 생태와진화 기후변화&amp; 기후정책 기후행동 기후과학 기후적응 에너지와기후 기후와사회 오피니언 사설 칼럼 왜냐면 포토에세이 옵스큐라 만화 | ESC | 한겨레S | 한겨레 데이터베이스 | 뉴스그래픽 | 연재 | 이슈 | 함께하는교육 | HERI 이슈 | 탐사보도 | 서울&amp; 스페셜 물바람숲 휴심정 미래 창 기찬몸 사진마을 베이비트리 기후이야기 포토 화보 포토스페셜 최신포토뉴스 카드뉴스 한겨레TV 편성표 한겨레TV 소개 알려드립니다 광고·후원 문의 전체 프로그램 뉴스서비스 많이본기사 날짜별한겨레 지난톱기사 디지털초판 RSS서비스 기사제보 기사투고 매거진 한겨레21 씨네21 이코노미인사이트 사업 한겨레휴센터 한겨레테마여행 한겨레패키지여행 전체메뉴닫기 오피니언 연재 한겨레TV 포토 EN 日本 中文 한겨레21 씨네21 이코노미인사이트 로그인 회원가입 구독신청 한겨레 세상을 바꾸는 벗 후원하기 서비스 메뉴 뉴스레터 감사원 ‘위법감사’ [단독] 감사원, 국민감사본부 만들어 한 일이 ‘KBS 감사’ 뿐 [포토] 감사원 국감 파행…자리 뜨는 김도읍 법사위원장 ‘문자 내통’ 유병호 “송구스럽지만, 그 소통은 정상적인 것” 감사원 국감, 10분 만에 파행…“감사방해!” “착하게 살라” 고성 오가 [단독] “대통령 지원기관”이라는 감사원장, 직원들 해명 요청 거부민주 “‘문자내통’ 캐겠다…이관섭·감사위원 전원 국감 나와야”서해 사건 감사 위법성 논란, 법조계도 “직권남용·강요죄 소지”민주, ‘대감 게이트’ 공세…“권권유착 공수처가 수사하라” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 한겨레S “국가가 정한 말 아니면 틀렸다니” 표준어 없애는 거 어때요? 김정은의 마지막 친서에 등장한 두번의 ‘바보’ 스스로 ‘파묻은’ 윤 대통령, 제발 좀 정치 하는 걸 보고 싶다 ‘피부 안부’ 묻지 마세요…아토피안, 차별·몰이해를 말하다 아름다운 일과 먹고사는 일…감정노동·공짜노동 ‘살아내기’‘환경부=산업부 2중대’ 비아냥 왜?뒤집고 뒤집는 ‘김현숙 여가부’…다음주엔 뭘 뒤집을까울트라스텝, 그게 뭔데? ‘악의 근원’ 고물가를 잡아라 관련 이슈&amp;연재 뉴스AS북 핵실험·미사일 발사멈춰, 직장갑질 성한용의 정치 막전막후 여가부 없애는 정부 ‘일제고사’ 부활 선언…윤 대통령 “원하는 모든 학교 참여” [사설] 고조되는 민생·북핵 위기, 협치로 해법 찾으라 윤 대통령, ‘친일 논란’에 “핵 위협에 어떤 우려 정당화될 수 있나” ‘여가부 폐지’ 여성계 입장 들었다…‘반대 단체’는 빼고 외신들도 비판하는 여가부 폐지…“윤 대통령의 ‘여성 지우기’”윤 대통령 지지율 32%…‘매우 잘못 하고 있다’ 59.6% [리얼미터]‘윤석열차’ 애초 국힘이 시작…‘구둣발’ 부메랑까지 8개월이재명, 여가부 폐지 반대…민주 “이대남 결집, 정쟁 유발 의도” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 책과 생각 비관주의자 김연수의 ‘변심’ “누군가를 기억할 때 바뀐다” 몸은 위태롭다…그래서 변화를 이끌 힘이 있다 나랏말싸미 일본과 다른데…일본어사전 베낀 국어사전, 괜찮나 우리에게 꼭 이름이 필요한가요 허구와 비허구의 교점에서 작가는 무엇을 발견했나당신의 뇌를 읽고 싶다‘균질적 단일언어’ 향해 달려온 우리말 형성사국제정치·외교안보 너머 ‘평화 다원주의’ 관련 이슈&amp;연재 짬황진미의 TV 새로고침정혜윤의 새벽세시 책읽기정인경의 과학 읽기 국민의힘 권력투쟁 ‘성접대 의혹’ 이준석 2차 경찰 조사…증거인멸 교사 조만간 결론 안철수 잡는 김기현, 김기현 때리는 윤상현… 벌써 시작된 당권경쟁 이준석 털어낸 국힘 ‘당권경쟁’…이재명 견제·중도 확장 “내가 적임” 이준석, ‘이순신 출정사’ 언급하며 “탈당 말라”…창당 선긋기 이준석 “누구도 탈당 말라”…이순신 ‘정중여산’ 인용해 첫 입장출마길도 막힐라…이준석 간다는 ‘외롭고 고독한 제 길’은 어디인가하태경 “이준석 윤리위 징계는 정치보복…가처분은 국민 기본권”고립무원 이준석…국힘 윤리위, ‘당원권 정지 1년’ 추가 징계 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 미래&amp;과학 인류가 가장 가까이서 본 유로파, 뒤얽힌 얼음 능선 너머엔… ‘지구방어’ 실험, 160m 소행성 충돌에…5만㎞ 먼지꼬리가 생겼다 지구 감싼 피부는 “사람 피부보다 얇다”…경이로운 3겹의 층 누리호 기술 이전 우선협상 기업은 한화에어로스페이스 야식 먹으면 낮에 더 배고프다…비만 부르는 3중 연결고리재난을 경험한 우리는 다른 사람이 된다, 강제로다음 팬데믹 주인공도 ‘변신의 귀재’ RNA 바이러스다돼지의 심장, 인쇄된 혈관이 장기 부족 해결할 수 있을까? 관련 이슈&amp;연재 곽노필의 미래창김준혁의 의학과 서사전치형 과학의 언저리박상준의 과거창 기후변화 오늘 ‘가을 추위’…모레 5도 “얼음 얼고 서리 내리는” 곳도 32만가구 전기·가스 지원 못 받는다…“윤 대통령 약속과 어긋나” 앞서기는커녕 떠넘기기 ‘환경부=산업부 2중대’ 비아냥 왜? 권성동, 4시간 만에 내놓은 해명 “‘혀 깨물고 죽지’, 내 의지 표현” ‘탈석탄법’ 5만명 입법 청원…“최소 신규 석탄발전 철회”‘원전 안전’ 시정 요구에도 8년째 그대로 왜?‘생태법인’을 아시나요?…제주 남방큰돌고래, 법적 권리 논의 시동‘탈석탄법’ 5만명 입법 청원…“최소 신규 석탄발전 철회” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 광고 본문 광고 전국제주 제주도 관광객 ‘야간 해루질’ 금지된다 등록 :2021-04-08 11:40수정 :2021-04-09 02:32 허호준 기자 사진 허호준 기자 구독 구독중 페이스북 트위터 카카오 링크 스크랩 프린트 글씨 키우기 가 가 가 가 가 어촌계-일반인 마찰에 수산동·식물 포획·채취 제한 고시 제주 서귀포시 안덕면 대평리 해녀들과 어촌계원 등 마을주민들이 지난달 16일 마을 어장 내 해루질을 단속하라고 요구하며 제주도청 앞에서 시위를 벌였다. 제주도가 야간에 불빛을 이용해 어패류 등 해산물을 채취하는 일반인들의 ‘해루질’을 제한하기로 했다. 최근 관광객·일반인들이 마을어장에 들어와 어패류 잡아가는 일이 잦아 주민들과 사이에 갈등이 커지자 대책을 마련한 것이다. 제주도는 8일부터 비어업인이나 맨손어업인의 수산 동·식물 포획·채취의 제한 조건을 고시하고 시행에 들어간다고 밝혔다. 비어업인은 어업 면허가 없는 일반 주민이고, 맨손(신고) 어업인은 행정기관에 신고한 뒤 낫이나 호미, 갈고리를 사용해 어획을 하는 사람이다. 도는 이번 고시를 통해 마을어장 안 조업은 일출 전 30분부터 일몰 후 30분 이내로 한정했다. 낮 시간대에만 포획·채취가 가능하도록 한 것이다. 또 특수 제작된 두 갈래 이상으로 변형된 갈고리 등의 어구나 잠수용 장비 사용도 금지했다. 어류, 문어류, 게류, 보말, 오징어류, 낙지류 외에도 어업권자가 관리하고 기른 조개·해조류 또는 해삼 등 정착성 수산동물 포획·채취도 금지했다. 제주도내 해안 대부분은 마을어장이다. 도가 해루질을 금지하고 나선 것은 어촌계와 관광객·주민 간 마찰이 크게 늘었기 때문이다. 지난달 16일에는 서귀포시 안덕면 대평리마을회와 어촌계 등 마을주민들이 제주도청 앞에서 “무차별 해루질로 마을어장이 황폐화하고 있다”며 대책 마련을 요구하는 집회를 열기도 했다. 해루질은 최근 각종 신문과 방송에서 손쉽게 해산물을 잡을 수 있는 야외 활동으로 소개되면서 인기를 끌고 있다. 도 관계자는 “고시를 위반하면 신고어업인은 어업정지 등의 처벌을 내리고, 비어업인이 신고를 하지 않고 신고어업을 경영하면 500만원 이하 과태료를 부과하는 등 강력한 행정처분을 내릴 계획”이라며 “고시 제정으로 신고 어업인, 비어업인과 마을어업권자간 분쟁이 해결되고 수산자원 보호에도 기여하길 기대한다”고 말했다. 허호준 기자 hojoon@hani.co.kr 항상 시민과 함께하겠습니다. 한겨레 구독신청 하기 진실을 후원해주세요 용기를 가지고 끈질기게 기사를 쓰겠습니다. 여러분의 후원이 우리 사회에 드리운 어둠을 거둡니다. 후원하기 후원제 소개 두근거리는 미래를 후원해주세요 소외 없이 함께 행복한 세상을 위해 노력하겠습니다. 여러분의 후원이 평등하고 자유로운 사회를 만듭니다. 후원하기 후원제 소개 광고 광고 &gt;Please activate JavaScript for write a comment in LiveRe. 광고 전국 많이 보는 기사 1. ‘일가족 참사’ 화장실 기어간 큰딸만 목숨 건져…경찰, 현장 감식 2. 은행잎만 노랗게 빛나도록 남아라, 열매는 10분 줄테니 가라 3. 김진태 등에 업은 ‘학업성취도평가’…“학원에 선물 주는 것” 4. ‘신영복체 직인’ 폐기한 경기교육청…“훈민정음체가 잘 보여” 5. “토건 집착, 공공의료 뒷전” 대구 시민단체의 홍준표 100일 비판 한겨레와 친구하기 매일 아침, 매주 목요일 낮 뉴스의 홍수에서 당신을 구할 친절한 뉴스레터를 만나보세요 데일리 H:730 구독 위클리 h_weekly 구독 한겨레 공식 인스타그램 Follow @hanitweet 전체기사RSSRSS페이지 목록 한겨레앱 1/ 2/ 3 서비스 전체보기 전체 정치 정치일반 대통령실 국회·정당 행정·자치 국방·북한 외교 정치BAR 사회 사회일반 여성 노동 환경 장애인 인권·복지 의료·건강 미디어 궂긴소식 인사 엔지오 교육 종교 한겨레아카이브 전국 전국일반 제주 호남 영남 충청 강원 수도권 경제 Weconomy 경제일반 금융·증권 산업·재계 자동차 부동산 쇼핑·소비자 IT 직장·취업 중기·스타트업 기업PR 글로벌워치 국제 국제일반 해외토픽 아시아·태평양 미국·중남미 유럽 중국 일본 중동·아프리카 국제기구·회의 국제경제 문화 문화일반 영화·애니 방송·연예 여행·여가 음악·공연·전시 학술 책&amp;생각 제주&amp; 스포츠 스포츠일반 축구·해외리그 야구·MLB 골프 바둑 올림픽 경기일정 경기결과 미래과학 미래 과학 기술 환경 시각 애니멀피플 야생동물 반려동물 농장동물 인간과동물 생태와진화 기후변화&amp; 기후정책 기후행동 기후과학 기후적응 에너지와기후 기후와사회 오피니언 사설 칼럼 왜냐면 포토에세이 옵스큐라 만화 | ESC | 한겨레S | 한겨레 데이터베이스 | 뉴스그래픽 | 연재 | 이슈 | 함께하는교육 | HERI 이슈 | 탐사보도 | 서울&amp; 스페셜 물바람숲 휴심정 미래 창 기찬몸 사진마을 베이비트리 기후이야기 포토 화보 포토스페셜 최신포토뉴스 카드뉴스 한겨레TV 편성표 한겨레TV 소개 알려드립니다 광고·후원 문의 전체 프로그램 뉴스서비스 많이본기사 날짜별한겨레 지난톱기사 디지털초판 RSS서비스 기사제보 기사투고 매거진 한겨레21 씨네21 이코노미인사이트 사업 한겨레휴센터 한겨레테마여행 한겨레패키지여행 회사소개 구독신청 광고안내 채용 기사제보 투고 고충처리 고객센터 face book twitter 사이트 운영 저작권 회원약관 개인정보취급방침 지적재산보호정책 이메일주소 무단수집거부 사이트맵 한겨레 가족 하니누리 한겨레출판 한겨레경제사회연구원 한겨레교육문화센터 한겨레통일문화재단 사람과디지털연구소 한겨레신문 등록번호:서울,아01705 등록일자:2011-7-19 사업자등록번호:105-81-50594 발행인:김현대 편집인:백기철 청소년보호책임자:백기철 주소:서울특별시 마포구 효창목길 6 고객센터:1566-9595 Copyright ⓒ The Hankyoreh. All rights reserved. 뉴스레터, 올해 가장 잘한 일 구독신청 일주일 그만보기 닫기</t>
+  </si>
+  <si>
+    <t>제주도, '활동 20주년' 문화관광해설사와 간담회 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, '활동 20주년' 문화관광해설사와 간담회 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 제주도, '활동 20주년' 문화관광해설사와 간담회 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2021.04.13 16:59 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 올해 활동 20주년을 맞은 문화관광해설사들의 활동 여건 개선과 역량 강화 및 기념사업 등 지원 강화를 위한 '문화관광해설사와의 간담회’를 진행했다고 13일 전했다. 지난 12일 오후 2시 돌문화공원 오백장군갤러리 2층 소회의실에서 열린 이날 간담회에는 고영권 제주도 정무부지사 및 제주도 문화관광해설사 협회 김태수 회장, 해설사 등 10여명이 자리했다. 이날 간담회에서 문화관광해설사들은 △근무 일수 연장 △문화관광해설사 지원 방안 확대 △문화관광해설사 관련 조례 개정 추진 등을 건의했다. 이에 고 부지사는 "건의 내용을 검토해 실질적인 지원 대책을 마련하겠다"며 "당장 해결은 어렵더라도 지속적인 소통을 통해 조금씩 바꿔나가도록 노력하겠다"고 말했다. 한편 문화관광해설사는 관광객에게 역사‧문화‧예술‧자연 등 관광자원 전반에 대한 전문적인 해설을 위해 지난 2001년부터 운영되고 있다. 현재까지 해설사 312명이 양성됐으며, 올해 기준 제주도내 34곳‧관광지에서 190명이 활동하고 있다. 제주도는 올해 문화관광해설사 활동 20주년을 맞아 해설사 여건 개선과 역량 강화 및 기념사업 등에 총 12억원을 지원할 예정이다. 또 코로나19로 확산 방지를 위해 문화관광 해설 활동이 일부 제한되고 있음에 따라 주요 관광지의 코로나19 관련 안전 및 질서유지, 안내 등 업무에 해설사들이 참여할 수 있도록 조정하고 있다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도-프랑스, 스마트관광‧부유식 해상풍력 교류방안 논의 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도-프랑스, 스마트관광‧부유식 해상풍력 교류방안 논의 파이낸셜뉴스입력 2021.04.08 21:04수정 2021.04.08 21:06 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 필립 르포르 주한 프랑스 대사 제주 방문…원희룡 지사와 면담 원희룡 제주도지사와 필립 르포르 주한 프랑스대사가 8일 제주도청에서 만나 교류 협력 방안을 논의했다. [제주도 제공] [제주=좌승훈 기자] 원희룡 제주지사가 8일 오전 도청 지사 집무실에서 필립 르포르(Philippe Lefort) 주한 프랑스 대사와 면담하고, 스마트관광과 탄소중립 정책 분야에 대한 교류 협력 방안을 논의했다고 제주도가 밝혔다. 원 지사는 이날 르포르 대사에게 “제주도의 혁신적인 기업 또는 기술을 연구하는 인력들이 관광· 신재생에너지·방역 등 다양한 부분에 대한 연구와 시도가 이뤄지고 있다”면서 “제주도와 프랑스 간 교류 협력을 통해 서로에게 큰 도움이 될 것”이라며 지속적인 교류를 제안했다. 원 지사는 이어 “제주도는 환경 훼손이 적은 부유식 해상풍력 발전 사업과 내륙 지역과 전기를 주고받을 수 있는 3번째 해저케이블 설치 사업도 진행할 계획”이라며 “앞으로 관광과 에너지 정책 등의 분야에서 프랑스와 활발한 교류를 기대한다”고 말했다. 이에 대해 르포르 대사는 “프랑스는 관광 서비스의 전문성을 전달·전수하기 위한 기관을 설립하고, 일부 국가에 도움을 주기 위해 노력하고 있다”며 “특히 프랑스 기업도 한국의 해상풍력 사업에 참여할 예정이어서 앞으로 제주와의 교류가 확대되길 기대한다”고 화답했다. 한편 2019년 11월에 이어 2번째로 제주도를 공식 방문한 르포르 대사는 9일까지 제주에 체류할 예정이다. 르포르 대사는 이날 면담 이후 세계섬학회(회장 고창훈 제주대 교수)가 주최하는 ‘제주 한라산 왕벚나무 자생지 순례’ 행사에 참석했다. 이 행사는 제주가 왕벚나무 자생지임을 세계 최초로 보고한 프랑스 신부 ‘에밀 타케(Emile Taque)’의 업적을 재조명하기 위해 관음사 등반로 제주 왕벚나무 어미나무 광장에서 열렸다. 특히 1908년 4월14일 타케 신부가 서귀포시 신례리, 제주시 봉개동과 관음사 등 3곳에서 왕벚나무를 채집해 유럽 학계에 보고한지 113년 만에 프랑스 대사 일행이 같은 자리를 찾으면서 의미를 더했다. 대사 일행은 이어 9일에는 타케 신부가 머물던 서귀포시 서홍동 소재 성당 옛터와 타케 정원 후보지로 거론된 '면형의 집'을 둘러볼 예정이다. 한국인 첫 사제인 김대건 신부의 유골을 모신 '면형의 집' 마당에는 있는 온주 밀감나무가 있다. 이 나무는 타케 신부가 1911년 일본에서 처음 들여온 온주 밀감나무 14그루 중 유일하게 현재까지 남아있는 나무다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>[전문] 제주도 673번째 확진자 발생...경상남도 사천시에서 입도한 관광객 &lt; 정보 &lt; 기사본문 - 아시아에이 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집:2022-10-11 14:45 (화) 로그인 광고문의 제보 2022.10.11(화) 서울 ℃ 미세먼지 B 경기 ℃ 미세먼지 B 인천 ℃ 미세먼지 B 광주 ℃ 미세먼지 B 대전 ℃ 미세먼지 B 대구 ℃ 미세먼지 B 울산 ℃ 미세먼지 B 부산 ℃ 미세먼지 B 강원 ℃ 미세먼지 B 충북 ℃ 미세먼지 B 충남 ℃ 미세먼지 B 전북 ℃ 미세먼지 B 전남 ℃ 미세먼지 B 경북 ℃ 미세먼지 B 경남 ℃ 미세먼지 B 제주 ℃ 미세먼지 B 세종 ℃ 미세먼지 B 기사검색 검색 경제 산업 정책·일반 여행·레저 인사·부고 기획 A 현장 아시아에이 TV 포토 전국 전체서비스 경제 건설·부동산 금융 산업 전기·전자 IT과학 유통·서비스 자동차·철도·항공 조선·해운·철강·에너지 정책·일반 정책 사회 여행·레저 여행·레저 연예·스포츠 문화 인사·부고 기획 A 현장 아시아에이 TV 전국 속보 본문영역 이전 기사보기 다음 기사보기 [전문] 제주도 673번째 확진자 발생...경상남도 사천시에서 입도한 관광객 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정보 [전문] 제주도 673번째 확진자 발생...경상남도 사천시에서 입도한 관광객 기자명 정진욱 기자 입력 2021.04.18 12:11 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 코로나19 관련사진 (사진= 뉴스1 제공) [아시아에이=정진욱 기자] 제주도에서 코로나19 제주 673번째 확진자 발생을 알렸다. 이하 제주도에서 공개한 확진자 발생 전문이다. ■ 제주특별자치도는 17일 오후 2시경 도 보건환경연구원으로부터 673번 코로나19 확진자 발생 사실을 통보받고 즉시 역학조사에 착수했다고 밝혔다. ■ 이날 추가된 673번 확진자 A씨는 경상남도 사천시에서 지난 14일 입도한 관광객이다. ❍ A씨는 지난 14일 밤 입도했으며, 16일 오전 10시 30분경 경상남도 사천시보건소에서 확진자의 접촉자라는 사실을 통보받았다. ❍ 이에 16일 오후 1시 30분경 제주보건소 선별진료소를 방문해 검사를 받았으며, 17일 오후 2시경 도 보건환경연구원으로부터 최종 확진 판정을 받았다. ❍ A씨 현재까지 증상은 없는 것으로 확인됐으며, 제주대학교병원 음압병상으로 이송돼 격리치료를 받고 있다. ❍ A씨에 대한 역학조사는 진행 중이다. ❍ 제주도는 확진자의 진술을 확보하고 신용카드 사용 내역 파악, 제주안심코드 등 출입자 명부 확인, 현장 CCTV 분석 등을 통해 여행 동선들을 확인 중이다. ❍ 상세 동선이 확인되는 대로 방문지에 대한 방역소독을 하는 한편 접촉자 분리 조치 등을 진행할 방침이다. ■ 임태봉 코로나방역대응추진단장은 “수도권 지역을 중심으로 코로나19 신규 확진자가 전국 하루 평균 600명 이상 발생하고 있는 상황에서 최근 이틀간 4만여 명의 관광객들이 제주를 방문하고 있다”며 제주도내 코로나19 신규 확산을 우려했다. ❍ 이에 따라 “진단검사 판정 전이나 유증상일 경우에는 제주 방문을 자제해주시고, 부득이하게 입도할 경우에는 사회적 거리두기와 제주안심코드를 활용한 출입기록 등을 준수해주길 바란다”고 당부했다. ■ 제주도는 제주대병원 응급실 방문자와 이주 노동자에 대한 일제검사도 진행했다. ❍ 제주대병원 응급실 동선 공개 이후, 지난 14일부터 현재까지 관련 방문이력으로 총 182명에 대해 진단검사를 실시했으며 전원 음성으로 확인됐다. ❍ 도내 이주 노동자(외국인 근로자)를 대상으로 진행한 일제검사에서는 314명이 검사를 받았으며, 모두 음성판정을 받았다. ❍ 도 방역당국은 제주대병원 응급실 방문자와 이주 노동자에 대한 일제검사 결과 모두 음성으로 확인됨에 따라, 지역사회 전파는 적을 것으로 추정하고 있다. ■ 한편 16일 672번과 함께 입도한 것으로 확인된 배우자는 도 보건환경연구원으로부터 음성 통보를 받았다. ■ 17일 오후 5시 현재 제주지역 격리 중 확진자는 37명(강동구 확진자 1명 포함), 격리 해제자는 637명(사망1명, 이관 2명 포함)이다. ❍ 현재 가용병상은 총 402병상이며, 자가격리자 수는 520명(확진자 접촉자 282명, 해외입국자 238명)이다. 정진욱 기자 jjubika@sundog.kr 다른기사 보기 저작권자 © 아시아에이 무단전재 및 재배포 금지 당신만 안 본 뉴스 [지속가능경영] 산업은행 "기업의 ESG 책임경영을 적극 지원한다" [MZ세대가 간다㊸] 찬바람에 '훌쩍'...슬기로운 환절기 대처법 [A 리뷰] “수고한 다리에 힐링 선사”...세라젬 '다리 에어마사지기' '갑질논란' 중심...신협중앙회 김윤식 회장 국감 증인 빠져 대전 SRT 탈선사고.. "폭염과 시설의 구조적 문제 가능성 있어" [A 현장] “앱 하나로 가전 최적화” 삼성·LG, KES 2022서 스마트홈 솔루션 공개 [A 현장] 핀테크로 금융혁신까지...'코리아 핀테크 워크 2022' 가보니 [포토] BBQ 올리버스, 가을 산행철 맞아 관악산 일대 환경정화 나서 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글입력 권한이 없습니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 코웨이, 2022 한국산업 고객만족도 조사 '침대·정수기' 부문 1위 선정 [국감 2022] 이복현 금감원장 "금융사고·불법 공매도·불공정행위 강력 대응" 토스플레이스, 결제단말기 선봬...각종 페이 결제 가능 한화디펜스 다목적무인차량, 미 육군 현지 성능시연 참가 경동나비엔, ‘2022 한국산업의 고객만족도’ 보일러 부문 9년 연속 1위 많이 본 뉴스 1 [지속가능경영] 산업은행 "기업의 ESG 책임경영을 적극 지원한다" 2 이마트24, 구글플레이·미르M과 손잡고 팝업스토어 '미르24' 오픈 3 [포토] 삼성전자, 미국 실리콘밸리서 '삼성 테크 데이 2022' 개최 4 [MZ세대가 간다㊸] 찬바람에 '훌쩍'...슬기로운 환절기 대처법 5 효성, ‘세빛 ESG 컬러 페스티벌’ 개최 6 [A 리뷰] “수고한 다리에 힐링 선사”...세라젬 '다리 에어마사지기' 7 [A 게임가 소식] 넥슨, '히트2' 출시 후 첫 대규모 업데이트 外 8 [A 경제용어사전] '인오가닉(inorganic)' 9 '갑질논란' 중심...신협중앙회 김윤식 회장 국감 증인 빠져 10 9월 '지진·신용정보' 테마 주목…상승률 1위 종목 'WI(더블유아이)' 주요기사 [국감 2022] 이복현 금감원장 "금융사고·불법 공매도·불공정행위 강력 대응" [A 현장] BAT "'글로' 흡연자, 연초 연기보다 90~95% 낮아" [A 금융꿀팁㉟] 저축성보험 가입시 소비자 유의사항 [국감 2022] '칠성사이다 플러스' 등 일반식품 기능성 표시제 허점 지적 [2022 국감] 삼성전자 GOS 논란...노태문 사장 "업데이트 후 불만 해결" 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 2022-10-11 14:56 (화) 매체정보 제호 : 아시아에이 사업자번호 : 106-86-51344 등록번호 : 서울 아05097 등록일 : 2018-04-09 발행일 : 2018-05-15 발행인 : 이혜민 편집인 : 이영창 정보보호책임자 : 김보라 서울특별시 종로구 삼일대로 461 (운현궁 에스케이 허브) 102동 302호 문의 및 보도자료 : dailykim@asiaa.co.kr 대표전화 : 070-7706-9366 아시아에이 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 아시아에이. All rights reserved. mail to dailykim@asiaa.co.kr 위로 전체메뉴 전체기사 경제 전체 건설·부동산 금융 산업 전체 전기·전자 IT과학 유통·서비스 자동차·철도·항공 조선·해운·철강·에너지 정책·일반 전체 정책 사회 여행·레저 전체 여행·레저 연예·스포츠 문화 인사·부고 기획 A 현장 아시아에이 TV 포토뉴스 전국 속보 생활경제 정보 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도-제주관광공사-SK텔레콤, ‘제주 러뷰 챌린지’ 개최 &lt; 제주 &lt; 전국 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-11 14:55 (화) 실시간 뉴스 결혼정보회사 가연, 좋은 인연 위한 미팅파티 마련 진아름 결혼소감, ♥남궁민과 "성숙하고 예쁘게 살 것" 바비모, ‘시카 리페어 부스트 크림’ 출시 답변하는 이복현 금융감독원장 ‘마리엔펠트’ 30주년 기념 비스포크 행사 성료 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 광산구 "올겨울 함께 할 희망의 메시지를 찾습니다" 2022 광산아트페스티벌 ‘별무리 예술장터’ 개최 HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 292호(2022-10) 오세훈 서울시장이 말하는 ‘약자와의 동행, 매력 특별시’ 구독하기 본문영역 이전 기사보기 다음 기사보기 제주도-제주관광공사-SK텔레콤, ‘제주 러뷰 챌린지’ 개최 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도-제주관광공사-SK텔레콤, ‘제주 러뷰 챌린지’ 개최 기자명 오형석 기자 입력 2021.04.06 13:57 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 가고 싶고 보고 싶은, 당신의 제주를 보여주세요! V컬러링 서비스 연계, 제주 영상 공유로 새로운 방식의 홍보 기대 제주특별자치도와 제주관광공사는 SK텔레콤과 함께 이용자가 직접 찍은 제주 영상을 공유하는 이벤트인 ‘제주 러뷰(Jeju Loview) 챌린지’를 6일부터 오는 26일까지 개최한다.(자료제공_제주관광공사) [시사매거진/제주] 코로나19로 위축된 도내 관광산업에 활로를 찾기 위해 위드 코로나 시대에 걸맞은 새로운 방식의 제주관광 홍보 이벤트가 개최되면서 눈길을 끌고 있다. 제주특별자치도와 제주관광공사(사장 : 고은숙)는 SK텔레콤과 함께 이용자가 직접 찍은 제주 영상을 공유하는 이벤트인 ‘제주 러뷰(Jeju Loview) 챌린지’를 6일부터 오는 26일까지 개최한다고 밝혔다. 이번 이벤트는 참가자들이 그동안 여행했던 제주 풍경 영상을 공유하고, 이 영상을 통해 제주 여행에 대한 긍정적인 이미지를 심어주기 위해 기획됐다. 특히 공사는 금번 이벤트를 최근 이용자가 늘고 있는 V컬러링 서비스와 연계하는 한편, 숏폼 콘텐츠를 통한 제주 홍보라는 색다른 방식을 시도했다. V컬러링 : 나에게 전화하는 상대방에게 내가 미리 설정해 둔 영상을 보여주는 신개념의 컬러링 서비스. 듣기만 했던 기존의 음성 컬러링에 시각적인 요소를 입혀 새로운 즐거움을 제공한다.(현재 SK텔레콤과 KT에서 서비스 중이다) 숏폼(Short-form) 콘텐츠는  1~10분 이내의 짧은 영상으로, 언제 어디서나 모바일 기기를 이용해서 콘텐츠를 즐기는 대중들의 소비 형태를 반영한 트렌드다. 4월 6일(화)부터 오는 26일(월)까지 진행되는 이번 이벤트에선 본인이 직접 촬영한 제주 영상(1분 이내)을 인스타그램에 필수 해시태그를 붙여 업로드하고, 제주 러뷰 챌린지 사이트에 게시물 URL 등을 작성해 응모하면 추첨을 통해서 푸짐한 경품이 제공된다. 이 밖에도 이벤트 사이트에서 제공하는 제주 영상을 V컬러링으로 설정하거나, 내가 찍은 영상으로 V컬러링을 인증했을 경우 추가 경품을 받을 수 있는 기회가 제공된다. 제주관광공사 관계자는 “이번 이벤트는 짧지만 강렬한 인상을 남길 수 있는 숏폼 콘텐츠의 장점을 제주관광에 활용할 수 있는 좋은 기회라고 생각한다”며 “공사는 앞으로도 다양한 매체와 미디어, 플랫폼의 특성을 활용한 맞춤형 제주관광 홍보를 할 수 있도록 노력하겠다”고 밝혔다. 오형석 기자  yonsei6862@gmail.com 새시대 새언론 시사매거진 오형석 기자 yonsei6862@gmail.com 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 골프선수 유현주 프로, 인스타 속 여신 자태 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 로또1등당첨지역 1036회 "9명 28억씩" 대박 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 주요기사 국회, 감사원 국감 날 선 공방 예고 11일 코로나19 신규 확진자 1만 5476명 '위중증 313명·사망자 10명' 러시아, 우크라이나 미사일 공격... 유엔 긴급특별총회 소집 오늘날씨 화요일, 서울날씨 아침6도 기온뚝 '얼음, 눈오는 경기북부' 대통령실, 이재명 '친일 국방' 겨냥해 "말이 아닌 현실의 문제" 토트넘 손흥민, 케인과 43번째 합작골 '시즌 2호 도움' 팀은 승리 최신뉴스 결혼정보회사 가연, 좋은 인연 위한 미팅파티 마련 진아름 결혼소감, ♥남궁민과 "성숙하고 예쁘게 살 것" 바비모, ‘시카 리페어 부스트 크림’ 출시 답변하는 이복현 금융감독원장 ‘마리엔펠트’ 30주년 기념 비스포크 행사 성료 포토뉴스 결혼정보회사 가연, 좋은 인연 위한 미팅파티 마련 진아름 결혼소감, ♥남궁민과 "성숙하고 예쁘게 살 것" 바비모, ‘시카 리페어 부스트 크림’ 출시 답변하는 이복현 금융감독원장 인기뉴스 1 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 2 골프선수 유현주 프로, 인스타 속 여신 자태 3 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 4 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 5 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" 6 [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 7 로또1등당첨지역 1036회 "9명 28억씩" 대박 8 선우은숙 재혼, 유영재 아나운서와 혼인신고... 나이·프로필 눈길 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[자막뉴스] 관광객 몰려오는데...비상 걸린 제주도 상황 | YTN 메뉴 바로가기 본문 바로가기 푸터 바로가기 메뉴 YTN HOME 뉴스알림 라이브 편성표 제보 로그인·회원가입 검색하기 분야별 뉴스 와플뉴스 YTN star 다시보기 제보 시청자센터 알립니다 특집 프로젝트 광고·비즈니스 디지털 서비스 분야별뉴스 분야별 뉴스 메인최신뉴스많이 본 뉴스속보·알림단독정치경제사회전국국제과학문화스포츠날씨재난 와플뉴스 와플뉴스 메인최신뉴스자막뉴스제보영상국경 없는 세상한방이슈제보, 그 후뉴스케치소파트래블러와이파일리플레이운세 YTN star YTN star 메인최신뉴스방송가요영화Y이슈해외연예반말인터뷰와이티엔 스타뉴스 다시보기 다시보기 메인 지금 막 올라온 많이 보는 시사 다큐 과학 교양 채널 별 YTN 와플뉴스 YTN 스타 YTN 월드 YTN 코리안 YTN 사이언스 YTN2 YTN 라디오 YTN DMB 제보 제보 메인제보하기제보랭킹최신제보 시청자센터 시청자의견시민데스크시청자브리핑 시시콜콜시청자 위원회고충처리위원회사이버감사실견학신청성폭력 신고센터 알립니다 공지사항채용공고경품이벤트채널 안내위치 및 연락처이용 도움말 특집 프로젝트 리스펙트 프로젝트SMILE TO VOTE뉴미디어 리터러시2020 국회의원선거2021 재보궐선거2020 도쿄올림픽2022 대통령선거2022 베이징올림픽2022 지방선거 광고 비즈니스 TV광고큐톤시간표인터넷·모바일 광고해외 광고사업 제휴동영상 뉴스 판매오디오 음원 판매뉴스·프로그램 공급 디지털 서비스 뉴스알림 모바일APP 리더스 뉴스레터 유튜브 페이스북 트위터 인스타그램 네이버채널 네이버TV 네이버밴드 틱톡 데일리모션 24시간 라이브 방송 [오늘의 운세] 2022년 10월 11일 띠별 운세 [이슈그리고] "뜨고 싶어서?"...한동훈 지휘 의혹 제기에 여당... 신혜성 측 "만취해 남의 차 모르고 운전, 변명의 여지 없다...... 감사원 국감, 시작부터 '파행'...친일 국방 논란 계속 당뇨약으로 나왔다 비만약으로 대박!...체중 20% 쏙 빠져 메뉴 닫기 YTN 로그인 로그인 회원가입 검색하기 [자막뉴스] 관광객 몰려오는데...비상 걸린 제주도 상황 댓글 달기 공유하기 LIVE 이 시각 주요뉴스 이 시각 주요뉴스 주요뉴스 닫기 尹 "핵 위협 앞에 정당화될 수 있나"...野 '친일 ... 코스피, 2,200선 붕괴...환율, 장중 1,430원 돌파 "낙엽따라 우수수" 탈모의 계절, 자가진단 이렇게 서울 학교 비정규직노조, "폐암으로 죽어가"...급... [이슈그리고] "뜨고 싶어서?"...한동훈 지휘 의혹 제... "자존심 살리려는 절박함"...러시아 보복 공습으로 전... 공유하기 공유창 닫기 페이스북 트위터 밴드 카카오톡 링크 복사하기 메뉴 닫기 검색하기 LIVE 분야별뉴스 와플뉴스 YTN star 다시보기 제보 코로나19 실시간 주요뉴스 이전 이재명 "與, 해방 후 친일파 행태…尹, 국민께 소명해야" 尹 "핵 위협 앞에 정당화될 수 있나"…野 '친일 국방' 공세 일축 정진석 "조선, 내부에서 썩어 문드러져 망해"…발언 놓고 논란 서울청장 "이준석, 지난 주말 소환 조사…무고 혐의 등 곧 결론" 감사원 국감, 오전 내내 '파행'…친일 국방 논란 계속 민주 "여가부 확대·개편 필요"…폐지안에 공식 반대 코스피, 2,200선 붕괴…환율, 장중 1,430원 돌파 ‘히잡 반대 시위' 이란 여성들 잇따라 숨진 채 발견 "자존심 살리려는 절박함"…러시아 보복 공습으로 전황 격화 우려 "낙엽따라 우수수" 탈모의 계절, 자가진단 이렇게 서울 도심에서 50대 권총 맞아…극단적 선택 추정 신혜성 측 "만취해 남의 차 모르고 운전, 변명의 여지 없다…죄송"(전문) 오늘부터 개량백신 접종…신규 확진 1만 5,476명 동시계약 허점 노려 전세대출금 가로채…'신종 사기' 적발 "자격시험 도중 화장실 못하게 하는 건 인권 침해" 체중 20% 쏙…당뇨약→비만약 '대박' 터졌다 물가 오름세에 '구제 시장'도 한숨…"손님 있어도 안 사요" 학력 전수평가 5년 만에 사실상 부활…초3~고2로 확대 유엔, 러시아 규탄 긴급 총회…사무총장 "위기 고조 용납 못해" "6∼9개월 내로 美·세계 경제는…" JP모건의 경고 日, 2년 7개월 만에 한국인 무비자 관광 재개…전국 여행지원도 다음 자막뉴스 [자막뉴스] 관광객 몰려오는데...비상 걸린 제주도 상황 2021년 04월 13일 10시 44분 댓글 글자크기 조정하기 글자크기 조정하기 글자 크기 조정창 닫기 매우 작은 크기 폰트 작은 크기 폰트 보통 크기 폰트 큰 크기 폰트 매우 큰 크기 폰트 인쇄하기 공유하기 공유하기 페이스북 트위터 밴드 카카오톡 링크 복사하기 공유창 닫기 제주 코로나 확진 4월 36명…하루 8명 발생하기도 대부분 확진자 접촉 많아…감염 경로 확인 안 된 사례도 관광객 확진 사례 증가 …가족 6명 중 4명 확진 판정도 검사 결과 나오기 전 여행 나섰다가 확진 판정 사례도 이달부터 하루 3만 명 안팎 관광객 몰려 …방역 비상 지난 주말을 전후해 제주에서는 17명의 신규 코로나 확진자가 발생했습니다. 특히 9일과 10일에는 하루 7명과 8명이 확진 판정을 받았습니다. 하루 8명이 발생한 것은 이달 들어 최대 수치입니다. 이들 대부분은 확진자와 접촉 후 감염된 것으로 확인됐습니다. 하지만 감염 경로가 확인되지 않은 사례도 있어 방역 당국은 n차 감염으로 이어지지 않을까 우려하고 있습니다. [김미야 / 제주도 역학조사관 : 방역 수칙을 준수하면서 최대한 검사 결과가 나올 때까지 격리할 수 있도록 권고하고 있습니다.] 관광객 확진 사례도 증가하고 있습니다. 지난 1일 제주 가족 여행에 나섰던 관광객 6명 중 4명이 잇따라 확진 판정을 받았습니다. 주말에는 가족 여행객 3명 가운데 1명이 확진됐고, 나머지 2명은 격리 중입니다. 또 접촉자로 분류돼 검사 결과가 나오기 전에 여행에 나섰다가 확진 판정을 받는 사람도 있습니다. [임태봉 / 제주 코로나 방역추진단장 : 8명이 이러한 사례가 발생했는데, 검사 결과가 나오기 전에 여행하거나 다중 시설에 가게 되면 겉잡을 수 없는 문제가 생깁니다.] 여기에 이달부터 제주 여행에 나서는 관광객이 크게 늘고 있는 것도 변수입니다. 하루 평균 3만 명 안팎이 몰리면서 지난 주말에만 11만여 명이 찾았습니다. 이렇게 밀려드는 관광객과 감염 경로가 확인되지 않은 사례까지 겹치면서 방역에 비상이 걸렸습니다. 취재기자 : 유종민 촬영기자 : 전대웅 자막뉴스 : 육지혜[저작권자(c) YTN 무단전재 및 재배포 금지] 자막뉴스 기사목록 전체보기 [자막뉴스] 제발 팔고 싶다...규제 풀린 부동산 '이상 기류' [자막뉴스] 中 견제에 한국 기업 불똥?...삼성·SK '초긴장' [자막뉴스] '킹달러'에 전세계 신음 속출...'설상가상' 美 결정 [자막뉴스] '러시아 맹방' 벨라루스 본격 참전 시사...전쟁 격화 우려 YTN 미디어그룹 YTN 회사소개 INSIDE YTN YTN 사이언스 YTN 라디오 YTN2 YTN dmb YTN world YTN korean 남산서울타워 시청자센터 시청자의견 시민데스크 시청자브리핑 시시콜콜 시청자 위원회 고충처리위원회 사이버감사실 견학신청 성폭력신고센터 알립니다 공지사항 채용공고 경품이벤트 채널 안내 해외 리포터단 신청 위치 및 연락처 이용 도움말 광고 및 비즈니스 TV광고 큐톤시간표 인터넷·모바일 광고 해외 광고 사업 제휴 동영상 뉴스 판매 오디오 음원 판매 뉴스·프로그램 공급 약관 및 정책 이용약관 개인정보처리방침 청소년보호정책 기사배열 기본방침 디지털 서비스 모바일 APP 뉴스알림 리더스 뉴스레터 유튜브 페이스북 트위터 인스타그램 네이버채널 네이버TV 네이버밴드 틱톡 데일리모션 ㈜와이티엔 서울특별시 마포구 상암산로 76(상암동) | 대표자: 우장균 | 대표전화: 02-398-8000 | 팩스: 02-398-8129사업자등록번호: 102-81-32883 Copyright (c) YTN. All rights reserved. 모든 컨텐츠(기사)는 저작권법의 보호를 받은바, 무단 전재·복사·배포를 금합니다.</t>
+  </si>
+  <si>
+    <t>Jeju stuck in dilemma over tourism recovery, spread of COVID-19 National Politics Foreign Affairs Multicultural Community Defense Environment &amp; Animals Law &amp; Crime Society Health &amp; Science Business Tech Bio Companies Finance Companies Economy Markets Cryptocurrency Opinion Editorial Columns Thoughts of the Times Cartoon Today in History Blogs Tribune Service Blondie &amp; Garfield Letter to President Letter to the Editor Lifestyle Travel &amp; Food Trends People &amp; Events Books Around Town Fortune Telling Entertainment &amp; Arts K-pop Films Shows &amp; Dramas Music Theater &amp; Others Sports World SCMP Asia Video Culture People News Photos Photo News Darkroom Site Map E-paper Subscribe Register LogIn Site Map E-paper Subscribe Register LogIn NationalWorldBusinessLifestyleCultureDear AbbyEditorialFootball InsideHackers Toeic Tue, October 11, 2022 | 14:56 National Jeju stuck in dilemma over tourism recovery, spread of COVID-19 제주도 관광객 코로나 이전 수준 회복... 제주도민 기쁨과 걱정 교차 Posted : 2021-04-11 12:51 Updated : 2021-04-11 12:51 Jeju Island YonhapA rapid growth in tourist numbers is bringing joy to and causing concern among residents of Jeju, the southern holiday island increasingly favored by locals as an alternative to overseas travel amid the COVID-19 outbreaks.코로나19 사태 속에 해외여행의 대안지로 남부 휴양지 제주도를 찾는 내국인 관광객 수가 급증하자 제주도민들은 기뻐함과 동시에 걱정하고 있다.Tourist arrivals on Jeju Island have rapidly recovered to pre-coronavirus levels in recent months to the delight of its tourism sector, but residents are concerned about growing COVID-19 cases among visitors.제주도를 찾는 관광객 수가 코로나19 이전 수준을 되찾으며 관광업계가 반색하고 있지만, 제주도민들은 관광객들 사이에서 코로나바이러스 감염 사례가 늘어나는 것을 우려하고 있다.According to Jeju provincial authorities on Sunday, the number of tourists who visited Jeju last month was 880,000, nearly double from 470,000 in the same month of last year.일요일 제주특별자치도청에 따르면 지난달 제주를 찾은 관광객은 88만 명으로 지난해 같은 달(47만 명)보다 2배 가까이 늘었다.The latest monthly tally also represented 85 percent of the pre-COVID-19 level of 1.03 million recorded for the same month in 2019. Provincial officials say Jeju's tourist arrivals were rapidly recovering to pre-pandemic levels.월별 집계도 코로나19 이전 2019년의 같은 달(103만명)의 85%를 차지했다. 제주도 관계자는 관광객이 빠르게 코로나 이전 수준으로 회복되고 있다고 말했다.At the same time, however, unknown numbers of coronavirus carriers among tourists are posing a headache to both Jeju residents and quarantine officials.그러나 관광객 가운데 코로나바이러스 감염자가 얼마나 섞여 있는지 모른다는 사실은 제주도민과 방역 관계자 모두에게 골칫거리이다.Eleven of 12 COVID-19 cases confirmed on the island in the first seven days of this month were from visitors from the mainland or Jeju residents who contracted the virus from tourists.이달 초 7일 동안 제주도에서 확인된 12명의 코로나바이러스 확진자 중 11명은 관광객들로부터 바이러스에 감염된 제주도민들이다.To the dismay of Jeju residents, some infected tourists were found to have come to Jeju despite having suspected symptoms of COVID-19 or learning of infections of fellow workers before entering the island.확진 판정을 받은 관광객 다수는 이미 코로나19 의심 증세를 보였거나 제주도에 가기 전에 동료 근로자들의 확진 사실을 알았던 것으로 확인돼 제주도민들을 경악시켰다."Coronavirus cases are rising among visitors as spring tourism becomes more active in April," a Jeju provincial government official said, urging island residents to observe social distancing rules in dealing with visitors. (Yonhap)제주도청 관계자는 "4월부터 봄철 관광이 활발해지면서 관광객들 사이에서 코로나바이러스 확진자가 증가하고 있다"고 말하며 도민들에게 관광객 응대 시 사회적 거리두기 규정을 지켜줄 것을 당부했다.코리아타임스위클리"시사와 영어를 한 번에"Korea Times Weekly jiminhong@koreatimes.co.kr More articles by this reporter Gov't mulls lowering age of eligibility for dual citizenship Hanwha withdraws from $10 bil. Iraqi construction project [ANALYSIS] What options does S. Korea have as US protectionism intensifies? North Korea raises stakes with 'tactical nuclear' drills Lawmaker calls for Koryoin school in Gwangju Adoption agency denies fabricating documents of Danish adoptees Koreans' perceptions of Africa improving Justice minister's motives behind New York trip questioned LG Electronics sells more guide robots to Japanese shopping mall KB-controlled Indonesian bank rises in Jakarta financial watchdog's rating Interactive News Former IZ*ONE member denies plagiarism allegations Song Hye-kyo donates guidebooks to Utoro museum to mark Hangeul Day 'Extraordinary Attorney Woo' wins top prize at Asia Contents Awards English guide to getting job in K-pop industry to be published next month Lithuanian documentary 'Mariupolis' opens European Film fest Women, life, freedom [PHOTOS] Typhoon Noru hits the Philippines forcing thousands to evacuate Mourners pay respects to Queen Elizabeth II Millions in need of aid as floods hit Pakistan Our children deserve the best CEO &amp; Publisher : Oh Young-jin Digital News Email : webmaster@koreatimes.co.kr Tel : 02-724-2114 Online newspaper registration No : 서울,아52844 Date of registration : 2020.02.05 Masthead : The Korea Times Copyright © koreatimes.co.kr. All rights reserved. About Us Introduction History Location Media Kit Contact Us Products &amp; Service Subscribe E-paper Mobile Service RSS Service Content Sales Policy Privacy Statement Terms of Service 고충처리인 Youth Protection Policy Code of Ethics Copyright Policy Family Site Hankook Ilbo Dongwha Group</t>
+  </si>
+  <si>
+    <t>제주도, 공영관광지 입장료 등 면제혜택 전국 병역명문가로 확대 &lt; 제주 &lt; 전국 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-11 14:55 (화) 실시간 뉴스 결혼정보회사 가연, 좋은 인연 위한 미팅파티 마련 진아름 결혼소감, ♥남궁민과 "성숙하고 예쁘게 살 것" 바비모, ‘시카 리페어 부스트 크림’ 출시 답변하는 이복현 금융감독원장 ‘마리엔펠트’ 30주년 기념 비스포크 행사 성료 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 광산구 "올겨울 함께 할 희망의 메시지를 찾습니다" 2022 광산아트페스티벌 ‘별무리 예술장터’ 개최 HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 292호(2022-10) 오세훈 서울시장이 말하는 ‘약자와의 동행, 매력 특별시’ 구독하기 본문영역 이전 기사보기 다음 기사보기 제주도, 공영관광지 입장료 등 면제혜택 전국 병역명문가로 확대 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도, 공영관광지 입장료 등 면제혜택 전국 병역명문가로 확대 기자명 양기철 기자 입력 2021.04.15 09:20 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 '제주도 병역명문가 예우 및 지원에 관한 조례' 개정 따라 전국 광역자치단체 최초로 시행 [시사매거진/제주] 제주특별자치도는 4월 14일부터 제주 거주 병역명문가에게만 우대하던 제주도 공영관광지 입장료 등 면제 혜택을 전국 광역자치단체 중 최초로 전국의 병역명문가까지 확대해 시행한다고 밝혔다. 병역명문가는 3대(조부, 부·백부·숙부, 본인 및 형제·사촌형제)가 모두 현역 복무 등을 성실히 마친 후 병무청장에게 병역명문가증을 신청해 발급받은 가문을 말한다. 현재 제주지역에는 169가문·917명, 전국은 7,631가문·3만8,665명이 병역명문가로 선정되어 있다. 제주도는 지난 3월 제393회 도의회 임시회에서 '제주특별자치도 병역명문가 예우 및 지원에 관한 조례'가 개정됨에 따라 제주도에서 운영하고 있는 공영관광지 29개소에 대한 입장료(관람료) 및 주차장 등 사용료 감면 혜택을 제공할 방침이다. 감면 혜택은 병역명문가로 인정받은 당사자뿐만 아니라 그 가족(부모, 배우자, 자녀)도 받을 수 있다. 제주도내 공영관광지에서 우대혜택을 받고자 하는 경우 예우대상자와 그 가족은 병무청장이 발행한 병역명문가증과 신분증 및 가족임을 증명할 수 있는 증빙자료를 제시해야 한다. 이동희 도 보훈청장은 “병역을 명예롭게 이행한 사람이 존경받고 긍지를 가질 수 있는 사회분위기 조성을 위해 광역자치단체 최초로 실시하게 됐다”고 말했다. 이어 “관광제주의 이미지 고양과 함께 타 지자체에서도 확대 시행됨으로써 병역명문가에 대한 예우활성화 분위기가 자리 잡을 수 있길 바란다”고 전했다. 양기철 기자 ygc9966@naver.com 새시대 새언론 시사매거진 양기철 기자 ygc9966@naver.com 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 골프선수 유현주 프로, 인스타 속 여신 자태 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 로또1등당첨지역 1036회 "9명 28억씩" 대박 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 주요기사 국회, 감사원 국감 날 선 공방 예고 11일 코로나19 신규 확진자 1만 5476명 '위중증 313명·사망자 10명' 러시아, 우크라이나 미사일 공격... 유엔 긴급특별총회 소집 오늘날씨 화요일, 서울날씨 아침6도 기온뚝 '얼음, 눈오는 경기북부' 대통령실, 이재명 '친일 국방' 겨냥해 "말이 아닌 현실의 문제" 토트넘 손흥민, 케인과 43번째 합작골 '시즌 2호 도움' 팀은 승리 최신뉴스 결혼정보회사 가연, 좋은 인연 위한 미팅파티 마련 진아름 결혼소감, ♥남궁민과 "성숙하고 예쁘게 살 것" 바비모, ‘시카 리페어 부스트 크림’ 출시 답변하는 이복현 금융감독원장 ‘마리엔펠트’ 30주년 기념 비스포크 행사 성료 포토뉴스 결혼정보회사 가연, 좋은 인연 위한 미팅파티 마련 진아름 결혼소감, ♥남궁민과 "성숙하고 예쁘게 살 것" 바비모, ‘시카 리페어 부스트 크림’ 출시 답변하는 이복현 금융감독원장 인기뉴스 1 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 2 골프선수 유현주 프로, 인스타 속 여신 자태 3 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 4 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 5 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" 6 [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 7 로또1등당첨지역 1036회 "9명 28억씩" 대박 8 선우은숙 재혼, 유영재 아나운서와 혼인신고... 나이·프로필 눈길 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회-사천시관광협회, 업무협약 체결 &lt; 관광일반 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 14:52 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도의회, 인사권 독립 후 첫 사무관 승진 임용 제주도, 유상증자 불참 제주항공 신주인수권 전량 매도 제5회 제주국제현대음악제, 20~21일 제주대서 개최 2022 세계유산축전 ‘제주 화산섬과 용암동굴’, 16일까지 진행 법원, 우도 내 삼륜 이동장치 제한 ‘정당’ 제주도 제한 정책 탄력 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도관광협회-사천시관광협회, 업무협약 체결 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 관광일반 제주도관광협회-사천시관광협회, 업무협약 체결 기자명 한형진 기자					(cooldead@naver.com) 입력 2021.04.09 10:20 댓글 1 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 부동석 제주도관광협회 회장(왼쪽), 서원호 사천시관광진흥협의회 위원장.제주도관광협회(회장 부동석)와 경남 사천시관광진흥협의회(위원장 서원호)는 제주-사천 양 지역의 상생 협력과 관광객 유치 증진을 위한 업무 협약을 5일 제주종합비즈니스센터에서 체결했다.협약 사항은 ▲양 지역의 관광 상품 개발, 관광객 유치 공동 마케팅 전개 ▲제주-사천 뱃길 관광 활성화 ▲양 기관 주최 주요 행사 개최 시 상호 홍보 지원 등이다.지난달 20일 제주와 사천을 잇는 ‘오션비스타 제주호’가 새로 취항했다. 제주도관광협회는 오션비스타 제주호를 활용해 여행업·선사 등 관련 업계와의 네트워크 강화, 민간 차원의 관광·문화 교류 확대를 도모한다는 방침이다. 항공 위주의 관광객 수요를 뱃길로 유도해 제주 접근성을 확대해 나간다.부동석 회장은 “제주와 사천의 관광 자원을 활용한 상호 협력으로 양 지역의 관광을 매개체로 지역 경제 활성화에 기여해 나가겠다”고 소감을 밝혔다.제주도관광협회와 사천시관광진흥협의회는 제주-사천 양 지역의 상생 협력과 관광객 유치 증진을 위한 업무 협약을 5일 제주종합비즈니스센터에서 체결했다. 한형진 기자 cooldead@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 인사 제주시 2022년 하반기 사무관 6명 승진 의결 5 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 9 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 4 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 5 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 제주 예외 아닌 교권침해, 일방적 희생 강요 안돼 1 선거꾼 하나.. 선거운동 도와주고서 연봉 1억 넘는 자리 꿀꺽했구나.. 여론조사 전문가가 감사 활동 잘 할거다? 목에서 소리를 낸다고 말이 되거나 글자로 표현한다고 글이 되는 것은 아니다. 2 제주답게 만들기를~~ 3 이런 얼치기 주의자들이 판치는 제주를 언제까지 봐줘야 할건지~~ 4 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 5 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 6 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 7 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 8 못간다 9 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 10 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 문화관광해설사 활동지원·여건개선 강화 &lt; 경제/관광 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-11 14:45 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 문화관광해설사 활동지원·여건개선 강화 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제/관광 제주도, 문화관광해설사 활동지원·여건개선 강화 기자명 강동우 기자 입력 2021.04.06 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 양성 20주년 기념해 각종 행사 및 지원 등 확대 34개 관광지·190명 참여 제주도는 문화관광해설사 활동 20주년을 맞아 해설사 활동 여건 개선과 역량강화 및 기념사업 등에 총 12억 원을 투입할 계획이다. 제주도가 제주를 방문하는 관광객의 제주도에 대한 이해와 감상, 체험기회를 제공하고, 역사⋅문화⋅예술⋅자연 등 관광자원 전반에 대한 전문적인 해설을 위해 운영하고 있는 문화관광해설사의 근무여건 개선에 적극 나서고 있다. 제주특별자치도는 6일 문화관광해설사 활동 20주년을 맞아 해설사 활동 여건 개선과 역량강화 및 기념사업 등에 총 12억 원을 투입해 문화관광해설사에 대한 지원을 강화할 방침이라고 밝혔다. 문화관광해설사는 지난 2001년도부터 관광객의 이해와 감상, 체험기회를 제공하고, 역사⋅문화⋅예술⋅자연 등 관광자원 전반에 대한 전문적인 해설을 위해 운영되고 있다. 제주도는 현재까지 312명의 문화관광해설사를 양성했으며 올해는 190명을 도내 34개 관광지에 투입, 지난 1월23일 활동하고 있다. 제주도는 특히 지난해 이후 코로나19 확산방지를 위해 주요 관광지의 코로나19 관련 안전 및 질서유지, 안내 등 업무에 참여할 수 있도록 조정하고 있다. 또한 해설사의 활동여건 확대와 함께 제주 안전관광 조성 등에 참여할 수 있도록 지원하고 있다. 문화관광 해설 안내를 받고자 하는 사람은 관광지별 사회적 거리두기 단계별 방역수칙 범위 내에서 해당 관광지에 위치한 관광안내소에서 사전예약하거나 현장 접수를 통해 신청 가능하다. 제주도는 오는 8월 문화관광해설사 창립 20주년 기념행사와 문화관광해설사 제주어 말하기 대회를 개최해 도내 관광자원과 문화에 대한 공유의 장을 마련하는 등 문화관광해설사의 역량을 고취해 나갈 계획이다. 이외에도 문화관광해설사의 안전한 활동을 지원하기 위해 전 참여자에 대한 상해보험 가입하고 있다. 아울러 코로나19가 진정되면 현장답사와 문화유산 답사를 추진한다. 매년 실시되는 보수교육은 오는 5월부터 7월까지 한국관광공사가 주관하는 온라인 보수교육으로 변경 추진하고 있다. 김재웅 도 관광국장은 “제주특별자치도를 알리는 문화관광 전도사 역할을 하고 있는 문화관광해설사 지속적인 처우개선과 질 좋은 관광 안내서비스를 받을 수 있도록 서비스 개선, 홍보 등 다양한 방안을 마련하겠다”고 말했다. 강동우 기자 kdw2312@naver.com 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 서귀포시, 사무관 8명 승진 임용 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 포토뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 인기뉴스 1 “눈을 의심했다” 휘발유·실내등유 가격 차 고작 100원 2 3년 만의 '노마스크' 탐라문화제 '팡파르' 3 ‘천년의 숨결’ 제61회 탐라문화제 막내렸다 4 오영훈 제주도지사 “분산에너지 특구 지정해 달라” 5 “내가 소개하는 작은도서관” 영상공모전 7작 시상 6 다혼디배움학교 현장 여론 존중돼야 7 3년 만에 열리는 제주광어 대축제 8 한국전력 전기요금 인상에 제주 양식업계 반발 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>사천시-제주도 관광협회 관광활성화 협약 - 경남도민일보 로그인 회원가입 Close 뉴스 뉴스덤 뉴스찜 사람들 지역 전체 진주 통영 사천 김해 밀양 거제 양산 의령 함안 창녕 고성 남해 하동 산청 함양 거창 합천 지역종합 사회 전체 사건·사고 법원·검찰·경찰 노동 농민 환경 시민 교통 날씨 역사 의료·위생 남북관계 국제 국방·군사 인권·복지 봉사·미담 정치·행정 전체 선거 지방의회 행정 국회 정당 정부 경제 전체 부동산 유통·물류 산업 금융 농수산 자동차 조선 건설 서비스 에너지 소비자 취업 연구·개발 항공·해운·항만 교육 전체 대학 초중고 사교육 교육행정 교육단체 대입 어린이·청소년 유아교육 사립학교 평생교육 교사의 생각 교육카페 NIE 문화·생활 전체 TV·연예 책·학술 문학 음악 미술·사진 공연 영화·비디오 여성·가정 종교 건강 멋 대중문화 문화재 글쓰기큰잔치 청소년문학대상 생활상담 박물관 연극 지역축제 문화단체 문화정책 레저·스포츠 전체 경기 체육인 체육행정 생활체육 레저 축구 농구 골프 야구 배구 경륜경마 2018 창원 세계사격선수권대회 미디어 전체 미디어비평 인터넷 정정과 반론 지면평가위원회 미디어 동향 이슈트랙백 정보보고 데스크의 눈 편집국통신 뉴스 덤 보도자료 전체 교육 소식 교육보도자료 여론·칼럼 전체 사설 오피니언 칼럼 I 오피니언 칼럼 II 취재노트 바튼소리 독자 칼럼 3.15광장 온라인광장 독자와 톡톡 기획·연재 전체 Weekly경남 김주완이 만난 사람 인물 전체 사람in 인터뷰 화제 새얼굴 인사 부음 결혼 모임 동정 남촌수필 정보 전체 행사 온정 수상 집회 모집 공지 종친회 동창회 향우회 구인·구직 개업 잔치 상담&amp;학습 자치단체일정 아침 신문 미리보기 오늘의 운세 경남의 날씨 여행과음식 전체 여행 맛 맛있는 집 낚시 남해 바래길에서 사부작 만화 전체 그림세상 궁시렁 북툰 한입에 쏙! 피플파워 전체 2011년 10월 2011년 11월 2011년 12월 2012년 1월 2012년 2월 2012년 3월 2012년 4월 2012년 5월 2012년 6월 2012년 7월 2012년 8월 2012년 9월 2012년 10월 2012년 11월 2012년 12월 2013년 1월 2013년 2월 2013년 3월 2013년 4월 2013년 5월 2013년 6월 2013년 7월 2013년 8월 2013년 9월 2013년 10월 2013년 11월 2013년 12월 2014년 1월 2014년 2월 2014년 3월 2014년 4월 2014년 5월 2014년 6월 2014년 7월 2014년 8월 2014년 9월 2014년 10월 2014년 11월 2014년 12월 2015년 1월 2015년 2월 2015년 3월 2015년 4월 2015년 5월 2015년 6월 2015년 7월 2015년 8월 2015년 9월 2015년 10월 2015년 11월 2015년 12월 2016년 1월 2016년 2월 2016년 3월 2016년 4월 2016년 5월 2016년 6월 2016년 7월 2016년 8월 2016년 9월 2016년 10월 2016년 11월 2016년 12월 2017년 1월 2017년 2월 2017년 3월 2017년 4월 2017년 5월 2017년 6월 2017년 7월 2017년 8월 2017년 9월 2017년 10월 2017년 11월 2017년 12월 2018년 1월 2018년 2월 2018년 3월 2018년 4월 2018년 5월 2018년 6월 2018년 7월 2018년 8월 2018년 9월 2018년 10월 2018년 11월 2018년 12월 2019년 1월 2019년 2월 2019년 3월 2019년 4월 2019년 5월 2019년 6월 2019년 7월 2019년 8월 2019년 9월 2019년 10월 2019년 11월 2019년 12월 경남의 재발견 전체 함양 통영 양산 거창 사천 밀양 산청 고성 김해 함안 합천 하동 의령 거제 창녕 남해 진주 진해 마산 창원 에필로그 맛있는 경남 전체 통영 멍게 남해 마늘 창녕 양파 의령 망개떡 고성 갯장어 함양 산양삼 남해안 전어 함양 흑돼지 거창 사과 창원·김해진영 단감 하동 재첩 마산 홍합 통영 굴 남해 시금치 진주 딸기 통영 물메기 진해 피조개 남해 멸치 하동 녹차 남해안 털게 마산 미더덕 함안·의령 수박 지리산 물 에필로그 한국 속 경남 전체 경상도 말 통술·다찌·실비 마산 씨름 예향 통영 대통령의 고향 경남에서 만나는 이순신 마산아구찜 3·15마산의거 경남의 사찰 하동 섬진강 가야는 살아있다 마창노동운동 경남의 성씨 경남의 조선산업 근대문화유산 경남예술인 경남 스포츠인 경남의 섬 대중가요 속 경남 지리산 경남의 산 전체 지리산 남해군 함양 통영 고성 김해 창녕 사천 거제 의령 산청 밀양 양산 함안 진주 거창 하동 합천 창원 마무리 닫기 메뉴 처음으로 뉴스 뉴스덤 뉴스찜 사람들 kakao   채널 추가 twitter facebook youtube 검색 기사검색 검색 상세검색 Home 지역 사천 사천시-제주도 관광협회 관광활성화 협약 이영호 기자 (hoho@idomin.com) 2021년 04월 06일 화요일 댓글 0 페이스북 트위터 카카오스토리 카카오톡 구글+ 기사공유하기 글씨키우기 스크랩 프린트 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 사천시와 제주도를 잇는 뱃길이 7년 만에 다시 이어지는 가운데 양 지역 관광협회가 관광활성화에 협력하기로 했다. 사천시관광진흥협의회와 제주특별자치도관광협회는 5일 오전 제주도관광협회 사무실에서 관광활성화와 상생을 위한 업무협약을 체결했다. 저작권자 © 경남도민일보 무단전재 및 재배포 금지 이영호 기자 다른기사 보기 이영호 hoho@idomin.com hoho@idomin.com 페이스북 트위터 카카오스토리 카카오톡 구글+ 기사공유하기 경남도민일보 후원 방법 정기 후원회원으로 가입 일시 후원으로 응원하기 ￦ 1만원 추가 1천원 추가 초기화 페이팔로 후원하기(해외독자) 후원하기 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 많이 본 뉴스 1 '빛의 물결' 진주 남강유등축제 막 올랐다 2 마창대교 아래 물고기 썩은 냄새 진동 3 관광객 늘면서 말라가는 '우영우 팽나무' 4 삼강엠앤티 '불공정하도급' 국감서 입길 5 홍남표 "마산해양신도시 정상화 두갈래 전략으로" 6 경남, 전국체전 4일차 2위... 활약한 종목은? 7 경남로봇고 학생들 함안 폐기물처리장 방문 8 농협고성군지부, 군에 사랑의 쌀 120포 전달 9 허리 부상 견뎌내고... 카누 이혜란, 선수생활 마지막 메달 걸었다 10 중진공 경남서부지부 직원들 일손돕기 봉사 인기 뉴스 경남FC 5위 확정은 마지막 경기에서 '빛의 물결' 진주 남강유등축제 막 올랐다 마창대교 아래 물고기 썩은 냄새 진동 관광객 늘면서 말라가는 '우영우 팽나무' 삼강엠앤티 '불공정하도급' 국감서 입길 홍남표 "마산해양신도시 정상화 두갈래 전략으로" 경남, 전국체전 4일차 2위... 활약한 종목은? 경남로봇고 학생들 함안 폐기물처리장 방문 농협고성군지부, 군에 사랑의 쌀 120포 전달 허리 부상 견뎌내고... 카누 이혜란, 선수생활 마지막 메달 걸었다 서동진의 한뼘 죽음의 바다 굥무도하가 부울경 특별... 아니, 행정통합 '체리 따봉' 진작 보낼 걸... 주인공은... 죽음의 바다 굥무도하가 부울경 특별... 아니, 행정통합 '체리 따봉' 진작 보낼 걸... 주인공은... 사람들 '글자를 좋아하는 사람' 강병호 씨 박종훈 교육감 "교육곳간 풍족? 중장기 사업하려면 오히려 모자라" 거미손이 자라고 있다...미래 월드컵 향해 "대안적인 삶, 미술 작품으로 체험했으면" "가진자의 횡포와 부조리 파헤치는 경남도민일보 응원합니다" 경남도민일보소개 구독신청 개인정보취급방침 청소년보호정책 취재기자 연락처 후원회원 우)51320 경상남도 창원시 마산회원구 삼호로 38 (양덕동) TEL : 055)250-0100 팩스 : 055)250-0124 청소년보호책임자 : 손유진 경남도민일보 주식회사 사업자번호 : 608-81-33944 Copyright © 경남도민일보. All Rights Reserved. 모든 컨텐츠(영상·사진·기사 등)에 대한 무단 전재·복사·배포를 금합니다. 알림 독자투고 보도자료 제보 지면평가위 광고안내 구독신청 후원신청 후원회원 카페 위로</t>
+  </si>
+  <si>
+    <t>제주도, 봄맞이 관광객 코로나19 확진 줄줄이 '비상' 본문 바로가기 제주도, 봄맞이 관광객 코로나19 확진 줄줄이 '비상' 매일경제 매일경제TV 매경이코노미 매경LUXMEN CITYLIFE GFW M-PRINT 예능 교양 드라마 편성표 온에어 통합검색 닫기 뉴스 다시보기 이슈플러스 연예 포토 전체 정치 사회 경제 국제 문화 스포츠 연예 생활/건강 엠픽 데이터M 인기척 다듬은 우리말 뉴스 &gt; 사회 제주도, 봄맞이 관광객 코로나19 확진 줄줄이 '비상' 기사입력 2021-04-08 10:10 l 최종수정 2021-04-15 11:05 제주에서 봄맞이 관광객의 신종 코로나바이러스 감염증(코로나19) 확진 사례가 이어지고 있습니다. 제주도는 이달 들어 7일간 발생한 코로나19 확진자 12명 중 11명이 다른 지역에서 제주를 방문한 관광객이거나 다른 지역 확진자와 접촉한 후 감염된 것으로 확인됐다고 오늘(8일) 밝혔습니다. 도 조사 결과 일부 확진자 중 제주 방문 전 의심 증상이 있었거나 직장 내 확진자가 발생했지만, 제주 여행을 한 것으로 확인했습니다. 도 관광협회에 따르면 지난달 제주를 찾은 관광객은 88만 명으로, 지난해 같은 기간 47만 명에 비해 갑절 가까이 증가했습니다. 또 코로나19 사태 이전인 2019년 3월 한 달 방문객 103만 명에 비해 85% 수준으로 회복했습니다. 지난해 3월에는 코로나19로 인해 관광시장이 위축됐지만, 1년 만에 사실상 코로나19 이전 수준에 가깝게 회복되고 있습니다. 임태봉 제 주코로나방역대응추진단장은 "4월 봄 관광이 더욱 활성화되면서 관광객 중 확진되는 사례가 늘고 있다"며 "도민 중에서도 14일 이내 다른 지역을 다녀왔거나 관광객과 밀접 접촉을 한 업종 종사자들은 코로나19에 확진되지 않도록 방역 사항을 준수해 달라"고 당부했습니다. [디지털뉴스부] Copyright ⓒ MBN(매일방송) 무단전재 및 재배포 금지 화제 뉴스 '우울증·생활고에'…경남에서 초등생 자녀 살해 후 극단 선택 잇따라 김재원 "윤 대통령, 한동훈 아주 애정어린 눈으로 지켜보지 않을까" 정진석 "조선, 안에서 썩어 문드러져"…민주 "식민사관 언어" 직장인 올해 남은 '대체 휴일'은? 신혜성, 음주운전 인정…"본인 차 아닌지 몰랐다" '우영우 팽나무', 천연기념물 지정…명예 이장에 배우 정규수 위촉 오늘의 이슈픽 인기영상 시선집중 스타 핫뉴스 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요. 금주의 프로그램 화제영상 더보기 이시각 BEST 뉴스 동영상 주요뉴스 더보기 MBN 인기포토 아이프레임 미지원 장치에서는 내용을 확인할 수 없습니다. SNS 관심기사 MBN 소개 제휴 안내 TV 광고 이용약관 개인정보처리방침 기타운영정책 고객센터 뉴스제보 사이트맵 Family Site Family Site 매일경제 매경닷컴 매경이코노미 시티라이프 M-print 매일경제TV MBN 미디어렙 매일방송 대표이사 : 이동원 서울시 중구 퇴계로 190 (주)매일방송 오시는길 대표전화 02-2000-3114 매경닷컴 대표이사 : 김정욱 인터넷신문등록번호 서울 아01043 사업자 등록번호 201-81-25980 MBN의 모든 기사 및 영상(콘텐츠)은 저작권법의 보호를 받으며, 무단 전재, 복사, 배포를 금합니다. Copyright © MBN 매일방송 All rights reserved.</t>
+  </si>
+  <si>
+    <t>[지금 지자체에서는]제주도·제주관광공사, 제주영상공유 이벤트 '제주 러뷰 챌린지' 진행 등 [지금 지자체에서는]제주도·제주관광공사, 제주영상공유 이벤트 '제주 러뷰 챌린지' 진행 등 : 스포츠조선 뉴스 최신뉴스 카드뉴스 PDF 보기 포토 펀펌 스포츠 야구 축구 농구 배구 골프 학교체육 연예 SC초점 SC이슈 SC현장 라이프 여행레저 헬스케어 Family Site 청룡영화상 청룡시리즈어워즈 조선일보 와이즈토토 야구 축구 종합 연예 라이프 포토 만화 운세 Diva 운세의신 달리고 펀펌 경제 [지금 지자체에서는]제주도·제주관광공사, 제주영상공유 이벤트 '제주 러뷰 챌린지' 진행 등 기사입력 2021-04-07 08:56:51 [지금 지자체에서는]제주도·제주관광공사, 제주영상공유 이벤트 '제주 러뷰 챌린지' 진행 등제주도·제주관광공사, 제주영상공유 이벤트 '제주 러뷰 챌린지' 진행 ○…제주도와 제주관광공사는 SK텔레콤과 함께 이용자가 직접 찍은 제주 영상을 공유하는 이벤트인 '제주 러뷰(Jeju Loview) 챌린지'를 진행한다고 6일 밝혔다. 이번 이벤트는 참가자들이 그동안 여행했던 제주 풍경 영상을 공유하고, 이 영상을 통해 제주 여행에 대한 긍정적인 이미지를 심어주기 위해 기획됐다. 제주관광공사는 최근 이용자가 늘고 있는 V 컬러링 서비스와 연계하는 한편 숏폼(Short-form) 콘텐츠를 통해 제주를 홍보할 계획이다.제주관광공사는 본인이 직접 촬영한 제주 영상(1분 이내)을 인스타그램에 필수 해시태그를 붙여 업로드하고, 제주 러뷰 챌린지 사이트에 게시물 주소(URL) 등을 넣어 응모하면 추첨을 통해 푸짐한 경품을 제공한다. 이벤트 기간은 오는 26일까지다.제주관광공사 관계자는 "이번 이벤트는 짧지만 강렬한 인상을 남길 수 있는 숏폼 콘텐츠의 장점을 제주관광에 활용할 좋은 기회"라며 "공사는 앞으로도 다양한 매체와 미디어, 플랫폼의 특성을 활용한 맞춤형 제주관광 홍보를 할 수 있도록 노력하겠다"고 밝혔다.보령축제관광재단, 지역관광추진조직 2년 연속 선정○…충남 보령축제관광재단이 문화체육관광부와 한국관광공사가 주관한 '지역관광추진조직(DMO) 육성지원사업 공모'에 2년 연속 선정됐다. DMO는 공공, 민간, 협회, 지역주민이 협력체계를 구축하고 이를 토대로 지역관광 현안 해결과 발전을 주도적으로 추진하는 조직이다. 보령시에 따르면 보령축제관광재단은 코로나19 확산을 막기 위해 '안전하게 머물 수 있는 관광환경 조성'에 중점을 두고 안심식당 및 안심숙소 인증제 운영, 관광 품질 인증 지원, 자가 발열 체크 보드 설치 운영 등을 제시해 호평을 받았다. 보령시는 국비 1억5000만원과 시비 1억원 등 총 2억5000만원을 들여 이들 사업을 추진할 계획이다. 보령축제관광재단은 지난해에도 DMO 육성지원사업 공모에 선정돼 '보령DMO 유쾌한 힐링 관광도시'란 주제로 다양한 사업을 발굴, 추진했다. 보령축제관광재단 이사장인 김동일 시장은 "DMO가 매력적인 관광상품 개발을 통해 '꼭 방문하고 싶은 명품 관광도시 보령'을 만드는 구심 역할을 해달라"고 당부했다. 완도장보고수산물축제, 코로나19 확산세로 취소○…완도군은 5월 1일부터 5일까지 개최 예정인 '2021 완도 장보고 수산물 축제'를 취소한다고 밝혔다. 2년째 지속되고 있는 코로나19로부터 군민과 관광객 안전을 지키기 위해 취소 결정을 했다.이 축제는 해상왕 장보고 대사의 도전·개척 정신을 기리고자 1996년부터 매년 5월 열고 있으며 2015년에는 축제 명칭을 '장보고 수산물축제'로 변경했다. 그동안 해상 무역왕 장보고 대사의 진취적 기상과 청정바다 완도 수산물을 홍보하며 군민과 관광객이 함께하는 축제로 승화시켰다. 완도군 관계자는 "코로나19의 여파로 작년에 이어 올해도 축제가 취소돼 안타깝지만, 다음 축제는 알차고 안전하게 개최될 수 있도록 내실 있게 준비하겠다"고 말했다. 톱배우 충격 근황..파킨슨병으로 불편한 모습 “온몸 두들겨 맞는듯한 한해 보내” 김지민 “쌍둥이 임신해서 ♥김준호와 결혼한다고”→박미선 “떠밀려 결혼하지 마” '부모 빚투' 마이크로닷, '닭발집' 앞에서 근황을? 코 수술·뮤비 촬영 위해 귀국 '뺑소니' 조형기, 방송가 사라진 후 “美 필라델피아서 자주 목격” 박미선·김용만 불화로 갈등..“좋은 사람 아닌 것 같아” 연예 많이본뉴스 1.신화 신혜성, 도난차량서 음주측정 거부하다가 체포 2.마돈나, 41세 연하남과 열애 부담됐나? 급기야 성형의혹까지 3.'결혼지옥' 73세 아내 "79세 남편 세 번의 외도"..오은영 "배우자 외도 치명상" [SC리뷰] 4.김태희, '♥비 골프선수 불륜설' 극복..'하이바이, 마마' 향한 끈끈한 우정 5."최초공개" 오상진♥김소영, 이름도 비밀이었던 딸+집안 내부 [종합] ('동상이몽2') 스포츠 많이본뉴스 1.트레이드 실패? 이대호의 '아픈 손가락'…천재 유격수 향한 '의미심장' 마지막 당부 [SC포커스] 2."나는 게이다" 후폭풍…카시야스, 팔로워 300만 빠졌다 3.'괴물' 데려온 伊 에이전트 "나폴리에 1년 전부터 김민재 제안" 4.'55세 225일' 日축구영웅의 노욕, 팬들도 질렸다 "미우라를 월드컵으로!" 5.'너무 망가져 보인다' 눈물 참는 명장, 고통 받는 충격 근황 스포츠조선 회사소개 광고/제휴문의 사진대여 신문구독신청 개인정보처리방침 청소년보호정책 조선일보 와이즈토토 청룡영화상 등록번호 : 서울 아01720 등록일자 : 2011년 7월 29일 발행일자 : 2000년 11월 1일 주소 : 서울 양천구 목동동로 233-1 전화번호 :02-3219-8114 발행인 : 이성관 편집인 : 신보순 청소년보호책임자 : 이재훈 RSS PDF Copyright (c) SPORTSCHOSUN.COM All rights reserved.</t>
+  </si>
+  <si>
+    <t>제24회 제주도 관광기념품 공모전...총상금 2450만원 규모 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제24회 제주도 관광기념품 공모전...총상금 2450만원 규모 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제24회 제주도 관광기념품 공모전...총상금 2450만원 규모 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2021.04.06 11:37 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도와 제주특별자치도관광협회는 제주의 문화, 먹거리, 관광명소 등을 반영한 대표 관광기념품을 발굴·육성하기 위해 ‘제24회 제주도관광기념품 공모전’을 개최한다고 6일 밝혔다. 공모전 대상은 민․공예품, 공산품 및 가공식품 등 국내·외 관광객들이 구매할 수 있는 모든 제주관광기념품이다. 접수기간은 오는 21일부터 30일까지이며, 공모전 출품을 원하는 업체 및 개인은 참가신청서와 함께 출품작을 제주도관광협회(제주종합비지니스센터 1층 관광기념품 홍보관)로 접수하면 된다. 참가신청서는 제주도 홈페이지(www.jeju.go.kr) 또는 제주관광협회 홈페이지(www.visitjeju.or.kr) , 제주도 관광기념품 공모전 수상작 홈페이지(www.souvenir.visitjeju.or.kr)에서 내려받을 수 있다. 출품작은 관련분야 전문가로 구성된 심사위원단과 인터넷 신청을 통해 모집한 일반인 평가단의 심사를 거친다. 제주도는 출품작 중 1차와 2차 심사 배점표에 의거 심사기준을 통과한 총 19점을 입상작으로 선정해 6월중 최종 결과를 발표할 예정이다. 공모전 입상작은 대상 1인 500만원, 금상 2인 각 300만원, 은상 3인 각 200만원, 동상 4인 각 100만원, 장려 4인 각 50만원, 입선 5인 각 30만원 총 2450만원의 상금이 수여된다. 또 수상 순위 내 6개 입상작은 상품개발 자금 지원 특전도 주어진다. 수상자들을 대상으로 도내 홍보관 전시와 온라인 마켓 탐나오 입점 및 판매지원, 박람회 참가 홍보, 지식재산권 국내출원 비용 등 지원과 상품화 기법 특강 등을 실시할 계획이다. 김재웅 제주도 관광국장은 "제주의 가치를 널리 알릴 수 있는 매력적인 관광기념품을 발굴·육성하고, 더 나아가 공모전 입상작품의 상품화 지원으로 판로 확대를 통해 제주 관광산업의 경쟁력을 강화할 수 있도록 노력하겠다"며 도내 우수 개인과 기업의 많은 참여를 당부했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광기념품 공모전 개최 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 14:55 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰청(청장 이상률)은 11일부터 '찾아가는 가해자 교화 프로그램'을 운영한다.찾아가는 가해자 교화 프로그램은 경찰서 유치장에 유치된 '고위험군 여성폭력 ... SNS P  D  F 지면보기 이전 다음 제주도관광기념품 공모전 개최 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도관광기념품 공모전 개최 김지우 기자 승인 2021.04.06 10:10 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도와 제주도관광협회는 제주의 문화, 먹거리, 관광명소 등을 반영한 대표 관광기념품을 발굴·육성하기 위해‘제24회 제주특별자치도관광기념품 공모전’을 개최한다고 6일 밝혔다. 공모전 대상은 민․공예품, 공산품 및 가공식품 등 국내·외 관광객들이 구매할 수 있는 모든 제주관광기념품이다. 접수기간은 오는 21일부터 30일까지이며, 공모전 출품을 원하는 업체 및 개인은 참가신청서와 함께 출품작을 제주도관광협회로 접수하면 된다. 출품작은 관련분야 전문가로 구성된 심사위원단과 인터넷 신청을 통해 모집한 일반인 평가단의 심사를 거친다. 제주도는 출품작 중 1차와 2차 심사 배점표에 의거 심사기준을 통과한 총 19점을 입상작으로 선정해 6월중 최종 결과를발표할 예정이다. 공모전 입상작은 총 2450만원의 상금이 수여되며, 수상 순위 내 6개 입상작은 상품개발 자금 지원 특전도 주어진다. 또한 수상자들을 대상으로 도내 홍보관 전시와 온라인 마켓 탐나오 입점 및 판매지원, 박람회 참가 홍보, 지식재산권 국내출원 비용 등 지원과 상품화 기법 특강 등을 실시할 계획이다. 김지우 기자  jibregas@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 김지우 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주선수단, 전국체육대회 메달 목표 달성 3제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 10제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>"제주도", 20주년 맞은 문화관광해설사와 소통 시간 마련 - 한국농업신문 × 전체기사 기획 전체 뉴스팜리포트 연속 좌담회 토종볍씨 특집 인터뷰 메가 FTA 쌀개방 대비 쌀산업 경쟁력 찾기 농정 전체 농식품부 국회 단체 농산물자조금 협동조합 인터뷰 농촌사회 전체 경기/강원 충남/충북/세종 경남/경북 전남/전북 인터뷰 쌀전업농 농산 전체 농기계 농약 기술 종자 농기자재 비료 인터뷰 식품/유통 전체 유통 가공 식품 인터뷰 축산 전체 정책 단체 산업 인터뷰 포토뉴스 산림 전체 정책 단체 산업 인터뷰 오피니언 전체 기관 칼럼 사설 米적 동정/인사 종합 전체 정치/경제 사회/일반 기획_old UPDATED. 2022-10-11 13:28 (화) 전체 기획 뉴스팜리포트 연속 좌담회 토종볍씨 특집 인터뷰 메가 FTA 쌀개방 대비 쌀산업 경쟁력 찾기 농정 농식품부 국회 단체 농산물자조금 협동조합 인터뷰 농촌사회 경기/강원 충남/충북/세종 경남/경북 전남/전북 인터뷰 쌀전업농 농산 농기계 농약 비료 종자 농기자재 인터뷰 식품/유통 유통 가공 식품 인터뷰 축산 정책 단체 산업 인터뷰 산림 정책 단체 산업 인터뷰 오피니언 기관 동정/인사 칼럼 사설 기자수첩 로그인 회원가입 모바일웹 RSS 기사검색 검색 이전 다음 "제주도", 20주년 맞은 문화관광해설사와 소통 시간 마련 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 라이프 일반 "제주도", 20주년 맞은 문화관광해설사와 소통 시간 마련 조현철 기자 jhc13@newsfarm.co.kr 승인 2021.04.13 17:20 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 사진출처=제주특별자치도 제주특별자치도는 올해 활동 20주년을 맞은 문화관광해설사들의 활동 여건 개선과 역량 강화 및 기념사업 등 지원 강화를 위한 현장 소통 시간을 마련했다.제주도는 12일 오후 2시 돌문화공원 오백장군갤러리 2층 소회의실에서 ‘문화관광해설사*와의 간담회’를 개최했다.이날 자리에는 고영권 제주특별자치도 정무부지사를 비롯해 제주도 문화관광해설사 협회 김태수 회장, 해설사 등 10여명이 자리했다.고영권 부지사는 “20년 동안 제주의 역사‧문화‧자연‧예술 등을 열심히 알려주신 문화관광해설사분들 덕분에 제주 방문 관광객들의 만족도가 크게 향상하는 등 제주 관광이 질적 성장을 이룰 수 있었다”며 “코로나19로 해설 활동이 일부 제한되고 있지만, 각자 맡은 자리에서 최선을 다해달라”고 말했다.이날 간담회에서 문화관광해설사들은 근무 일수 연장 문화관광해설사 지원 방안 확장 문화관광해설사 관련 조례 개정 추진 등을 건의했다.고 부지사는 “건의 내용을 검토하여 실질적인 지원 대책을 마련할 것”이라며 “당장 해결은 어렵더라도 지속적인 소통을 통해 조금씩 바꿔나가도록 노력하겠다”고 말했다.한편 제주도는 올해 문화관광해설사 활동 20주년을 맞아 해설사 여건 개선과 역량 강화 및 기념사업 등에 총 12억원을 지원할 예정이다.또한 코로나19로 확산 방지를 위해 문화관광 해설 활동이 일부 제한되고 있음에 따라 주요 관광지의 코로나바이러스 관련 안전 및 질서유지, 안내 등 업무에 해설사들이 참여할 수 있도록 조정하는 중이다. 저작권자 © 한국농업신문 무단전재 및 재배포 금지 조현철 기자 jhc13@newsfarm.co.kr 다른기사 보기 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 인기기사 1햇반컵반에 수입쌀 쓰는 CJ…“농가 상생 웬말” 2"나를 위한 꽃 선물"…매주 다른 꽃이 집 앞으로 3쌀 시장 안정 속도낸다…수확기 수급대책 발표 4[쌀산업 좌담회] 쌀산업 경쟁력 강화 – 맛있는 쌀을 찾아라 5“니미츠야 선충을 부탁해” 6농경연, 지방소멸 위기대응 전략 세미나 공동 개최 7목재제품 우수성 알린다…목재산업박람회 개최 8공원묘원 플라스틱 조화 '퇴출' 한목소리…법적 제재도 강구해야 9쌀가루 전용 ‘가루쌀’ 재배 "신중 또 신중" 10저탄소 식생활 전 세계로…글로벌 그린푸드 데이 비전 선포 최신기사 바이오플랜, 필리핀 벼 연구소 대상 화상 세미나 개최 바이오플랜, 필리핀 벼 연구소 대상 화상 세미나 개최 [수확량 감소 이어지는 ‘뿌리혹선충’ 방제는] [수확량 감소 이어지는 ‘뿌리혹선충’ 방제는] 한국작물보호협회, 제22대 염병진 회장 선출 한국작물보호협회, 제22대 염병진 회장 선출 생산성‧품질 인정받은 ‘로망스골드’ 생산성‧품질 인정받은 ‘로망스골드’ 안병길 의원, 한글날 기념 ‘농어업 쉬운말 4법’ 발의 안병길 의원, 한글날 기념 ‘농어업 쉬운말 4법’ 발의 [2022년 국정감사- 농협중앙회] 농협, 수확기 대비 벼매입자금 2조1천억원 투입 [2022년 국정감사- 농협중앙회] 농협, 수확기 대비 벼매입자금 2조1천억원 투입 국내 농업생산의 30% '스마트농업' 전환 추진 국내 농업생산의 30% '스마트농업' 전환 추진 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 윤리강령 RSS (31041) 충청남도 천안시 서북구 성거읍 정자1길 180 한국농기계글로벌센터 B동 2층 대표전화 : 041-552-1145 팩스 : 02-6455-1147 청소년보호책임자 : 김진삼(김난영) 등록번호 : 충남 아 00258 등록일 : 2012-10-29 발행일 : 2012-10-29 (사)한국쌀전업농중앙연합회장·한국농업신문 회장 발행인 : 이은만 한국농업신문 대표이사 편집인 : 김진삼 한국농업신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 한국농업신문. All rights reserved. mail to newsfarm@newsfarm.co.kr 위로</t>
   </si>
   <si>
     <t>제주도·제주관광공사·SK텔레콤, ‘제주 러뷰 챌린지’개최 TtL News 티티엘뉴스 Login | Join HOME. 트렌드 이슈. 산업 | 경제 | 정책. 국내여행 | 레저. 해외여행 | 레저. 엔터테인먼트. 라이프재테크. News Category 뉴스 카테고리 트렌드 이슈. 산업 | 경제 | 정책. 국내여행 | 레저. 해외여행 | 레저. 엔터테인먼트. 라이프재테크. Home 국내여행 | 레저 전체보기 여행지 테마|즐길거리 골프/레저 맛집 호텔/리조트 축제/공연/이벤트 국내여행팁 English news 목록 제주도·제주관광공사·SK텔레콤, ‘제주 러뷰 챌린지’개최 가고 싶고 보고 싶은, 당신의 제주를 보여주세요, 이벤트 6일부터 26일까지 V컬러링 서비스 연계, 제주 영상 공유로 새로운 방식의 홍보 기대 2021-04-06 10:19:23							, 수정 : 2021-04-06 16:59:56							 | 이상인 선임기자 [티티엘뉴스] 코로나19로 위축된 관광산업에 활로를 찾기 위해 위드 코로나 시대에 걸맞은 새로운 방식의 제주관광 홍보 이벤트에 관심이 집중되고 있다. ▲제주 러뷰(Jeju Loview) 챌린지 포스터 제주특별자치도와 제주관광공사(사장 고은숙)는 SK텔레콤과 함께 이용자가 직접 찍은 제주 영상을 공유하는 이벤트인 ‘제주 러뷰(Jeju Loview) 챌린지’를 6일부터 오는 26일까지 개최한다고 밝혔다. 이번 이벤트는 참가자들이 그동안 여행했던 제주 풍경 영상을 공유하고, 이 영상을 통해 제주 여행에 대한 긍정적인 이미지를 심어주기 위해 기획됐다. 특히 공사는 금번 이벤트를 최근 이용자가 늘고 있는 V컬러링 서비스(나에게 전화하는 상대방에게 내가 미리 설정해 둔 영상을 보여주는 신개념의 컬러링 서비스. 듣기만 했던 기존의 음성 컬러링에 시각적인 요소를 입혀 새로운 즐거움을 제공함. 현재 SK텔레콤과 KT에서 서비스 중)와 연계하는 한편, 숏폼 콘텐츠(1~10분 이내의 짧은 영상으로, 언제 어디서나 모바일 기기를 이용해서 콘텐츠를 즐기는 대중들의 소비 형태를 반영한 트렌드)를 통한 제주 홍보라는 색다른 방식을 시도했다. 이번 이벤트에선 본인이 직접 촬영한 제주 영상(1분 이내)을 인스타그램에 필수 해시태그를 붙여 업로드하고, 제주 러뷰 챌린지 사이트에 게시물 URL 등을 작성해 응모하면 추첨을 통해서 푸짐한 경품이 제공된다. 이 밖에도 이벤트 사이트에서 제공하는 제주 영상을 V컬러링으로 설정하거나, 내가 찍은 영상으로 V컬러링을 인증했을 경우 추가 경품을 받을 수 있는 기회가 제공된다. 제주관광공사 관계자는 “이번 이벤트는 짧지만 강렬한 인상을 남길 수 있는 숏폼 콘텐츠의 장점을 제주관광에 활용할 수 있는 좋은 기회라고 생각한다”며 “공사는 앞으로도 다양한 매체와 미디어, 플랫폼의 특성을 활용한 맞춤형 제주관광 홍보를 할 수 있도록 노력하겠다”고 밝혔다. 이상인 선임기자 lagolftime@ttlnews.com 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 관련기사 3월 출발 국내 항공 수요 증가세…"틈새 수요 놓칠라" 여행 혜택 강화 제주도관광협회 공정 판매 플랫폼 '탐나오', 20일까지 무료 감귤 따기 체험 등 감사이벤트 진행 한국관광공사·지역관광공사, 국내관광 활성화 위해 맞손 내·외국인 제주 여행도 개별·가성비 여행 두드러져 제주항공, 주3회 제주-후쿠오카 운항 시작 제주도, 후쿠오카 FIT 유치 위한 설명회 연다 여신들의 고향, 제주도 목록 엔터테인먼트 트렌드 이슈 관광항공인&amp;인터뷰 회사소개 ｜ 광고·제휴문의｜ 회원약관｜ 개인정보취급방침｜ 기사제보 | (주)여심 | 서울, 아03649 | 등록일자: 2015년 3월 25일 | 제호: 트래블투라이프(Travel to Lifestyle·티티엘뉴스) | 발행·편집인: 편성희 | 편집장: 정연비 | 청소년보호책임자: 편성희 | 발행일자: 2015년 1월 5일 편집/제작국: 02)6354-4608, ttlnews@ttlnews.com 광고/콘텐츠사업국: 02)6354-4609, ads@ttlnews.com 서울특별시 종로구 세종대로 149 광화문빌딩 20층 HJBC 2134호 티티엘뉴스는 인터넷신문위원회의 기사 및 광고부문 자율규약 준수를 동의한 서약사입니다. 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 정연비 02-6354-4608 ttlnews@ttlnews.com 티티엘뉴스의 모든 콘텐츠는 저작권법의 보호를 받은바, 무단 전재·복사·배포 등을 금합니다. Copyright by TtL news × 유투브 동영상 삽입 가이드 삽입하고자 하는 유투브 동영상의 페이지로 접속하신 후에, 동영상 밑에 있는 '공유' 버튼을 누릅니다. '공유'버튼을 누르면 나오는 탭들 중에 '소스코드'를 선택하시고 해당 소스코드를 복사하신 후 게시판에 붙여넣기 합니다. 닫기 × 뉴스 검색 닫기</t>
@@ -434,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,7 +630,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -467,7 +641,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -478,7 +652,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -489,7 +663,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -500,7 +674,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -510,6 +684,9 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
@@ -518,9 +695,6 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
@@ -530,7 +704,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -541,7 +715,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -552,7 +726,334 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
